--- a/05_Kostenanalysen/00_Kosten.xlsx
+++ b/05_Kostenanalysen/00_Kosten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\05_Kostenanalysen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\05_Kostenanalysen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB56AB97-F644-48EF-8B6A-32601AEC28A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7D08ED-6658-48A0-9DC5-EC0328C98955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>Grundboard</t>
   </si>
@@ -154,12 +154,6 @@
     <t>Filter/Drossel</t>
   </si>
   <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>Molex Minifit</t>
-  </si>
-  <si>
     <t>Kabel</t>
   </si>
   <si>
@@ -185,13 +179,130 @@
   </si>
   <si>
     <t>Komp</t>
+  </si>
+  <si>
+    <t>Interface Ioe</t>
+  </si>
+  <si>
+    <t>Motorstecker</t>
+  </si>
+  <si>
+    <t>Encoderstecker</t>
+  </si>
+  <si>
+    <t>Ferritkern?</t>
+  </si>
+  <si>
+    <t>Molex Minifit fem</t>
+  </si>
+  <si>
+    <t>MTA100</t>
+  </si>
+  <si>
+    <t>HexTrigger</t>
+  </si>
+  <si>
+    <t>Inp OnBoard</t>
+  </si>
+  <si>
+    <t>Diff. Reciever</t>
+  </si>
+  <si>
+    <t>MCU on Board</t>
+  </si>
+  <si>
+    <t>Spannungsregler</t>
+  </si>
+  <si>
+    <t>I2C PrintID</t>
+  </si>
+  <si>
+    <t>Wie kalkulieren</t>
+  </si>
+  <si>
+    <t>STM32C011F6P6</t>
+  </si>
+  <si>
+    <t>Treiber+Index</t>
+  </si>
+  <si>
+    <t>1.8-2.1A ; 24V</t>
+  </si>
+  <si>
+    <t>Step/Dir, StGrd</t>
+  </si>
+  <si>
+    <t>Dicke Elkos</t>
+  </si>
+  <si>
+    <t>Treiber vollInt.</t>
+  </si>
+  <si>
+    <t>2.1A; 24V</t>
+  </si>
+  <si>
+    <t>SPI, Step/dir</t>
+  </si>
+  <si>
+    <t>Baustein</t>
+  </si>
+  <si>
+    <t>2.8A ; 24V</t>
+  </si>
+  <si>
+    <t>10A ; 48V</t>
+  </si>
+  <si>
+    <t>z.B.</t>
+  </si>
+  <si>
+    <t>PowerStep01</t>
+  </si>
+  <si>
+    <t>DRV8462</t>
+  </si>
+  <si>
+    <t>7A; 48V</t>
+  </si>
+  <si>
+    <t>Eigene Endstufe</t>
+  </si>
+  <si>
+    <t>Indexer vollInt.</t>
+  </si>
+  <si>
+    <t>TMC2210</t>
+  </si>
+  <si>
+    <t>DRV8461</t>
+  </si>
+  <si>
+    <t>TMC2260</t>
+  </si>
+  <si>
+    <t>TMC2160</t>
+  </si>
+  <si>
+    <t>Ohne Endstufe</t>
+  </si>
+  <si>
+    <t>Indexer</t>
+  </si>
+  <si>
+    <t>N_Channel MOSFET</t>
+  </si>
+  <si>
+    <t>40A-&gt;</t>
+  </si>
+  <si>
+    <t>oben 7A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,16 +337,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -296,6 +431,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -307,36 +451,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,10 +475,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -641,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,118 +807,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
       <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="14">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="10" t="s">
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="10" t="s">
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
       <c r="Y1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="16" t="s">
+      <c r="N2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="17" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="16" t="s">
+      <c r="S2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>42</v>
+      <c r="X2" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="Y2" t="s">
         <v>18</v>
@@ -787,12 +932,11 @@
         <v>19</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="1"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1">
@@ -801,34 +945,31 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1">
         <f>G1*(B3*Y3+C3*Z3+D3*AA3+E3*AB3+F3*AC3)</f>
-        <v>1.1982168219476743</v>
+        <v>0.91932408333333338</v>
       </c>
       <c r="H3">
         <f>(SUM(B3:F3)*0.04)</f>
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="I3" s="1">
         <f>G3+H3</f>
-        <v>2.2782168219476744</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>39</v>
+        <v>1.9593240833333334</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K3" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="L3" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="12">
         <v>0.151</v>
       </c>
       <c r="M3" s="1">
@@ -836,14 +977,14 @@
       </c>
       <c r="N3" s="1">
         <f>M3*(L3+K3)</f>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="T3" s="11" t="s">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="T3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>38</v>
+      <c r="U3" s="1">
+        <v>0.04</v>
       </c>
       <c r="V3" s="1">
         <v>0.85</v>
@@ -851,13 +992,15 @@
       <c r="W3" s="1">
         <v>1</v>
       </c>
+      <c r="X3" s="1">
+        <f>W3*(V3+U3)</f>
+        <v>0.89</v>
+      </c>
       <c r="Y3">
-        <f>Kostenanalyse_SMSe!B6</f>
-        <v>3.811328125E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="Z3">
-        <f>Kostenanalyse_SMSe!C6</f>
-        <v>1.0312945736434109E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="AA3">
         <f>Kostenanalyse_SMSe!D6</f>
@@ -871,14 +1014,30 @@
         <f>Kostenanalyse_SMSe!F6</f>
         <v>0.378419375</v>
       </c>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="J4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="T4" s="11" t="s">
-        <v>40</v>
+      <c r="A4" s="9">
+        <f>ROUND((I6+N6+S6+X6),2)</f>
+        <v>7.8</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <f>W4*(V4+U4)</f>
+        <v>0.55100000000000005</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -886,167 +1045,1515 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="J5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="C6" s="9"/>
-      <c r="J6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="J5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="T5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <f>W5*(V5+U5)</f>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="I6" s="6">
+        <f>SUM(I3:I5)</f>
+        <v>1.9593240833333334</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <f>SUM(N3:N5)</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6">
+        <f>SUM(S3:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6">
+        <f>SUM(X3:X5)</f>
+        <v>5.4909999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="J7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L7" s="12">
+        <v>3.25935</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <f>M7*(L7+K7)</f>
+        <v>3.29935</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.32756000000000002</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <f>R7*(Q7+P7)</f>
+        <v>0.34756000000000004</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="1">
+        <v>6</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="J8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="A8" s="9">
+        <f>I10+N10+S10+X10</f>
+        <v>10.35791</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <f>M8*(L8+K8)</f>
+        <v>0.71100000000000008</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="J9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="J10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="T10" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="J9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="I10" s="6">
+        <f>SUM(I7:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
+        <f>SUM(N7:N9)</f>
+        <v>4.0103499999999999</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6">
+        <f>SUM(S7:S9)</f>
+        <v>0.34756000000000004</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6">
+        <f>SUM(X7:X9)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="J11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="T11" s="11"/>
+      <c r="A11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <f>G1*(B11*Y3+C11*Z3+D11*AA3+E11*AB3+F11*AC3)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H11">
+        <f>0.04*(SUM(B11:F11))</f>
+        <v>0.72</v>
+      </c>
+      <c r="I11" s="1">
+        <f>H11+G11</f>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <f>M11*(L11+K11)</f>
+        <v>1.21</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.65564999999999996</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <f>R11*(Q11+P11)</f>
+        <v>0.69564999999999999</v>
+      </c>
+      <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="J12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="A12" s="9">
+        <f>I14+N14+S14+X11</f>
+        <v>2.6496499999999998</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="J13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="J14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="T14" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="J13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="I14" s="6">
+        <f>SUM(I11:I13)</f>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
+        <f>SUM(N11:N13)</f>
+        <v>1.21</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6">
+        <f>SUM(S11:S13)</f>
+        <v>0.69564999999999999</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6">
+        <f>SUM(X11:X13)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="J15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="A15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <f>G1*(B15*Y3+C15*Z3+D15*AA3+E15*AB3+F15*AC3)</f>
+        <v>7.924266666666667E-2</v>
+      </c>
+      <c r="H15">
+        <f>0.04*(SUM(B15:F15))</f>
+        <v>0.44</v>
+      </c>
+      <c r="I15" s="1">
+        <f>H15+G15</f>
+        <v>0.51924266666666663</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <f>M15*(L15+K15)</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <f>R15*(Q15+P15)</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="J16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="J17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="J18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="J19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="T19" s="11"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="J20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="T20" s="11"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="J21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="T21" s="11"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="J22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="T22" s="11"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="J23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="T23" s="11"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="J24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="J25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="J26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="J27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="T27" s="11"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="J28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="T28" s="11"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="J29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="T29" s="11"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="J30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="T30" s="11"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="J31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="T31" s="11"/>
+      <c r="A16" s="9">
+        <f>I18+N18+S18+X15</f>
+        <v>1.2082426666666668</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="J17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="I18" s="6">
+        <f>SUM(I15:I17)</f>
+        <v>0.51924266666666663</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6">
+        <f>SUM(N15:N17)</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6">
+        <f>SUM(S15:S17)</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6">
+        <f>SUM(X15:X17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <f>G1*(B19*Y3+C19*Z3+D19*AA3+E19*AB3+F19*AC3)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H19">
+        <f>0.04*(SUM(B19:F19))</f>
+        <v>0.64</v>
+      </c>
+      <c r="I19" s="1">
+        <f>H19+G19</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="L19" s="12"/>
+      <c r="O19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <f>R19*(Q19+P19)</f>
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="V19" s="1">
+        <v>9.4210000000000002E-2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <f>W19*(V19+U19)</f>
+        <v>0.13421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f>I22+N22+S22+X19</f>
+        <v>1.5842100000000001</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="J21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="I22" s="6">
+        <f>SUM(I19:I21)</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6">
+        <f>SUM(N19:N21)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6">
+        <f>SUM(S19:S21)</f>
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6">
+        <f>SUM(X19:X21)</f>
+        <v>0.13421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <f>G1*(B23*Y3+C23*Z3+D23*AA3+E23*AB3+F23*AC3)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H23">
+        <f>0.04*(SUM(B23:F23))</f>
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="1">
+        <f>H23+G23</f>
+        <v>0.625</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="L23" s="12"/>
+      <c r="O23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <f>R23*(Q23+P23)</f>
+        <v>2.84</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V23" s="15">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <f>W23*(V23+U23)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <f>I26+N26+S26+X23</f>
+        <v>3.7456800000000001</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6">
+        <f>SUM(I23:I25)</f>
+        <v>0.625</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6">
+        <f>SUM(N23:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6">
+        <f>SUM(S23:S25)</f>
+        <v>2.84</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6">
+        <f>SUM(X23:X25)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <f>G5*(B27*Y7+C27*Z7+D27*AA7+E27*AB7+F27*AC7)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>0.04*(SUM(B27:F27))</f>
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="1">
+        <f>H27+G27</f>
+        <v>0.6</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="L27" s="12"/>
+      <c r="O27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <f>R27*(Q27+P27)</f>
+        <v>3.54</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V27" s="15">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1">
+        <f>W27*(V27+U27)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <f>I30+N30+S30+X27</f>
+        <v>4.4206799999999999</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="O28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="O29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="6">
+        <f>SUM(I27:I29)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6">
+        <f>SUM(N27:N29)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6">
+        <f>SUM(S27:S29)</f>
+        <v>3.54</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6">
+        <f>SUM(X27:X29)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <f>G9*(B31*Y11+C31*Z11+D31*AA11+E31*AB11+F31*AC11)</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>0.04*(SUM(B31:F31))</f>
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="1">
+        <f>H31+G31</f>
+        <v>0.6</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="L31" s="12"/>
+      <c r="O31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>7.4867999999999997</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1">
+        <f>R31*(Q31+P31)</f>
+        <v>7.5267999999999997</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V31" s="15">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W31" s="1">
+        <v>2</v>
+      </c>
+      <c r="X31" s="1">
+        <f>W31*(V31+U31)</f>
+        <v>0.56136000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <f>I34+N34+S34+X31</f>
+        <v>8.6881599999999999</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="O32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="6">
+        <f>SUM(I31:I33)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6">
+        <f>SUM(N31:N33)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6">
+        <f>SUM(S31:S33)</f>
+        <v>7.5267999999999997</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6">
+        <f>SUM(X31:X33)</f>
+        <v>0.56136000000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1">
+        <f>G13*(B35*Y15+C35*Z15+D35*AA15+E35*AB15+F35*AC15)</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>0.04*(SUM(B35:F35))</f>
+        <v>0.6</v>
+      </c>
+      <c r="I35" s="1">
+        <f>H35+G35</f>
+        <v>0.6</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="L35" s="12"/>
+      <c r="O35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <f>R35*(Q35+P35)</f>
+        <v>3.71</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V35" s="15">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W35" s="1">
+        <v>2</v>
+      </c>
+      <c r="X35" s="1">
+        <f>W35*(V35+U35)</f>
+        <v>0.56136000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <f>I38+N38+S38+X35</f>
+        <v>4.8713599999999992</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="O36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="O37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="6">
+        <f>SUM(I35:I37)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6">
+        <f>SUM(N35:N37)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6">
+        <f>SUM(S35:S37)</f>
+        <v>3.71</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6">
+        <f>SUM(X35:X37)</f>
+        <v>0.56136000000000008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1">
+        <f>G17*(B39*Y19+C39*Z19+D39*AA19+E39*AB19+F39*AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>0.04*(SUM(B39:F39))</f>
+        <v>0.4</v>
+      </c>
+      <c r="I39" s="1">
+        <f>H39+G39</f>
+        <v>0.4</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="L39" s="12"/>
+      <c r="O39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <f>R39*(Q39+P39)</f>
+        <v>3.05</v>
+      </c>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <f>I42+N42+S42+X39</f>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="O40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="6">
+        <f>SUM(I39:I41)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6">
+        <f>SUM(N39:N41)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6">
+        <f>SUM(S39:S41)</f>
+        <v>3.05</v>
+      </c>
+      <c r="T42" s="7"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="1">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1">
+        <f>G21*(B43*Y23+C43*Z23+D43*AA23+E43*AB23+F43*AC23)</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>0.04*(SUM(B43:F43))</f>
+        <v>0.8</v>
+      </c>
+      <c r="I43" s="1">
+        <f>H43+G43</f>
+        <v>0.8</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="L43" s="12"/>
+      <c r="O43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0.47145999999999999</v>
+      </c>
+      <c r="R43" s="1">
+        <v>8</v>
+      </c>
+      <c r="S43" s="1">
+        <f>R43*(Q43+P43)</f>
+        <v>4.0916800000000002</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V43" s="15">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W43" s="1">
+        <v>2</v>
+      </c>
+      <c r="X43" s="1">
+        <f>W43*(V43+U43)</f>
+        <v>0.56136000000000008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <f>I46+N46+S46+X43</f>
+        <v>5.4530399999999997</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="S44" s="14"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="J45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="6">
+        <f>SUM(I43:I45)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6">
+        <f>SUM(N43:N45)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6">
+        <f>SUM(S43:S45)</f>
+        <v>4.0916800000000002</v>
+      </c>
+      <c r="T46" s="7"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6">
+        <f>SUM(X43:X45)</f>
+        <v>0.56136000000000008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="J47" s="4"/>
+      <c r="L47" s="12"/>
+      <c r="O47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="J48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="S48" s="14"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="J49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="J51" s="4"/>
+      <c r="L51" s="12"/>
+      <c r="O51" s="4"/>
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="J52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="S52" s="14"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="J53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1">
+        <f>G1*(B55*Y3+C55*Z3+D55*AA3+E55*AB3+F55*AC3)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H55">
+        <f>0.04*(SUM(B55:F55))</f>
+        <v>0.6</v>
+      </c>
+      <c r="I55" s="1">
+        <f>H55+G55</f>
+        <v>0.625</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="L55" s="12"/>
+      <c r="O55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>3.91161</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1</v>
+      </c>
+      <c r="S55" s="1">
+        <f>R55*(Q55+P55)</f>
+        <v>3.9516100000000001</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V55" s="15">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W55" s="1">
+        <v>1</v>
+      </c>
+      <c r="X55" s="1">
+        <f>W55*(V55+U55)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <f>I58+N58+S58+X55</f>
+        <v>4.8572900000000008</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="S56" s="14"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="6">
+        <f>SUM(I55:I57)</f>
+        <v>0.625</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6">
+        <f>SUM(N55:N57)</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="7"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6">
+        <f>SUM(S55:S57)</f>
+        <v>3.9516100000000001</v>
+      </c>
+      <c r="T58" s="7"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6">
+        <f>SUM(X55:X57)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1">
+        <f>G5*(B59*Y7+C59*Z7+D59*AA7+E59*AB7+F59*AC7)</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>0.04*(SUM(B59:F59))</f>
+        <v>0.6</v>
+      </c>
+      <c r="I59" s="1">
+        <f>H59+G59</f>
+        <v>0.6</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="L59" s="12"/>
+      <c r="O59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q59" s="15">
+        <v>3.91161</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1</v>
+      </c>
+      <c r="S59" s="1">
+        <f>R59*(Q59+P59)</f>
+        <v>3.9516100000000001</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V59" s="15">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W59" s="1">
+        <v>1</v>
+      </c>
+      <c r="X59" s="1">
+        <f>W59*(V59+U59)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <f>I62+N62+S62+X59</f>
+        <v>4.8322900000000004</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="S60" s="14"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="T61" s="4"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="6">
+        <f>SUM(I59:I61)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6">
+        <f>SUM(N59:N61)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="7"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6">
+        <f>SUM(S59:S61)</f>
+        <v>3.9516100000000001</v>
+      </c>
+      <c r="T62" s="7"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6">
+        <f>SUM(X59:X61)</f>
+        <v>0.28068000000000004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1058,38 +2565,38 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1108,7 +2615,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -1185,27 +2692,27 @@
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <f>B4/B5</f>
+        <f t="shared" ref="B6:G6" si="0">B4/B5</f>
         <v>3.811328125E-3</v>
       </c>
       <c r="C6" s="1">
-        <f>C4/C5</f>
+        <f t="shared" si="0"/>
         <v>1.0312945736434109E-2</v>
       </c>
       <c r="D6" s="1">
-        <f>D4/D5</f>
+        <f t="shared" si="0"/>
         <v>0.16765000000000002</v>
       </c>
       <c r="E6" s="1">
-        <f>E4/E5</f>
+        <f t="shared" si="0"/>
         <v>3.3121333333333336E-2</v>
       </c>
       <c r="F6" s="1">
-        <f>F4/F5</f>
+        <f t="shared" si="0"/>
         <v>0.378419375</v>
       </c>
       <c r="G6" s="1">
-        <f>G4/G5</f>
+        <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
       <c r="H6" s="1">
@@ -1231,234 +2738,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693D8C3-BD26-497C-A23A-1D0104364E5E}">
   <dimension ref="B2:X44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -1467,14 +2974,6 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:F25"/>
-    <mergeCell ref="B26:F26"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -1486,6 +2985,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:F25"/>
+    <mergeCell ref="B26:F26"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="B4:C4"/>

--- a/05_Kostenanalysen/00_Kosten.xlsx
+++ b/05_Kostenanalysen/00_Kosten.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\05_Kostenanalysen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7D08ED-6658-48A0-9DC5-EC0328C98955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4782AB9-80C2-463D-A552-1F35C63E4B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{F22203A0-F8E6-4CAF-89A2-E8C077A41A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenanalys_Features" sheetId="1" r:id="rId1"/>
-    <sheet name="Kostenanalyse_SMSe" sheetId="3" r:id="rId2"/>
-    <sheet name="Kostenanalyse" sheetId="2" r:id="rId3"/>
+    <sheet name="Morphologischer Kasten" sheetId="4" r:id="rId2"/>
+    <sheet name="Kostenanalyse_SMSe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,50 +38,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
-  <si>
-    <t>Grundboard</t>
-  </si>
-  <si>
-    <t>Positionen</t>
-  </si>
-  <si>
-    <t>Leiterplatte selbst</t>
-  </si>
-  <si>
-    <t>Schnittstelle an IOe2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="169">
   <si>
     <t>Encoder Stecker</t>
   </si>
   <si>
-    <t>Motoren Stecker</t>
-  </si>
-  <si>
-    <t>Zusatzausstattungen</t>
-  </si>
-  <si>
-    <t>Speisung extern</t>
-  </si>
-  <si>
-    <t>Eingänge auf Board platzieren</t>
-  </si>
-  <si>
     <t>eigene MCU</t>
   </si>
   <si>
-    <t>selbst entworfene Endstufe</t>
-  </si>
-  <si>
-    <t>Encoder an IOe2 weiterleiten</t>
-  </si>
-  <si>
-    <t>Encoder auswertung</t>
-  </si>
-  <si>
-    <t>Schätzung benötigte Bauteile</t>
-  </si>
-  <si>
     <t>Preis/Stück</t>
   </si>
   <si>
@@ -296,13 +260,298 @@
   </si>
   <si>
     <t>oben 7A</t>
+  </si>
+  <si>
+    <t>Shift f. I2C</t>
+  </si>
+  <si>
+    <t>Schiebereg.</t>
+  </si>
+  <si>
+    <t>ADI-nein TI-ja</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>je nach Treiber</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Pflichtenheft Erfüllung</t>
+  </si>
+  <si>
+    <t>Irms</t>
+  </si>
+  <si>
+    <t>Uout</t>
+  </si>
+  <si>
+    <t>Konzept 4</t>
+  </si>
+  <si>
+    <t>Konzept 3</t>
+  </si>
+  <si>
+    <t>Konzept 2</t>
+  </si>
+  <si>
+    <t>Konzept 1</t>
+  </si>
+  <si>
+    <t>über Controller</t>
+  </si>
+  <si>
+    <t>über MCU</t>
+  </si>
+  <si>
+    <t>von IOe2</t>
+  </si>
+  <si>
+    <t>Schrittsteuerung</t>
+  </si>
+  <si>
+    <t>eigenbau</t>
+  </si>
+  <si>
+    <t>integriert im Treiber</t>
+  </si>
+  <si>
+    <t>Endstufe</t>
+  </si>
+  <si>
+    <t>über IOe2</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>Spannungsversorgung</t>
+  </si>
+  <si>
+    <t>garnicht</t>
+  </si>
+  <si>
+    <t>Logisch verknüpfung</t>
+  </si>
+  <si>
+    <t>Inkrementelle Leiter</t>
+  </si>
+  <si>
+    <t>integriert in Treiber</t>
+  </si>
+  <si>
+    <t>eigener MCU</t>
+  </si>
+  <si>
+    <t>Ioe macht das</t>
+  </si>
+  <si>
+    <t>Ramp Generation</t>
+  </si>
+  <si>
+    <t>an Ioe weiterleiten</t>
+  </si>
+  <si>
+    <t>Encoder auswerten</t>
+  </si>
+  <si>
+    <t>Sensoren anschliessen</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>Step/dir</t>
+  </si>
+  <si>
+    <t>Schnittstelle zu IOe2</t>
+  </si>
+  <si>
+    <t>mehr</t>
+  </si>
+  <si>
+    <t>Anzahl Erweiterungen</t>
+  </si>
+  <si>
+    <t>&gt; 2.5A</t>
+  </si>
+  <si>
+    <t>2A - 2.5A</t>
+  </si>
+  <si>
+    <t>1.5A - 2A</t>
+  </si>
+  <si>
+    <t>48V</t>
+  </si>
+  <si>
+    <t>24V</t>
+  </si>
+  <si>
+    <t>Adresskonfiguration I2C</t>
+  </si>
+  <si>
+    <t>mit Shiftregister</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Treiber+Indexer</t>
+  </si>
+  <si>
+    <t>reiner Indexer</t>
+  </si>
+  <si>
+    <t>Vollintegriert</t>
+  </si>
+  <si>
+    <t>an Ioe direkt</t>
+  </si>
+  <si>
+    <t>TMC5240</t>
+  </si>
+  <si>
+    <t>2.1A</t>
+  </si>
+  <si>
+    <t>Stecker auf Board</t>
+  </si>
+  <si>
+    <t>An MCU/Controller</t>
+  </si>
+  <si>
+    <t>HK vorkalkulation</t>
+  </si>
+  <si>
+    <t>Gehäuse</t>
+  </si>
+  <si>
+    <t>Rüstkosten</t>
+  </si>
+  <si>
+    <t>9 pro Komponente @ 500stk</t>
+  </si>
+  <si>
+    <t>1.48 pro SMSe bei 82 Komponenten</t>
+  </si>
+  <si>
+    <t>: 1CHF annahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICT ? </t>
+  </si>
+  <si>
+    <t>Rüstk. pauschal</t>
+  </si>
+  <si>
+    <t>powerstep01</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>SPI Board erweitern</t>
+  </si>
+  <si>
+    <t>vom IOe2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMC2260 </t>
+  </si>
+  <si>
+    <t>2.8A</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>Entwicklungsaufw.</t>
+  </si>
+  <si>
+    <t>höher</t>
+  </si>
+  <si>
+    <t>DRV8424</t>
+  </si>
+  <si>
+    <t>Step/Dir</t>
+  </si>
+  <si>
+    <t>an Ioe</t>
+  </si>
+  <si>
+    <t>Über IOe2</t>
+  </si>
+  <si>
+    <t>Reserve-Faktor</t>
+  </si>
+  <si>
+    <t>Konzept 5</t>
+  </si>
+  <si>
+    <t>TMC5160</t>
+  </si>
+  <si>
+    <t>abh. V. Endstufe</t>
+  </si>
+  <si>
+    <t>/Step/Dir/SPI</t>
+  </si>
+  <si>
+    <t>Gewichtung</t>
+  </si>
+  <si>
+    <t>Teilnutzwert</t>
+  </si>
+  <si>
+    <t>NWA</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Gesamtnutzwert</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Bewertung [%]</t>
+  </si>
+  <si>
+    <t>Treiber mit eigenbau Endstufe:</t>
+  </si>
+  <si>
+    <t>integrierter treiber</t>
+  </si>
+  <si>
+    <t>reiner indexer + Tteiber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,14 +561,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -349,8 +590,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +622,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -440,19 +759,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,37 +930,329 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,137 +1555,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>35</v>
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="K1"/>
       <c r="L1"/>
-      <c r="O1" s="3" t="s">
-        <v>29</v>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
-      <c r="T1" s="3" t="s">
-        <v>34</v>
+      <c r="T1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>33</v>
+      <c r="A3" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -953,7 +1701,7 @@
       </c>
       <c r="G3" s="1">
         <f>G1*(B3*Y3+C3*Z3+D3*AA3+E3*AB3+F3*AC3)</f>
-        <v>0.91932408333333338</v>
+        <v>1.0112564916666669</v>
       </c>
       <c r="H3">
         <f>(SUM(B3:F3)*0.04)</f>
@@ -961,15 +1709,15 @@
       </c>
       <c r="I3" s="1">
         <f>G3+H3</f>
-        <v>1.9593240833333334</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>51</v>
+        <v>2.0512564916666669</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="K3" s="1">
         <v>0.2</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>0.151</v>
       </c>
       <c r="M3" s="1">
@@ -979,9 +1727,9 @@
         <f>M3*(L3+K3)</f>
         <v>0.35099999999999998</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="T3" s="4" t="s">
-        <v>37</v>
+      <c r="O3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="U3" s="1">
         <v>0.04</v>
@@ -1016,15 +1764,15 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="20">
         <f>ROUND((I6+N6+S6+X6),2)</f>
-        <v>7.8</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="S4" s="14"/>
+        <v>7.89</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="U4" s="1">
         <v>0.04</v>
@@ -1045,11 +1793,11 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="J5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="T5" s="4" t="s">
-        <v>38</v>
+      <c r="A5" s="8"/>
+      <c r="J5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="U5" s="1">
         <v>3.8</v>
@@ -1065,53 +1813,67 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="I6" s="6">
+    <row r="6" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="I6" s="5">
         <f>SUM(I3:I5)</f>
-        <v>1.9593240833333334</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6">
+        <v>2.0512564916666669</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
         <f>SUM(N3:N5)</f>
         <v>0.35099999999999998</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6">
+      <c r="O6" s="6"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5">
         <f>SUM(S3:S5)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6">
+      <c r="T6" s="6"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5">
         <f>SUM(X3:X5)</f>
         <v>5.4909999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>20</v>
+      <c r="A7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="J7" s="4" t="s">
-        <v>47</v>
+      <c r="G7" s="1">
+        <f>G1*(B7*Y3+C7*Z3+D7*AA3+E7*AB3+F7*AC3)</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="H7">
+        <f>(SUM(B7:F7)*0.04)</f>
+        <v>0.16</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7+H7</f>
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="1">
         <v>0.04</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>3.25935</v>
       </c>
       <c r="M7" s="1">
@@ -1121,8 +1883,8 @@
         <f>M7*(L7+K7)</f>
         <v>3.29935</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>58</v>
+      <c r="O7" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="P7" s="1">
         <v>0.02</v>
@@ -1137,8 +1899,8 @@
         <f>R7*(Q7+P7)</f>
         <v>0.34756000000000004</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>20</v>
+      <c r="T7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V7" s="1">
         <v>6</v>
@@ -1151,12 +1913,12 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="20">
         <f>I10+N10+S10+X10</f>
-        <v>10.35791</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>48</v>
+        <v>12.06671</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="K8" s="1">
         <v>0.2</v>
@@ -1171,52 +1933,65 @@
         <f>M8*(L8+K8)</f>
         <v>0.71100000000000008</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="S8" s="14"/>
+      <c r="O8" s="3"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="W8" s="1">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <f>W8*V8</f>
+        <v>1.54</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="J9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="I10" s="6">
+      <c r="A9" s="8"/>
+      <c r="J9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="I10" s="5">
         <f>SUM(I7:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
         <f>SUM(N7:N9)</f>
         <v>4.0103499999999999</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6">
+      <c r="O10" s="6"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5">
         <f>SUM(S7:S9)</f>
         <v>0.34756000000000004</v>
       </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6">
+      <c r="T10" s="6"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5">
         <f>SUM(X7:X9)</f>
-        <v>6</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>49</v>
+      <c r="A11" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>12</v>
@@ -1227,7 +2002,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>G1*(B11*Y3+C11*Z3+D11*AA3+E11*AB3+F11*AC3)</f>
-        <v>2.4E-2</v>
+        <v>2.6400000000000003E-2</v>
       </c>
       <c r="H11">
         <f>0.04*(SUM(B11:F11))</f>
@@ -1235,15 +2010,15 @@
       </c>
       <c r="I11" s="1">
         <f>H11+G11</f>
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>4</v>
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>0.2</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>1.01</v>
       </c>
       <c r="M11" s="1">
@@ -1253,8 +2028,8 @@
         <f>M11*(L11+K11)</f>
         <v>1.21</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>55</v>
+      <c r="O11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="P11" s="1">
         <v>0.04</v>
@@ -1269,60 +2044,60 @@
         <f>R11*(Q11+P11)</f>
         <v>0.69564999999999999</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="20">
         <f>I14+N14+S14+X11</f>
-        <v>2.6496499999999998</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="S12" s="14"/>
+        <v>2.65205</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="S12" s="13"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="J13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="I14" s="6">
+      <c r="A13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="I14" s="5">
         <f>SUM(I11:I13)</f>
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
         <f>SUM(N11:N13)</f>
         <v>1.21</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6">
+      <c r="O14" s="6"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5">
         <f>SUM(S11:S13)</f>
         <v>0.69564999999999999</v>
       </c>
-      <c r="T14" s="7"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6">
+      <c r="T14" s="6"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5">
         <f>SUM(X11:X13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>54</v>
+      <c r="A15" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
@@ -1336,7 +2111,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <f>G1*(B15*Y3+C15*Z3+D15*AA3+E15*AB3+F15*AC3)</f>
-        <v>7.924266666666667E-2</v>
+        <v>8.7166933333333349E-2</v>
       </c>
       <c r="H15">
         <f>0.04*(SUM(B15:F15))</f>
@@ -1344,15 +2119,15 @@
       </c>
       <c r="I15" s="1">
         <f>H15+G15</f>
-        <v>0.51924266666666663</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>52</v>
+        <v>0.52716693333333331</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K15" s="1">
         <v>0.2</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>0.39500000000000002</v>
       </c>
       <c r="M15" s="1">
@@ -1362,8 +2137,8 @@
         <f>M15*(L15+K15)</f>
         <v>0.59499999999999997</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>53</v>
+      <c r="O15" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="P15" s="1">
         <v>0.04</v>
@@ -1378,60 +2153,60 @@
         <f>R15*(Q15+P15)</f>
         <v>9.4E-2</v>
       </c>
-      <c r="T15" s="4"/>
+      <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="20">
         <f>I18+N18+S18+X15</f>
-        <v>1.2082426666666668</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="S16" s="14"/>
+        <v>1.2161669333333334</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="S16" s="13"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="J17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="I18" s="6">
+      <c r="A17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="I18" s="5">
         <f>SUM(I15:I17)</f>
-        <v>0.51924266666666663</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6">
+        <v>0.52716693333333331</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
         <f>SUM(N15:N17)</f>
         <v>0.59499999999999997</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6">
+      <c r="O18" s="6"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5">
         <f>SUM(S15:S17)</f>
         <v>9.4E-2</v>
       </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6">
+      <c r="T18" s="6"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5">
         <f>SUM(X15:X17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>56</v>
+      <c r="A19" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <v>8</v>
@@ -1442,7 +2217,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <f>G1*(B19*Y3+C19*Z3+D19*AA3+E19*AB3+F19*AC3)</f>
-        <v>2.4E-2</v>
+        <v>2.6400000000000003E-2</v>
       </c>
       <c r="H19">
         <f>0.04*(SUM(B19:F19))</f>
@@ -1450,12 +2225,12 @@
       </c>
       <c r="I19" s="1">
         <f>H19+G19</f>
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="L19" s="12"/>
-      <c r="O19" s="4" t="s">
-        <v>60</v>
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" s="11"/>
+      <c r="O19" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="P19" s="1">
         <v>0.04</v>
@@ -1470,8 +2245,8 @@
         <f>R19*(Q19+P19)</f>
         <v>0.78600000000000003</v>
       </c>
-      <c r="T19" s="4" t="s">
-        <v>57</v>
+      <c r="T19" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="U19" s="1">
         <v>0.04</v>
@@ -1488,59 +2263,59 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="20">
         <f>I22+N22+S22+X19</f>
-        <v>1.5842100000000001</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="S20" s="14"/>
+        <v>1.5866099999999999</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="S20" s="13"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="J21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="I22" s="6">
+      <c r="A21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="I22" s="5">
         <f>SUM(I19:I21)</f>
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5">
         <f>SUM(N19:N21)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6">
+      <c r="O22" s="6"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5">
         <f>SUM(S19:S21)</f>
         <v>0.78600000000000003</v>
       </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6">
+      <c r="T22" s="6"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5">
         <f>SUM(X19:X21)</f>
         <v>0.13421</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>61</v>
+      <c r="A23" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
@@ -1551,7 +2326,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1">
         <f>G1*(B23*Y3+C23*Z3+D23*AA3+E23*AB3+F23*AC3)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.7500000000000004E-2</v>
       </c>
       <c r="H23">
         <f>0.04*(SUM(B23:F23))</f>
@@ -1559,12 +2334,12 @@
       </c>
       <c r="I23" s="1">
         <f>H23+G23</f>
-        <v>0.625</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="L23" s="12"/>
-      <c r="O23" s="4" t="s">
-        <v>68</v>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="L23" s="11"/>
+      <c r="O23" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="P23" s="1">
         <v>0.04</v>
@@ -1579,13 +2354,13 @@
         <f>R23*(Q23+P23)</f>
         <v>2.84</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>64</v>
+      <c r="T23" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="U23" s="1">
         <v>0.2</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="14">
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W23" s="1">
@@ -1597,67 +2372,67 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="20">
         <f>I26+N26+S26+X23</f>
-        <v>3.7456800000000001</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="O24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S24" s="14"/>
+        <v>3.7481799999999996</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="O24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="13"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="O25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="I26" s="6">
+      <c r="A25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="I26" s="5">
         <f>SUM(I23:I25)</f>
-        <v>0.625</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
         <f>SUM(N23:N25)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6">
+      <c r="O26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5">
         <f>SUM(S23:S25)</f>
         <v>2.84</v>
       </c>
-      <c r="T26" s="7"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6">
+      <c r="T26" s="6"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5">
         <f>SUM(X23:X25)</f>
         <v>0.28068000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>61</v>
+      <c r="A27" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
@@ -1667,8 +2442,8 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <f>G5*(B27*Y7+C27*Z7+D27*AA7+E27*AB7+F27*AC7)</f>
-        <v>0</v>
+        <f>G1*(B27*Y3+C27*Z3+D27*AA3+E27*AB3+F27*AC3)</f>
+        <v>2.7500000000000004E-2</v>
       </c>
       <c r="H27">
         <f>0.04*(SUM(B27:F27))</f>
@@ -1676,12 +2451,12 @@
       </c>
       <c r="I27" s="1">
         <f>H27+G27</f>
-        <v>0.6</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="L27" s="12"/>
-      <c r="O27" s="4" t="s">
-        <v>68</v>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="L27" s="11"/>
+      <c r="O27" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="P27" s="1">
         <v>0.04</v>
@@ -1696,13 +2471,13 @@
         <f>R27*(Q27+P27)</f>
         <v>3.54</v>
       </c>
-      <c r="T27" s="4" t="s">
-        <v>64</v>
+      <c r="T27" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="U27" s="1">
         <v>0.2</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V27" s="14">
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W27" s="1">
@@ -1714,69 +2489,69 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="20">
         <f>I30+N30+S30+X27</f>
-        <v>4.4206799999999999</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="O28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S28" s="14"/>
+        <v>4.4481800000000007</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="O28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="13"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="O29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T29" s="4"/>
+      <c r="A29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="O29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="6">
+      <c r="A30" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="5">
         <f>SUM(I27:I29)</f>
-        <v>0.6</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
         <f>SUM(N27:N29)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6">
+      <c r="O30" s="6"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5">
         <f>SUM(S27:S29)</f>
         <v>3.54</v>
       </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6">
+      <c r="T30" s="6"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5">
         <f>SUM(X27:X29)</f>
         <v>0.28068000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>61</v>
+      <c r="A31" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>5</v>
@@ -1786,8 +2561,8 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <f>G9*(B31*Y11+C31*Z11+D31*AA11+E31*AB11+F31*AC11)</f>
-        <v>0</v>
+        <f>G3*(B31*Y3+C31*Z3+D31*AA3+E31*AB3+F31*AC3)</f>
+        <v>2.5281412291666673E-2</v>
       </c>
       <c r="H31">
         <f>0.04*(SUM(B31:F31))</f>
@@ -1795,12 +2570,12 @@
       </c>
       <c r="I31" s="1">
         <f>H31+G31</f>
-        <v>0.6</v>
-      </c>
-      <c r="J31" s="4"/>
-      <c r="L31" s="12"/>
-      <c r="O31" s="4" t="s">
-        <v>68</v>
+        <v>0.62528141229166667</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="L31" s="11"/>
+      <c r="O31" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="P31" s="1">
         <v>0.04</v>
@@ -1815,13 +2590,13 @@
         <f>R31*(Q31+P31)</f>
         <v>7.5267999999999997</v>
       </c>
-      <c r="T31" s="4" t="s">
-        <v>64</v>
+      <c r="T31" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="U31" s="1">
         <v>0.2</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V31" s="14">
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W31" s="1">
@@ -1833,67 +2608,67 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="20">
         <f>I34+N34+S34+X31</f>
-        <v>8.6881599999999999</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="O32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S32" s="14"/>
+        <v>8.713441412291667</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="O32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" s="13"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="T33" s="4"/>
+      <c r="A33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="6">
+      <c r="A34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="5">
         <f>SUM(I31:I33)</f>
-        <v>0.6</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6">
+        <v>0.62528141229166667</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5">
         <f>SUM(N31:N33)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6">
+      <c r="O34" s="6"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5">
         <f>SUM(S31:S33)</f>
         <v>7.5267999999999997</v>
       </c>
-      <c r="T34" s="7"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6">
+      <c r="T34" s="6"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5">
         <f>SUM(X31:X33)</f>
         <v>0.56136000000000008</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>61</v>
+      <c r="A35" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B35" s="1">
         <v>5</v>
@@ -1903,8 +2678,8 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
-        <f>G13*(B35*Y15+C35*Z15+D35*AA15+E35*AB15+F35*AC15)</f>
-        <v>0</v>
+        <f>G1*(B35*Y3+C35*Z3+D35*AA3+E35*AB3+F35*AC3)</f>
+        <v>2.7500000000000004E-2</v>
       </c>
       <c r="H35">
         <f>0.04*(SUM(B35:F35))</f>
@@ -1912,12 +2687,12 @@
       </c>
       <c r="I35" s="1">
         <f>H35+G35</f>
-        <v>0.6</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="L35" s="12"/>
-      <c r="O35" s="4" t="s">
-        <v>68</v>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="L35" s="11"/>
+      <c r="O35" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="P35" s="1">
         <v>0.04</v>
@@ -1932,13 +2707,13 @@
         <f>R35*(Q35+P35)</f>
         <v>3.71</v>
       </c>
-      <c r="T35" s="4" t="s">
-        <v>64</v>
+      <c r="T35" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
       </c>
-      <c r="V35" s="15">
+      <c r="V35" s="14">
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W35" s="1">
@@ -1950,69 +2725,69 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="20">
         <f>I38+N38+S38+X35</f>
-        <v>4.8713599999999992</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="O36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S36" s="14"/>
+        <v>4.8988600000000009</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="O36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" s="13"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="O37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T37" s="4"/>
+      <c r="A37" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="O37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="6">
+      <c r="A38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="5">
         <f>SUM(I35:I37)</f>
-        <v>0.6</v>
-      </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5">
         <f>SUM(N35:N37)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6">
+      <c r="O38" s="6"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5">
         <f>SUM(S35:S37)</f>
         <v>3.71</v>
       </c>
-      <c r="T38" s="7"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6">
+      <c r="T38" s="6"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5">
         <f>SUM(X35:X37)</f>
         <v>0.56136000000000008</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>82</v>
+      <c r="A39" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="B39" s="1">
         <v>5</v>
@@ -2022,8 +2797,8 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
-        <f>G17*(B39*Y19+C39*Z19+D39*AA19+E39*AB19+F39*AC19)</f>
-        <v>0</v>
+        <f>G1*(B39*Y3+C39*Z3+D39*AA3+E39*AB3+F39*AC3)</f>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="H39">
         <f>0.04*(SUM(B39:F39))</f>
@@ -2031,12 +2806,12 @@
       </c>
       <c r="I39" s="1">
         <f>H39+G39</f>
-        <v>0.4</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="L39" s="12"/>
-      <c r="O39" s="4" t="s">
-        <v>68</v>
+        <v>0.41650000000000004</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="L39" s="11"/>
+      <c r="O39" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="P39" s="1">
         <v>0.04</v>
@@ -2051,69 +2826,69 @@
         <f>R39*(Q39+P39)</f>
         <v>3.05</v>
       </c>
-      <c r="T39" s="4"/>
+      <c r="T39" s="3"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="20">
         <f>I42+N42+S42+X39</f>
-        <v>3.4499999999999997</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="O40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S40" s="14"/>
+        <v>3.4664999999999999</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="O40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="13"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="O41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T41" s="4"/>
+      <c r="A41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="O41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="6">
+      <c r="A42" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="5">
         <f>SUM(I39:I41)</f>
-        <v>0.4</v>
-      </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6">
+        <v>0.41650000000000004</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5">
         <f>SUM(N39:N41)</f>
         <v>0</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6">
+      <c r="O42" s="6"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5">
         <f>SUM(S39:S41)</f>
         <v>3.05</v>
       </c>
-      <c r="T42" s="7"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>75</v>
+      <c r="A43" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="1">
         <v>12</v>
@@ -2123,8 +2898,8 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
-        <f>G21*(B43*Y23+C43*Z23+D43*AA23+E43*AB23+F43*AC23)</f>
-        <v>0</v>
+        <f>G1*(B43*Y3+C43*Z3+D43*AA3+E43*AB3+F43*AC3)</f>
+        <v>3.0800000000000004E-2</v>
       </c>
       <c r="H43">
         <f>0.04*(SUM(B43:F43))</f>
@@ -2132,17 +2907,17 @@
       </c>
       <c r="I43" s="1">
         <f>H43+G43</f>
-        <v>0.8</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="L43" s="12"/>
-      <c r="O43" s="4" t="s">
-        <v>83</v>
+        <v>0.83080000000000009</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="L43" s="11"/>
+      <c r="O43" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="P43" s="1">
         <v>0.04</v>
       </c>
-      <c r="Q43" s="15">
+      <c r="Q43" s="14">
         <v>0.47145999999999999</v>
       </c>
       <c r="R43" s="1">
@@ -2152,13 +2927,13 @@
         <f>R43*(Q43+P43)</f>
         <v>4.0916800000000002</v>
       </c>
-      <c r="T43" s="4" t="s">
-        <v>64</v>
+      <c r="T43" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="U43" s="1">
         <v>0.2</v>
       </c>
-      <c r="V43" s="15">
+      <c r="V43" s="14">
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W43" s="1">
@@ -2170,164 +2945,205 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="20">
         <f>I46+N46+S46+X43</f>
-        <v>5.4530399999999997</v>
-      </c>
-      <c r="J44" s="4"/>
-      <c r="O44" s="4"/>
+        <v>5.4838400000000007</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="O44" s="3"/>
       <c r="P44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q44" s="12">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="11">
         <v>0.71899999999999997</v>
       </c>
-      <c r="S44" s="14"/>
+      <c r="S44" s="13"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="J45" s="4"/>
-      <c r="O45" s="4"/>
+      <c r="A45" s="8"/>
+      <c r="J45" s="3"/>
+      <c r="O45" s="3"/>
       <c r="P45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T45" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="T45" s="3"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="6">
+      <c r="A46" s="12"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="5">
         <f>SUM(I43:I45)</f>
-        <v>0.8</v>
-      </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6">
+        <v>0.83080000000000009</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5">
         <f>SUM(N43:N45)</f>
         <v>0</v>
       </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6">
+      <c r="O46" s="6"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5">
         <f>SUM(S43:S45)</f>
         <v>4.0916800000000002</v>
       </c>
-      <c r="T46" s="7"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6">
+      <c r="T46" s="6"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5">
         <f>SUM(X43:X45)</f>
         <v>0.56136000000000008</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="J47" s="4"/>
-      <c r="L47" s="12"/>
-      <c r="O47" s="4"/>
-      <c r="T47" s="4"/>
+      <c r="G47" s="1">
+        <f>G1*(B47*Y3+C47*Z3+D47*AA3+E47*AB3+F47*AC3)</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="H47">
+        <f>0.04*(SUM(B47:F47))</f>
+        <v>0.4</v>
+      </c>
+      <c r="I47" s="1">
+        <f>H47+G47</f>
+        <v>0.41650000000000004</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="L47" s="11"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="R47" s="1">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1">
+        <f>R47*(Q47+P47)</f>
+        <v>5.5400000000000005E-2</v>
+      </c>
+      <c r="T47" s="3"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="J48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="S48" s="14"/>
+      <c r="A48" s="8"/>
+      <c r="J48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="S48" s="13"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="J49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="T49" s="4"/>
+      <c r="A49" s="8"/>
+      <c r="J49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="T49" s="3"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="5">
+        <f>SUM(I47:I49)</f>
+        <v>0.41650000000000004</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5">
+        <f>SUM(S47:S49)</f>
+        <v>5.5400000000000005E-2</v>
+      </c>
+      <c r="T50" s="6"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="J51" s="4"/>
-      <c r="L51" s="12"/>
-      <c r="O51" s="4"/>
-      <c r="T51" s="4"/>
+      <c r="J51" s="3"/>
+      <c r="L51" s="11"/>
+      <c r="O51" s="3"/>
+      <c r="T51" s="3"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="J52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="S52" s="14"/>
+      <c r="A52" s="8"/>
+      <c r="J52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="S52" s="13"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="J53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="T53" s="4"/>
+      <c r="A53" s="8"/>
+      <c r="J53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="T53" s="3"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>65</v>
+      <c r="A55" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
@@ -2338,7 +3154,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1">
         <f>G1*(B55*Y3+C55*Z3+D55*AA3+E55*AB3+F55*AC3)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.7500000000000004E-2</v>
       </c>
       <c r="H55">
         <f>0.04*(SUM(B55:F55))</f>
@@ -2346,17 +3162,17 @@
       </c>
       <c r="I55" s="1">
         <f>H55+G55</f>
-        <v>0.625</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="L55" s="12"/>
-      <c r="O55" s="4" t="s">
-        <v>68</v>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="L55" s="11"/>
+      <c r="O55" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="P55" s="1">
         <v>0.04</v>
       </c>
-      <c r="Q55" s="15">
+      <c r="Q55" s="14">
         <v>3.91161</v>
       </c>
       <c r="R55" s="1">
@@ -2366,13 +3182,13 @@
         <f>R55*(Q55+P55)</f>
         <v>3.9516100000000001</v>
       </c>
-      <c r="T55" s="4" t="s">
-        <v>64</v>
+      <c r="T55" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="U55" s="1">
         <v>0.2</v>
       </c>
-      <c r="V55" s="15">
+      <c r="V55" s="14">
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W55" s="1">
@@ -2384,65 +3200,65 @@
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="A56" s="20">
         <f>I58+N58+S58+X55</f>
-        <v>4.8572900000000008</v>
-      </c>
-      <c r="J56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="S56" s="14"/>
+        <v>4.8597900000000003</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="S56" s="13"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="T57" s="4"/>
+      <c r="A57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="T57" s="3"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="6">
+      <c r="A58" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="5">
         <f>SUM(I55:I57)</f>
-        <v>0.625</v>
-      </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5">
         <f>SUM(N55:N57)</f>
         <v>0</v>
       </c>
-      <c r="O58" s="7"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6">
+      <c r="O58" s="6"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5">
         <f>SUM(S55:S57)</f>
         <v>3.9516100000000001</v>
       </c>
-      <c r="T58" s="7"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6">
+      <c r="T58" s="6"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5">
         <f>SUM(X55:X57)</f>
         <v>0.28068000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>76</v>
+      <c r="A59" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="B59" s="1">
         <v>5</v>
@@ -2452,8 +3268,8 @@
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
-        <f>G5*(B59*Y7+C59*Z7+D59*AA7+E59*AB7+F59*AC7)</f>
-        <v>0</v>
+        <f>G1*(B59*Y3+C59*Z3+D59*AA3+E59*AB3+F59*AC3)</f>
+        <v>2.7500000000000004E-2</v>
       </c>
       <c r="H59">
         <f>0.04*(SUM(B59:F59))</f>
@@ -2461,17 +3277,17 @@
       </c>
       <c r="I59" s="1">
         <f>H59+G59</f>
-        <v>0.6</v>
-      </c>
-      <c r="J59" s="4"/>
-      <c r="L59" s="12"/>
-      <c r="O59" s="4" t="s">
-        <v>68</v>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="L59" s="11"/>
+      <c r="O59" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="P59" s="1">
         <v>0.04</v>
       </c>
-      <c r="Q59" s="15">
+      <c r="Q59" s="14">
         <v>3.91161</v>
       </c>
       <c r="R59" s="1">
@@ -2481,13 +3297,13 @@
         <f>R59*(Q59+P59)</f>
         <v>3.9516100000000001</v>
       </c>
-      <c r="T59" s="4" t="s">
-        <v>64</v>
+      <c r="T59" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="U59" s="1">
         <v>0.2</v>
       </c>
-      <c r="V59" s="15">
+      <c r="V59" s="14">
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W59" s="1">
@@ -2499,58 +3315,58 @@
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="A60" s="20">
         <f>I62+N62+S62+X59</f>
-        <v>4.8322900000000004</v>
-      </c>
-      <c r="J60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="S60" s="14"/>
+        <v>4.8597900000000003</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="S60" s="13"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="T61" s="4"/>
+      <c r="A61" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="T61" s="3"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="6">
+      <c r="A62" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="5">
         <f>SUM(I59:I61)</f>
-        <v>0.6</v>
-      </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5">
         <f>SUM(N59:N61)</f>
         <v>0</v>
       </c>
-      <c r="O62" s="7"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6">
+      <c r="O62" s="6"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5">
         <f>SUM(S59:S61)</f>
         <v>3.9516100000000001</v>
       </c>
-      <c r="T62" s="7"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6">
+      <c r="T62" s="6"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5">
         <f>SUM(X59:X61)</f>
         <v>0.28068000000000004</v>
       </c>
@@ -2561,18 +3377,2776 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C58176-9F0C-45B2-87F0-A00DC2449BE6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="7" width="20.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="20.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" s="35"/>
+    </row>
+    <row r="2" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+    </row>
+    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33">
+        <f>H4</f>
+        <v>12.06671</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33">
+        <f>J3</f>
+        <v>12.06671</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33">
+        <f>L3</f>
+        <v>12.06671</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33">
+        <f>N3</f>
+        <v>12.06671</v>
+      </c>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33">
+        <f>P3</f>
+        <v>12.06671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <f>Kostenanalys_Features!A8</f>
+        <v>12.06671</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="31"/>
+    </row>
+    <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="I5" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="30">
+        <v>3.26</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="30">
+        <v>7.4867999999999997</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="30">
+        <v>3.44</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="30">
+        <v>1.26</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="R5" s="30">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="107"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="107"/>
+    </row>
+    <row r="7" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>2</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="I7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="3">
+        <v>48</v>
+      </c>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="107"/>
+    </row>
+    <row r="9" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="I9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="107"/>
+    </row>
+    <row r="11" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>4</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="I11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="13">
+        <f>D12</f>
+        <v>5.4838400000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="104">
+        <v>0</v>
+      </c>
+      <c r="D12" s="105">
+        <f>Kostenanalys_Features!A44</f>
+        <v>5.4838400000000007</v>
+      </c>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="107"/>
+    </row>
+    <row r="13" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="103">
+        <v>1</v>
+      </c>
+      <c r="D13" s="103">
+        <v>2</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="I13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="107"/>
+    </row>
+    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>6</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="103"/>
+      <c r="I15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="107"/>
+    </row>
+    <row r="17" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>7</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="I17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="107"/>
+    </row>
+    <row r="19" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>8</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="I19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="107"/>
+    </row>
+    <row r="21" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>9</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="103"/>
+      <c r="I21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="13">
+        <f>C22</f>
+        <v>2.4323338666666667</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21" s="13">
+        <f>E22</f>
+        <v>2.4323338666666667</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P21" s="13">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R21" s="13">
+        <f>I22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="104">
+        <f>2*Kostenanalys_Features!A16</f>
+        <v>2.4323338666666667</v>
+      </c>
+      <c r="D22" s="104">
+        <v>0</v>
+      </c>
+      <c r="E22" s="105">
+        <f>C22</f>
+        <v>2.4323338666666667</v>
+      </c>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="107"/>
+    </row>
+    <row r="23" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="13">
+        <f>C24</f>
+        <v>2.65205</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="13">
+        <f>C24</f>
+        <v>2.65205</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="13">
+        <f>C24</f>
+        <v>2.65205</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" s="13">
+        <f>C24</f>
+        <v>2.65205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="104">
+        <f>Kostenanalys_Features!A12</f>
+        <v>2.65205</v>
+      </c>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104">
+        <v>0</v>
+      </c>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104">
+        <v>0</v>
+      </c>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="107"/>
+    </row>
+    <row r="25" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>11</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="I25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="107"/>
+    </row>
+    <row r="27" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>12</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="I27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="13">
+        <f>C28</f>
+        <v>7.89</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="13">
+        <f>C28</f>
+        <v>7.89</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" s="13">
+        <f>C28</f>
+        <v>7.89</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P27" s="13">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27" s="13">
+        <f>C28</f>
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="104">
+        <f>Kostenanalys_Features!A4</f>
+        <v>7.89</v>
+      </c>
+      <c r="D28" s="104">
+        <v>0</v>
+      </c>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="107"/>
+    </row>
+    <row r="29" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>13</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="I29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N29" s="13">
+        <f>D30</f>
+        <v>1.5866099999999999</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="13">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R29" s="13">
+        <f>H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="104">
+        <v>0</v>
+      </c>
+      <c r="D30" s="104">
+        <f>Kostenanalys_Features!A20</f>
+        <v>1.5866099999999999</v>
+      </c>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="107"/>
+    </row>
+    <row r="31" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="28"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="H33" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="13">
+        <f>H34</f>
+        <v>3</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="13">
+        <f>H34</f>
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="13">
+        <f>H34</f>
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="13">
+        <f>H34</f>
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="13">
+        <f>H34</f>
+        <v>3</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="H34" s="6">
+        <v>3</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="31"/>
+      <c r="U34" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="W34" s="1">
+        <v>9</v>
+      </c>
+      <c r="X34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="H35" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33">
+        <f>H36</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33">
+        <f>H36</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="32"/>
+      <c r="N35" s="33">
+        <f>H36</f>
+        <v>1</v>
+      </c>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33">
+        <f>H36</f>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="33">
+        <f>H36</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W35" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="X35" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="31"/>
+      <c r="U36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W36" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="X36" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="H37" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="43">
+        <f>SUM(J3:J36)</f>
+        <v>32.301093866666662</v>
+      </c>
+      <c r="K37" s="44"/>
+      <c r="L37" s="43">
+        <f>SUM(L3:L36)</f>
+        <v>34.095559999999999</v>
+      </c>
+      <c r="M37" s="44"/>
+      <c r="N37" s="43">
+        <f>SUM(N3:N36)</f>
+        <v>34.067703866666662</v>
+      </c>
+      <c r="O37" s="44"/>
+      <c r="P37" s="43">
+        <f>SUM(P3:P36)</f>
+        <v>17.326709999999999</v>
+      </c>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="43">
+        <f>SUM(R3:R36)</f>
+        <v>35.492599999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="H38" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33"/>
+    </row>
+    <row r="39" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="H39" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="38">
+        <f>J37*H39</f>
+        <v>38.761312639999993</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="38">
+        <f>L37*H39</f>
+        <v>40.914671999999996</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="38">
+        <f>N37*H39</f>
+        <v>40.881244639999991</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="109">
+        <f>P37*H39</f>
+        <v>20.792051999999998</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="53">
+        <f>R37*H39</f>
+        <v>42.591119999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="62">
+        <v>1</v>
+      </c>
+      <c r="I43" s="46"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="47"/>
+    </row>
+    <row r="44" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="64">
+        <v>2</v>
+      </c>
+      <c r="I44" s="48"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="49"/>
+    </row>
+    <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="64">
+        <v>3</v>
+      </c>
+      <c r="I45" s="48"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="49"/>
+    </row>
+    <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="64">
+        <v>4</v>
+      </c>
+      <c r="I46" s="48"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="49"/>
+    </row>
+    <row r="47" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="64">
+        <v>5</v>
+      </c>
+      <c r="I47" s="48"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="49"/>
+    </row>
+    <row r="48" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="64">
+        <v>6</v>
+      </c>
+      <c r="I48" s="48"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="49"/>
+    </row>
+    <row r="49" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="64">
+        <v>7</v>
+      </c>
+      <c r="I49" s="48"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="49"/>
+    </row>
+    <row r="50" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="64">
+        <v>8</v>
+      </c>
+      <c r="I50" s="48"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="49"/>
+    </row>
+    <row r="51" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="64">
+        <v>9</v>
+      </c>
+      <c r="I51" s="48"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="49"/>
+    </row>
+    <row r="52" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="64">
+        <v>10</v>
+      </c>
+      <c r="I52" s="48"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="49"/>
+    </row>
+    <row r="53" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="64">
+        <v>11</v>
+      </c>
+      <c r="I53" s="48"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="49"/>
+    </row>
+    <row r="54" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="64">
+        <v>12</v>
+      </c>
+      <c r="I54" s="115"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="71"/>
+    </row>
+    <row r="55" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="66">
+        <v>13</v>
+      </c>
+      <c r="I55" s="54"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="55"/>
+    </row>
+    <row r="56" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" s="69">
+        <v>14</v>
+      </c>
+      <c r="I56" s="113"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="91"/>
+      <c r="R56" s="89"/>
+    </row>
+    <row r="57" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" s="73">
+        <v>15</v>
+      </c>
+      <c r="I57" s="54"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="55"/>
+    </row>
+    <row r="58" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="75">
+        <v>16</v>
+      </c>
+      <c r="I58" s="50"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="70"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="47"/>
+    </row>
+    <row r="59" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="78">
+        <v>17</v>
+      </c>
+      <c r="I59" s="48"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="91"/>
+      <c r="P59" s="89"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="49"/>
+    </row>
+    <row r="60" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" s="78">
+        <v>18</v>
+      </c>
+      <c r="I60" s="48"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="49"/>
+    </row>
+    <row r="61" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" s="80">
+        <v>19</v>
+      </c>
+      <c r="I61" s="52"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="55"/>
+    </row>
+    <row r="62" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" s="84">
+        <v>20</v>
+      </c>
+      <c r="I62" s="46"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="76"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="47"/>
+    </row>
+    <row r="63" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="86">
+        <v>21</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="13"/>
+    </row>
+    <row r="64" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="86">
+        <v>22</v>
+      </c>
+      <c r="I64" s="50"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="N64" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="O64" s="50"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="49"/>
+    </row>
+    <row r="65" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="92"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="92"/>
+      <c r="N65" s="92"/>
+      <c r="O65" s="92"/>
+      <c r="P65" s="92"/>
+      <c r="Q65" s="92"/>
+      <c r="R65" s="92"/>
+    </row>
+    <row r="66" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="92"/>
+      <c r="N66" s="92"/>
+      <c r="O66" s="92"/>
+      <c r="P66" s="92"/>
+      <c r="Q66" s="92"/>
+      <c r="R66" s="92"/>
+    </row>
+    <row r="67" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="92"/>
+      <c r="O67" s="92"/>
+      <c r="P67" s="92"/>
+      <c r="Q67" s="92"/>
+      <c r="R67" s="92"/>
+    </row>
+    <row r="68" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
+      <c r="K68" s="92"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="92"/>
+      <c r="N68" s="92"/>
+      <c r="O68" s="92"/>
+      <c r="P68" s="92"/>
+      <c r="Q68" s="92"/>
+      <c r="R68" s="92"/>
+    </row>
+    <row r="69" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="H69" s="97"/>
+    </row>
+    <row r="70" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="J70" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="K70" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="L70" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M70" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="N70" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="O70" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="P70" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="R70" s="40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="61">
+        <v>1</v>
+      </c>
+      <c r="H71" s="62">
+        <v>4</v>
+      </c>
+      <c r="I71" s="99">
+        <v>100</v>
+      </c>
+      <c r="J71" s="94">
+        <f>H71*I71</f>
+        <v>400</v>
+      </c>
+      <c r="K71" s="99">
+        <v>100</v>
+      </c>
+      <c r="L71" s="94">
+        <f>H72*K71</f>
+        <v>400</v>
+      </c>
+      <c r="M71" s="99">
+        <v>100</v>
+      </c>
+      <c r="N71" s="94">
+        <f>H71*M71</f>
+        <v>400</v>
+      </c>
+      <c r="O71" s="99">
+        <v>100</v>
+      </c>
+      <c r="P71" s="94">
+        <f>H71*O71</f>
+        <v>400</v>
+      </c>
+      <c r="Q71" s="99">
+        <v>100</v>
+      </c>
+      <c r="R71" s="94">
+        <f>H71*Q71</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="63">
+        <v>2</v>
+      </c>
+      <c r="H72" s="64">
+        <v>4</v>
+      </c>
+      <c r="I72" s="100">
+        <v>100</v>
+      </c>
+      <c r="J72" s="93">
+        <f t="shared" ref="J72:L92" si="0">H72*I72</f>
+        <v>400</v>
+      </c>
+      <c r="K72" s="100">
+        <v>100</v>
+      </c>
+      <c r="L72" s="93">
+        <f t="shared" ref="L72:L92" si="1">H73*K72</f>
+        <v>400</v>
+      </c>
+      <c r="M72" s="100">
+        <v>100</v>
+      </c>
+      <c r="N72" s="93">
+        <f t="shared" ref="N72:N92" si="2">H72*M72</f>
+        <v>400</v>
+      </c>
+      <c r="O72" s="100">
+        <v>100</v>
+      </c>
+      <c r="P72" s="93">
+        <f t="shared" ref="P72:P92" si="3">H72*O72</f>
+        <v>400</v>
+      </c>
+      <c r="Q72" s="100">
+        <v>100</v>
+      </c>
+      <c r="R72" s="93">
+        <f t="shared" ref="R72:R92" si="4">H72*Q72</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="63">
+        <v>3</v>
+      </c>
+      <c r="H73" s="64">
+        <v>4</v>
+      </c>
+      <c r="I73" s="100">
+        <v>100</v>
+      </c>
+      <c r="J73" s="93">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K73" s="100">
+        <v>100</v>
+      </c>
+      <c r="L73" s="93">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M73" s="100">
+        <v>100</v>
+      </c>
+      <c r="N73" s="93">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O73" s="100">
+        <v>100</v>
+      </c>
+      <c r="P73" s="93">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q73" s="100">
+        <v>100</v>
+      </c>
+      <c r="R73" s="93">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="63">
+        <v>4</v>
+      </c>
+      <c r="H74" s="64">
+        <v>4</v>
+      </c>
+      <c r="I74" s="100">
+        <v>100</v>
+      </c>
+      <c r="J74" s="93">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K74" s="100">
+        <v>100</v>
+      </c>
+      <c r="L74" s="93">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M74" s="100">
+        <v>100</v>
+      </c>
+      <c r="N74" s="93">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O74" s="100">
+        <v>100</v>
+      </c>
+      <c r="P74" s="93">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q74" s="100">
+        <v>100</v>
+      </c>
+      <c r="R74" s="93">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="63">
+        <v>5</v>
+      </c>
+      <c r="H75" s="64">
+        <v>4</v>
+      </c>
+      <c r="I75" s="100">
+        <v>100</v>
+      </c>
+      <c r="J75" s="93">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K75" s="100">
+        <v>100</v>
+      </c>
+      <c r="L75" s="93">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M75" s="100">
+        <v>100</v>
+      </c>
+      <c r="N75" s="93">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O75" s="100">
+        <v>100</v>
+      </c>
+      <c r="P75" s="93">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q75" s="100">
+        <v>100</v>
+      </c>
+      <c r="R75" s="93">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="63">
+        <v>6</v>
+      </c>
+      <c r="H76" s="64">
+        <v>4</v>
+      </c>
+      <c r="I76" s="100">
+        <v>100</v>
+      </c>
+      <c r="J76" s="93">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K76" s="100">
+        <v>100</v>
+      </c>
+      <c r="L76" s="93">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M76" s="100">
+        <v>100</v>
+      </c>
+      <c r="N76" s="93">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O76" s="100">
+        <v>100</v>
+      </c>
+      <c r="P76" s="93">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q76" s="100">
+        <v>100</v>
+      </c>
+      <c r="R76" s="93">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="63">
+        <v>7</v>
+      </c>
+      <c r="H77" s="64">
+        <v>4</v>
+      </c>
+      <c r="I77" s="100">
+        <v>100</v>
+      </c>
+      <c r="J77" s="93">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K77" s="100">
+        <v>100</v>
+      </c>
+      <c r="L77" s="93">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M77" s="100">
+        <v>100</v>
+      </c>
+      <c r="N77" s="93">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O77" s="100">
+        <v>100</v>
+      </c>
+      <c r="P77" s="93">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q77" s="100">
+        <v>100</v>
+      </c>
+      <c r="R77" s="93">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="63">
+        <v>8</v>
+      </c>
+      <c r="H78" s="64">
+        <v>4</v>
+      </c>
+      <c r="I78" s="100">
+        <v>100</v>
+      </c>
+      <c r="J78" s="93">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K78" s="100">
+        <v>100</v>
+      </c>
+      <c r="L78" s="93">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M78" s="112">
+        <v>50</v>
+      </c>
+      <c r="N78" s="93">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="O78" s="112">
+        <v>80</v>
+      </c>
+      <c r="P78" s="93">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="Q78" s="100">
+        <v>100</v>
+      </c>
+      <c r="R78" s="93">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="63">
+        <v>9</v>
+      </c>
+      <c r="H79" s="64">
+        <v>4</v>
+      </c>
+      <c r="I79" s="100">
+        <v>100</v>
+      </c>
+      <c r="J79" s="93">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K79" s="100">
+        <v>100</v>
+      </c>
+      <c r="L79" s="93">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M79" s="100">
+        <v>100</v>
+      </c>
+      <c r="N79" s="93">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O79" s="100">
+        <v>100</v>
+      </c>
+      <c r="P79" s="93">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q79" s="100">
+        <v>100</v>
+      </c>
+      <c r="R79" s="93">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="63">
+        <v>10</v>
+      </c>
+      <c r="H80" s="64">
+        <v>4</v>
+      </c>
+      <c r="I80" s="100">
+        <v>100</v>
+      </c>
+      <c r="J80" s="93">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K80" s="100">
+        <v>100</v>
+      </c>
+      <c r="L80" s="93">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M80" s="100">
+        <v>100</v>
+      </c>
+      <c r="N80" s="93">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O80" s="100">
+        <v>100</v>
+      </c>
+      <c r="P80" s="93">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q80" s="100">
+        <v>100</v>
+      </c>
+      <c r="R80" s="93">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="63">
+        <v>11</v>
+      </c>
+      <c r="H81" s="64">
+        <v>4</v>
+      </c>
+      <c r="I81" s="100"/>
+      <c r="J81" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="100"/>
+      <c r="L81" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="100"/>
+      <c r="N81" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="100"/>
+      <c r="P81" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="100"/>
+      <c r="R81" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="63">
+        <v>12</v>
+      </c>
+      <c r="H82" s="111">
+        <v>5</v>
+      </c>
+      <c r="I82" s="101">
+        <v>100</v>
+      </c>
+      <c r="J82" s="93">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="K82" s="101">
+        <v>80</v>
+      </c>
+      <c r="L82" s="93">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="M82" s="101">
+        <v>80</v>
+      </c>
+      <c r="N82" s="93">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O82" s="101">
+        <v>100</v>
+      </c>
+      <c r="P82" s="93">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="Q82" s="101">
+        <v>50</v>
+      </c>
+      <c r="R82" s="93">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="65">
+        <v>13</v>
+      </c>
+      <c r="H83" s="66">
+        <v>4</v>
+      </c>
+      <c r="I83" s="102">
+        <v>100</v>
+      </c>
+      <c r="J83" s="95">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K83" s="102">
+        <v>100</v>
+      </c>
+      <c r="L83" s="95">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M83" s="102">
+        <v>100</v>
+      </c>
+      <c r="N83" s="95">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="O83" s="102">
+        <v>100</v>
+      </c>
+      <c r="P83" s="95">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q83" s="102">
+        <v>100</v>
+      </c>
+      <c r="R83" s="95">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="68">
+        <v>14</v>
+      </c>
+      <c r="H84" s="110">
+        <v>4</v>
+      </c>
+      <c r="I84" s="100">
+        <v>20</v>
+      </c>
+      <c r="J84" s="93">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K84" s="100">
+        <v>0</v>
+      </c>
+      <c r="L84" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="100">
+        <v>0</v>
+      </c>
+      <c r="N84" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="100">
+        <v>100</v>
+      </c>
+      <c r="P84" s="93">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q84" s="100">
+        <v>0</v>
+      </c>
+      <c r="R84" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="72">
+        <v>15</v>
+      </c>
+      <c r="H85" s="73">
+        <v>3</v>
+      </c>
+      <c r="I85" s="100">
+        <v>100</v>
+      </c>
+      <c r="J85" s="93">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="K85" s="100">
+        <v>100</v>
+      </c>
+      <c r="L85" s="93">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="M85" s="100">
+        <v>100</v>
+      </c>
+      <c r="N85" s="93">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="O85" s="100">
+        <v>0</v>
+      </c>
+      <c r="P85" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="100">
+        <v>100</v>
+      </c>
+      <c r="R85" s="93">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="74">
+        <v>16</v>
+      </c>
+      <c r="H86" s="75">
+        <v>2</v>
+      </c>
+      <c r="I86" s="99">
+        <v>100</v>
+      </c>
+      <c r="J86" s="94">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K86" s="99">
+        <v>100</v>
+      </c>
+      <c r="L86" s="94">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="M86" s="99">
+        <v>100</v>
+      </c>
+      <c r="N86" s="94">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="O86" s="99">
+        <v>0</v>
+      </c>
+      <c r="P86" s="94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="99">
+        <v>100</v>
+      </c>
+      <c r="R86" s="94">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="77">
+        <v>17</v>
+      </c>
+      <c r="H87" s="78">
+        <v>2</v>
+      </c>
+      <c r="I87" s="100">
+        <v>100</v>
+      </c>
+      <c r="J87" s="93">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K87" s="100">
+        <v>100</v>
+      </c>
+      <c r="L87" s="93">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="M87" s="100">
+        <v>100</v>
+      </c>
+      <c r="N87" s="93">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="O87" s="100">
+        <v>80</v>
+      </c>
+      <c r="P87" s="93">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="Q87" s="100">
+        <v>100</v>
+      </c>
+      <c r="R87" s="93">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="77">
+        <v>18</v>
+      </c>
+      <c r="H88" s="78">
+        <v>2</v>
+      </c>
+      <c r="I88" s="100">
+        <v>100</v>
+      </c>
+      <c r="J88" s="93">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K88" s="100">
+        <v>100</v>
+      </c>
+      <c r="L88" s="93">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="M88" s="100">
+        <v>0</v>
+      </c>
+      <c r="N88" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="100">
+        <v>0</v>
+      </c>
+      <c r="P88" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="100">
+        <v>100</v>
+      </c>
+      <c r="R88" s="93">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="79">
+        <v>19</v>
+      </c>
+      <c r="H89" s="80">
+        <v>2</v>
+      </c>
+      <c r="I89" s="102">
+        <v>50</v>
+      </c>
+      <c r="J89" s="95">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K89" s="102">
+        <v>100</v>
+      </c>
+      <c r="L89" s="95">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M89" s="102">
+        <v>75</v>
+      </c>
+      <c r="N89" s="95">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="O89" s="102">
+        <v>20</v>
+      </c>
+      <c r="P89" s="95">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q89" s="102">
+        <v>100</v>
+      </c>
+      <c r="R89" s="95">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="83">
+        <v>20</v>
+      </c>
+      <c r="H90" s="84">
+        <v>1</v>
+      </c>
+      <c r="I90" s="100">
+        <v>100</v>
+      </c>
+      <c r="J90" s="93">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K90" s="100">
+        <v>100</v>
+      </c>
+      <c r="L90" s="93">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M90" s="100">
+        <v>100</v>
+      </c>
+      <c r="N90" s="93">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O90" s="100">
+        <v>0</v>
+      </c>
+      <c r="P90" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="100">
+        <v>100</v>
+      </c>
+      <c r="R90" s="93">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="85">
+        <v>21</v>
+      </c>
+      <c r="H91" s="86">
+        <v>1</v>
+      </c>
+      <c r="I91" s="100"/>
+      <c r="J91" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="100"/>
+      <c r="L91" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="100"/>
+      <c r="N91" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="100"/>
+      <c r="P91" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="100"/>
+      <c r="R91" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="87">
+        <v>22</v>
+      </c>
+      <c r="H92" s="88">
+        <v>1</v>
+      </c>
+      <c r="I92" s="102">
+        <v>0</v>
+      </c>
+      <c r="J92" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="102">
+        <v>100</v>
+      </c>
+      <c r="L92" s="95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="102">
+        <v>0</v>
+      </c>
+      <c r="N92" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="102">
+        <v>100</v>
+      </c>
+      <c r="P92" s="95">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="Q92" s="102">
+        <v>100</v>
+      </c>
+      <c r="R92" s="95">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="7:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="H93" s="98"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="31">
+        <f>SUM(J71:J92)</f>
+        <v>6080</v>
+      </c>
+      <c r="K93" s="39"/>
+      <c r="L93" s="31">
+        <f>SUM(L71:L92)</f>
+        <v>5720</v>
+      </c>
+      <c r="M93" s="39"/>
+      <c r="N93" s="31">
+        <f>SUM(N71:N92)</f>
+        <v>5550</v>
+      </c>
+      <c r="O93" s="39"/>
+      <c r="P93" s="31">
+        <f>SUM(P71:P92)</f>
+        <v>5520</v>
+      </c>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="31">
+        <f>SUM(R71:R92)</f>
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="94" spans="7:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G94" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="H94" s="98"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="118">
+        <v>1</v>
+      </c>
+      <c r="K94" s="39"/>
+      <c r="L94" s="117">
+        <v>3</v>
+      </c>
+      <c r="M94" s="39"/>
+      <c r="N94" s="117">
+        <v>4</v>
+      </c>
+      <c r="O94" s="39"/>
+      <c r="P94" s="119">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="117">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G42:H42"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="26" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B805598-3AF8-430B-9BB1-BC5FCC0BC486}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2600,40 +6174,40 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.97570000000000001</v>
@@ -2660,7 +6234,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>256</v>
@@ -2684,12 +6258,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:G6" si="0">B4/B5</f>
@@ -2726,279 +6300,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693D8C3-BD26-497C-A23A-1D0104364E5E}">
-  <dimension ref="B2:X44"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:F41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="G2:X3"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Kostenanalysen/00_Kosten.xlsx
+++ b/05_Kostenanalysen/00_Kosten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\05_Kostenanalysen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4782AB9-80C2-463D-A552-1F35C63E4B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC14A52-E8BC-46F3-93A1-E11F8D3FD49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{F22203A0-F8E6-4CAF-89A2-E8C077A41A46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" activeTab="1" xr2:uid="{6E908FF6-7093-4655-B2FC-F824AB1F546C}"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenanalys_Features" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="188">
   <si>
     <t>Encoder Stecker</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Filter/Drossel</t>
   </si>
   <si>
-    <t>Kabel</t>
-  </si>
-  <si>
     <t>CHF/stück</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Ferritkern?</t>
   </si>
   <si>
-    <t>Molex Minifit fem</t>
-  </si>
-  <si>
     <t>MTA100</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
     <t>X3</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>je nach Treiber</t>
   </si>
   <si>
@@ -545,13 +536,79 @@
   </si>
   <si>
     <t>reiner indexer + Tteiber</t>
+  </si>
+  <si>
+    <t>Molex MiniFit</t>
+  </si>
+  <si>
+    <t>litzen</t>
+  </si>
+  <si>
+    <t>Crimpkontakte/AEH</t>
+  </si>
+  <si>
+    <t>&lt;- Kabel Mouser@1000</t>
+  </si>
+  <si>
+    <t>AEH</t>
+  </si>
+  <si>
+    <t>Molex Minifit print</t>
+  </si>
+  <si>
+    <t>Molex Minifit steck</t>
+  </si>
+  <si>
+    <t>&lt;- Kabel Komax</t>
+  </si>
+  <si>
+    <t>Speisung IOe2</t>
+  </si>
+  <si>
+    <t>Dinkle</t>
+  </si>
+  <si>
+    <t>Dinkle_4P_Litz</t>
+  </si>
+  <si>
+    <t>Dinkle_4P_print</t>
+  </si>
+  <si>
+    <t>Konzept 6</t>
+  </si>
+  <si>
+    <t>an Ioe Weiterleiten</t>
+  </si>
+  <si>
+    <t>Konzept 7</t>
+  </si>
+  <si>
+    <t>3.5A</t>
+  </si>
+  <si>
+    <t>2 Alternativen</t>
+  </si>
+  <si>
+    <t>2.1  &amp; 7A alternativen</t>
+  </si>
+  <si>
+    <t>TMC2226</t>
+  </si>
+  <si>
+    <t>TMC2209</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>24 begrenz durch IOe2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,8 +659,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +750,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,11 +1021,227 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,6 +1249,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,28 +1261,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,180 +1273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,71 +1282,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1535,11 +1606,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD62"/>
+  <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1565,7 +1634,7 @@
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1">
         <v>1.1000000000000001</v>
@@ -1590,7 +1659,7 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -1611,16 +1680,16 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>19</v>
@@ -1629,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>19</v>
@@ -1644,13 +1713,13 @@
         <v>24</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>19</v>
@@ -1659,13 +1728,13 @@
         <v>24</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="s">
         <v>6</v>
@@ -1680,7 +1749,7 @@
         <v>7</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -1712,20 +1781,20 @@
         <v>2.0512564916666669</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="K3" s="1">
         <v>0.2</v>
       </c>
       <c r="L3" s="11">
-        <v>0.151</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="110">
+        <v>2</v>
       </c>
       <c r="N3" s="1">
         <f>M3*(L3+K3)</f>
-        <v>0.35099999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="O3" s="3"/>
       <c r="T3" s="3" t="s">
@@ -1764,15 +1833,30 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <f>ROUND((I6+N6+S6+X6),2)</f>
-        <v>7.89</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>8.48</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="M4" s="109">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4*(L4+K4)</f>
+        <v>2.3099999999999996</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="S4" s="13"/>
       <c r="T4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="1">
         <v>0.04</v>
@@ -1793,31 +1877,62 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5*(L5+K5)</f>
+        <v>1.3599999999999999</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="U5" s="1">
-        <v>3.8</v>
+        <v>0.1</v>
       </c>
       <c r="V5" s="1">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5" s="1">
         <f>W5*(V5+U5)</f>
-        <v>4.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="82">
+        <f>I6+N3+X3+X4+B6</f>
+        <v>6.2922564916666666</v>
+      </c>
+      <c r="B6" s="106">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="106">
+        <f>1*(N4+N5+X5)</f>
+        <v>4.1899999999999995</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="I6" s="5">
         <f>SUM(I3:I5)</f>
         <v>2.0512564916666669</v>
@@ -1828,7 +1943,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5">
         <f>SUM(N3:N5)</f>
-        <v>0.35099999999999998</v>
+        <v>4.4699999999999989</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="5"/>
@@ -1844,125 +1959,160 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5">
         <f>SUM(X3:X5)</f>
-        <v>5.4909999999999997</v>
+        <v>1.9610000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
       </c>
       <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
       <c r="G7" s="1">
         <f>G1*(B7*Y3+C7*Z3+D7*AA3+E7*AB3+F7*AC3)</f>
-        <v>8.8000000000000005E-3</v>
+        <v>1.0112564916666669</v>
       </c>
       <c r="H7">
         <f>(SUM(B7:F7)*0.04)</f>
-        <v>0.16</v>
+        <v>1.04</v>
       </c>
       <c r="I7" s="1">
         <f>G7+H7</f>
-        <v>0.16880000000000001</v>
+        <v>2.0512564916666669</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="K7" s="1">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="11">
-        <v>3.25935</v>
+        <v>1.42</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
         <f>M7*(L7+K7)</f>
-        <v>3.29935</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.32756000000000002</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <f>R7*(Q7+P7)</f>
-        <v>0.34756000000000004</v>
-      </c>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="O7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.04</v>
       </c>
       <c r="V7" s="1">
-        <v>6</v>
+        <v>0.85</v>
       </c>
       <c r="W7" s="1">
         <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>6</v>
+        <f>W7*(V7+U7)</f>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <f>I10+N10+S10+X10</f>
-        <v>12.06671</v>
+      <c r="A8" s="19">
+        <f>ROUND((I10+N10+S10+X10),2)</f>
+        <v>8.3699999999999992</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="K8" s="1">
         <v>0.2</v>
       </c>
-      <c r="L8" s="1">
-        <v>0.51100000000000001</v>
+      <c r="L8" s="11">
+        <v>1.6</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
         <f>M8*(L8+K8)</f>
-        <v>0.71100000000000008</v>
+        <v>1.8</v>
       </c>
       <c r="O8" s="3"/>
       <c r="S8" s="13"/>
       <c r="T8" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.04</v>
       </c>
       <c r="V8" s="1">
-        <v>0.77</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <f>W8*(V8+U8)</f>
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M9" s="1">
         <v>2</v>
       </c>
-      <c r="X8" s="1">
-        <f>W8*V8</f>
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="J9" s="3"/>
+      <c r="N9" s="1">
+        <f>M9*(L9+K9)</f>
+        <v>0.94000000000000006</v>
+      </c>
       <c r="O9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1">
+        <f>W9*(V9+U9)</f>
+        <v>0.52</v>
+      </c>
     </row>
     <row r="10" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
       <c r="I10" s="5">
         <f>SUM(I7:I9)</f>
-        <v>0.16880000000000001</v>
+        <v>2.0512564916666669</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="5"/>
@@ -1970,15 +2120,14 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5">
         <f>SUM(N7:N9)</f>
-        <v>4.0103499999999999</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5">
-        <f>SUM(S7:S9)</f>
-        <v>0.34756000000000004</v>
+        <v>0</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="5"/>
@@ -1986,74 +2135,81 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5">
         <f>SUM(X7:X9)</f>
-        <v>7.54</v>
+        <v>1.9610000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="B11" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
       <c r="G11" s="1">
-        <f>G1*(B11*Y3+C11*Z3+D11*AA3+E11*AB3+F11*AC3)</f>
-        <v>2.6400000000000003E-2</v>
+        <f>G1*(B11*Y3+C11*Z3+D11*AA3+E11*AB3+F11*AC11)</f>
+        <v>0.17873386666666669</v>
       </c>
       <c r="H11">
-        <f>0.04*(SUM(B11:F11))</f>
-        <v>0.72</v>
+        <f>(SUM(B11:F11)*0.04)</f>
+        <v>1.04</v>
       </c>
       <c r="I11" s="1">
-        <f>H11+G11</f>
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1.01</v>
-      </c>
-      <c r="M11" s="1">
+        <f>G11+H11</f>
+        <v>1.2187338666666667</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="L11" s="11"/>
+      <c r="O11" s="3"/>
+      <c r="T11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="W11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="1">
-        <f>M11*(L11+K11)</f>
-        <v>1.21</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.65564999999999996</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1">
-        <f>R11*(Q11+P11)</f>
-        <v>0.69564999999999999</v>
-      </c>
-      <c r="T11" s="3"/>
+      <c r="X11" s="1">
+        <f>W11*(V11+U11)</f>
+        <v>0.89</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <f>I14+N14+S14+X11</f>
-        <v>2.65205</v>
+      <c r="A12" s="19">
+        <f>ROUND((I14+N14+S14+X14),2)</f>
+        <v>2.66</v>
       </c>
       <c r="J12" s="3"/>
       <c r="O12" s="3"/>
       <c r="S12" s="13"/>
+      <c r="T12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <f>W12*(V12+U12)</f>
+        <v>0.55100000000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -2063,28 +2219,27 @@
     </row>
     <row r="14" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
       <c r="I14" s="5">
         <f>SUM(I11:I13)</f>
-        <v>0.74639999999999995</v>
+        <v>1.2187338666666667</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5">
-        <f>SUM(N11:N13)</f>
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5">
-        <f>SUM(S11:S13)</f>
-        <v>0.69564999999999999</v>
+        <v>0</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="5"/>
@@ -2092,77 +2247,110 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5">
         <f>SUM(X11:X13)</f>
-        <v>0</v>
+        <v>1.4410000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <f>G1*(B15*Y3+C15*Z3+D15*AA3+E15*AB3+F15*AC3)</f>
-        <v>8.7166933333333349E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="H15">
-        <f>0.04*(SUM(B15:F15))</f>
-        <v>0.44</v>
+        <f>(SUM(B15:F15)*0.04)</f>
+        <v>0.16</v>
       </c>
       <c r="I15" s="1">
-        <f>H15+G15</f>
-        <v>0.52716693333333331</v>
+        <f>G15+H15</f>
+        <v>0.16880000000000001</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K15" s="1">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="L15" s="11">
-        <v>0.39500000000000002</v>
+        <v>3.25935</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="1">
         <f>M15*(L15+K15)</f>
-        <v>0.59499999999999997</v>
+        <v>3.29935</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P15" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>0.32756000000000002</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
       </c>
       <c r="S15" s="1">
         <f>R15*(Q15+P15)</f>
-        <v>9.4E-2</v>
-      </c>
-      <c r="T15" s="3"/>
+        <v>0.34756000000000004</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="1">
+        <v>6</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
-        <f>I18+N18+S18+X15</f>
-        <v>1.2161669333333334</v>
-      </c>
-      <c r="J16" s="3"/>
+      <c r="A16" s="19">
+        <f>I18+N18+S18+X18</f>
+        <v>12.06671</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <f>M16*(L16+K16)</f>
+        <v>0.71100000000000008</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="S16" s="13"/>
+      <c r="T16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2</v>
+      </c>
+      <c r="X16" s="1">
+        <f>W16*V16</f>
+        <v>1.54</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -2177,7 +2365,7 @@
       <c r="E18" s="5"/>
       <c r="I18" s="5">
         <f>SUM(I15:I17)</f>
-        <v>0.52716693333333331</v>
+        <v>0.16880000000000001</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="5"/>
@@ -2185,7 +2373,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5">
         <f>SUM(N15:N17)</f>
-        <v>0.59499999999999997</v>
+        <v>4.0103499999999999</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="5"/>
@@ -2193,7 +2381,7 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5">
         <f>SUM(S15:S17)</f>
-        <v>9.4E-2</v>
+        <v>0.34756000000000004</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="5"/>
@@ -2201,18 +2389,18 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5">
         <f>SUM(X15:X17)</f>
-        <v>0</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -2221,51 +2409,50 @@
       </c>
       <c r="H19">
         <f>0.04*(SUM(B19:F19))</f>
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="I19" s="1">
         <f>H19+G19</f>
-        <v>0.66639999999999999</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="L19" s="11"/>
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <f>M19*(L19+K19)</f>
+        <v>1.21</v>
+      </c>
       <c r="O19" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P19" s="1">
         <v>0.04</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.746</v>
+        <v>0.65564999999999996</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
       </c>
       <c r="S19" s="1">
         <f>R19*(Q19+P19)</f>
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="V19" s="1">
-        <v>9.4210000000000002E-2</v>
-      </c>
-      <c r="W19" s="1">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1">
-        <f>W19*(V19+U19)</f>
-        <v>0.13421</v>
-      </c>
+        <v>0.69564999999999999</v>
+      </c>
+      <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <f>I22+N22+S22+X19</f>
-        <v>1.5866099999999999</v>
+        <v>2.65205</v>
       </c>
       <c r="J20" s="3"/>
       <c r="O20" s="3"/>
@@ -2278,15 +2465,13 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="A22" s="12"/>
       <c r="B22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="I22" s="5">
         <f>SUM(I19:I21)</f>
-        <v>0.66639999999999999</v>
+        <v>0.74639999999999995</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="5"/>
@@ -2294,7 +2479,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5">
         <f>SUM(N19:N21)</f>
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="5"/>
@@ -2302,7 +2487,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5">
         <f>SUM(S19:S21)</f>
-        <v>0.78600000000000003</v>
+        <v>0.69564999999999999</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="5"/>
@@ -2310,98 +2495,92 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5">
         <f>SUM(X19:X21)</f>
-        <v>0.13421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
         <f>G1*(B23*Y3+C23*Z3+D23*AA3+E23*AB3+F23*AC3)</f>
-        <v>2.7500000000000004E-2</v>
+        <v>8.7166933333333349E-2</v>
       </c>
       <c r="H23">
         <f>0.04*(SUM(B23:F23))</f>
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="I23" s="1">
         <f>H23+G23</f>
-        <v>0.62749999999999995</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="L23" s="11"/>
+        <v>0.52716693333333331</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <f>M23*(L23+K23)</f>
+        <v>0.59499999999999997</v>
+      </c>
       <c r="O23" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P23" s="1">
         <v>0.04</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.8</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="R23" s="1">
         <v>1</v>
       </c>
       <c r="S23" s="1">
         <f>R23*(Q23+P23)</f>
-        <v>2.84</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="V23" s="14">
-        <v>8.0680000000000002E-2</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1">
-        <f>W23*(V23+U23)</f>
-        <v>0.28068000000000004</v>
-      </c>
+        <v>9.4E-2</v>
+      </c>
+      <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <f>I26+N26+S26+X23</f>
-        <v>3.7481799999999996</v>
+        <v>1.2161669333333334</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="O24" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="O24" s="3"/>
       <c r="S24" s="13"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="A25" s="8"/>
       <c r="J25" s="3"/>
-      <c r="O25" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="O25" s="3"/>
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="A26" s="12"/>
       <c r="B26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="I26" s="5">
         <f>SUM(I23:I25)</f>
-        <v>0.62749999999999995</v>
+        <v>0.52716693333333331</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
@@ -2409,17 +2588,15 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5">
         <f>SUM(N23:N25)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="O26" s="6"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5">
         <f>SUM(S23:S25)</f>
-        <v>2.84</v>
+        <v>9.4E-2</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="5"/>
@@ -2427,102 +2604,92 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5">
         <f>SUM(X23:X25)</f>
-        <v>0.28068000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
         <f>G1*(B27*Y3+C27*Z3+D27*AA3+E27*AB3+F27*AC3)</f>
-        <v>2.7500000000000004E-2</v>
+        <v>2.6400000000000003E-2</v>
       </c>
       <c r="H27">
         <f>0.04*(SUM(B27:F27))</f>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="I27" s="1">
         <f>H27+G27</f>
-        <v>0.62749999999999995</v>
+        <v>0.66639999999999999</v>
       </c>
       <c r="J27" s="3"/>
       <c r="L27" s="11"/>
       <c r="O27" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="P27" s="1">
         <v>0.04</v>
       </c>
       <c r="Q27" s="1">
-        <v>3.5</v>
+        <v>0.746</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="1">
         <f>R27*(Q27+P27)</f>
-        <v>3.54</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="U27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="V27" s="14">
-        <v>8.0680000000000002E-2</v>
+        <v>0.04</v>
+      </c>
+      <c r="V27" s="1">
+        <v>9.4210000000000002E-2</v>
       </c>
       <c r="W27" s="1">
         <v>1</v>
       </c>
       <c r="X27" s="1">
         <f>W27*(V27+U27)</f>
-        <v>0.28068000000000004</v>
+        <v>0.13421</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <f>I30+N30+S30+X27</f>
-        <v>4.4481800000000007</v>
+        <v>1.5866099999999999</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="O28" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="O28" s="3"/>
       <c r="S28" s="13"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="A29" s="8"/>
       <c r="J29" s="3"/>
-      <c r="O29" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="O29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>51</v>
+    <row r="30" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
       <c r="I30" s="5">
         <f>SUM(I27:I29)</f>
-        <v>0.62749999999999995</v>
+        <v>0.66639999999999999</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="5"/>
@@ -2538,7 +2705,7 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5">
         <f>SUM(S27:S29)</f>
-        <v>3.54</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="5"/>
@@ -2546,12 +2713,12 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5">
         <f>SUM(X27:X29)</f>
-        <v>0.28068000000000004</v>
+        <v>0.13421</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1">
         <v>5</v>
@@ -2561,8 +2728,8 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <f>G3*(B31*Y3+C31*Z3+D31*AA3+E31*AB3+F31*AC3)</f>
-        <v>2.5281412291666673E-2</v>
+        <f>G1*(B31*Y3+C31*Z3+D31*AA3+E31*AB3+F31*AC3)</f>
+        <v>2.7500000000000004E-2</v>
       </c>
       <c r="H31">
         <f>0.04*(SUM(B31:F31))</f>
@@ -2570,28 +2737,28 @@
       </c>
       <c r="I31" s="1">
         <f>H31+G31</f>
-        <v>0.62528141229166667</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="J31" s="3"/>
       <c r="L31" s="11"/>
       <c r="O31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P31" s="1">
         <v>0.04</v>
       </c>
       <c r="Q31" s="1">
-        <v>7.4867999999999997</v>
+        <v>2.8</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
       </c>
       <c r="S31" s="1">
         <f>R31*(Q31+P31)</f>
-        <v>7.5267999999999997</v>
+        <v>2.84</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U31" s="1">
         <v>0.2</v>
@@ -2600,46 +2767,44 @@
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" s="1">
         <f>W31*(V31+U31)</f>
-        <v>0.56136000000000008</v>
+        <v>0.28068000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <f>I34+N34+S34+X31</f>
-        <v>8.713441412291667</v>
+        <v>3.7481799999999996</v>
       </c>
       <c r="J32" s="3"/>
       <c r="O32" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S32" s="13"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="O33" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="7"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
       <c r="I34" s="5">
         <f>SUM(I31:I33)</f>
-        <v>0.62528141229166667</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="5"/>
@@ -2649,13 +2814,15 @@
         <f>SUM(N31:N33)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="6"/>
+      <c r="O34" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5">
         <f>SUM(S31:S33)</f>
-        <v>7.5267999999999997</v>
+        <v>2.84</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="5"/>
@@ -2663,12 +2830,12 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5">
         <f>SUM(X31:X33)</f>
-        <v>0.56136000000000008</v>
+        <v>0.28068000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1">
         <v>5</v>
@@ -2692,23 +2859,23 @@
       <c r="J35" s="3"/>
       <c r="L35" s="11"/>
       <c r="O35" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P35" s="1">
         <v>0.04</v>
       </c>
       <c r="Q35" s="1">
-        <v>3.67</v>
+        <v>3.5</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
       </c>
       <c r="S35" s="1">
         <f>R35*(Q35+P35)</f>
-        <v>3.71</v>
+        <v>3.54</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -2717,37 +2884,37 @@
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X35" s="1">
         <f>W35*(V35+U35)</f>
-        <v>0.56136000000000008</v>
+        <v>0.28068000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="19">
         <f>I38+N38+S38+X35</f>
-        <v>4.8988600000000009</v>
+        <v>4.4481800000000007</v>
       </c>
       <c r="J36" s="3"/>
       <c r="O36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S36" s="13"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J37" s="3"/>
       <c r="O37" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
@@ -2774,7 +2941,7 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5">
         <f>SUM(S35:S37)</f>
-        <v>3.71</v>
+        <v>3.54</v>
       </c>
       <c r="T38" s="6"/>
       <c r="U38" s="5"/>
@@ -2782,76 +2949,89 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5">
         <f>SUM(X35:X37)</f>
-        <v>0.56136000000000008</v>
+        <v>0.28068000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
         <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
-        <f>G1*(B39*Y3+C39*Z3+D39*AA3+E39*AB3+F39*AC3)</f>
-        <v>1.6500000000000001E-2</v>
+        <f>G3*(B39*Y3+C39*Z3+D39*AA3+E39*AB3+F39*AC3)</f>
+        <v>2.5281412291666673E-2</v>
       </c>
       <c r="H39">
         <f>0.04*(SUM(B39:F39))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I39" s="1">
         <f>H39+G39</f>
-        <v>0.41650000000000004</v>
+        <v>0.62528141229166667</v>
       </c>
       <c r="J39" s="3"/>
       <c r="L39" s="11"/>
       <c r="O39" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P39" s="1">
         <v>0.04</v>
       </c>
       <c r="Q39" s="1">
-        <v>3.01</v>
+        <v>7.4867999999999997</v>
       </c>
       <c r="R39" s="1">
         <v>1</v>
       </c>
       <c r="S39" s="1">
         <f>R39*(Q39+P39)</f>
-        <v>3.05</v>
-      </c>
-      <c r="T39" s="3"/>
+        <v>7.5267999999999997</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V39" s="14">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W39" s="1">
+        <v>2</v>
+      </c>
+      <c r="X39" s="1">
+        <f>W39*(V39+U39)</f>
+        <v>0.56136000000000008</v>
+      </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <f>I42+N42+S42+X39</f>
-        <v>3.4664999999999999</v>
+        <v>8.713441412291667</v>
       </c>
       <c r="J40" s="3"/>
       <c r="O40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S40" s="13"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>69</v>
+      <c r="A41" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="O41" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="O41" s="3"/>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
@@ -2862,7 +3042,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="5">
         <f>SUM(I39:I41)</f>
-        <v>0.41650000000000004</v>
+        <v>0.62528141229166667</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="5"/>
@@ -2878,57 +3058,60 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5">
         <f>SUM(S39:S41)</f>
-        <v>3.05</v>
+        <v>7.5267999999999997</v>
       </c>
       <c r="T42" s="6"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
+      <c r="X42" s="5">
+        <f>SUM(X39:X41)</f>
+        <v>0.56136000000000008</v>
+      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
         <f>G1*(B43*Y3+C43*Z3+D43*AA3+E43*AB3+F43*AC3)</f>
-        <v>3.0800000000000004E-2</v>
+        <v>2.7500000000000004E-2</v>
       </c>
       <c r="H43">
         <f>0.04*(SUM(B43:F43))</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I43" s="1">
         <f>H43+G43</f>
-        <v>0.83080000000000009</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="J43" s="3"/>
       <c r="L43" s="11"/>
       <c r="O43" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="P43" s="1">
         <v>0.04</v>
       </c>
-      <c r="Q43" s="14">
-        <v>0.47145999999999999</v>
+      <c r="Q43" s="1">
+        <v>3.67</v>
       </c>
       <c r="R43" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S43" s="1">
         <f>R43*(Q43+P43)</f>
-        <v>4.0916800000000002</v>
+        <v>3.71</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U43" s="1">
         <v>0.2</v>
@@ -2945,31 +3128,30 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="19">
         <f>I46+N46+S46+X43</f>
-        <v>5.4838400000000007</v>
+        <v>4.8988600000000009</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q44" s="11">
-        <v>0.71899999999999997</v>
+      <c r="O44" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="S44" s="13"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="J45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="1" t="s">
-        <v>73</v>
+      <c r="O45" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="T45" s="3"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="5"/>
@@ -2979,7 +3161,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="5">
         <f>SUM(I43:I45)</f>
-        <v>0.83080000000000009</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="5"/>
@@ -2995,7 +3177,7 @@
       <c r="R46" s="5"/>
       <c r="S46" s="5">
         <f>SUM(S43:S45)</f>
-        <v>4.0916800000000002</v>
+        <v>3.71</v>
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="5"/>
@@ -3008,7 +3190,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1">
         <v>5</v>
@@ -3031,39 +3213,49 @@
       </c>
       <c r="J47" s="3"/>
       <c r="L47" s="11"/>
-      <c r="N47" s="18"/>
       <c r="O47" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="P47" s="1">
         <v>0.04</v>
       </c>
       <c r="Q47" s="1">
-        <v>1.54E-2</v>
+        <v>3.01</v>
       </c>
       <c r="R47" s="1">
         <v>1</v>
       </c>
       <c r="S47" s="1">
         <f>R47*(Q47+P47)</f>
-        <v>5.5400000000000005E-2</v>
+        <v>3.05</v>
       </c>
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="A48" s="19">
+        <f>I50+N50+S50+X47</f>
+        <v>3.4664999999999999</v>
+      </c>
       <c r="J48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="O48" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="S48" s="13"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="J49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="O49" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="T49" s="3"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="5"/>
@@ -3079,14 +3271,17 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="N50" s="5">
+        <f>SUM(N47:N49)</f>
+        <v>0</v>
+      </c>
       <c r="O50" s="6"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5">
         <f>SUM(S47:S49)</f>
-        <v>5.5400000000000005E-2</v>
+        <v>3.05</v>
       </c>
       <c r="T50" s="6"/>
       <c r="U50" s="5"/>
@@ -3095,24 +3290,85 @@
       <c r="X50" s="5"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1">
+        <v>8</v>
+      </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <f>G1*(B51*Y3+C51*Z3+D51*AA3+E51*AB3+F51*AC3)</f>
+        <v>3.0800000000000004E-2</v>
+      </c>
+      <c r="H51">
+        <f>0.04*(SUM(B51:F51))</f>
+        <v>0.8</v>
+      </c>
+      <c r="I51" s="1">
+        <f>H51+G51</f>
+        <v>0.83080000000000009</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="L51" s="11"/>
-      <c r="O51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="O51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>0.47145999999999999</v>
+      </c>
+      <c r="R51" s="1">
+        <v>8</v>
+      </c>
+      <c r="S51" s="1">
+        <f>R51*(Q51+P51)</f>
+        <v>4.0916800000000002</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V51" s="14">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W51" s="1">
+        <v>2</v>
+      </c>
+      <c r="X51" s="1">
+        <f>W51*(V51+U51)</f>
+        <v>0.56136000000000008</v>
+      </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="A52" s="19">
+        <f>I54+N54+S54+X51</f>
+        <v>5.4838400000000007</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="O52" s="3"/>
+      <c r="P52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>0.71899999999999997</v>
+      </c>
       <c r="S52" s="13"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="J53" s="3"/>
       <c r="O53" s="3"/>
+      <c r="P53" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
@@ -3124,102 +3380,93 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5">
+        <f>SUM(I51:I53)</f>
+        <v>0.83080000000000009</v>
+      </c>
       <c r="J54" s="6"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
+      <c r="N54" s="5">
+        <f>SUM(N51:N53)</f>
+        <v>0</v>
+      </c>
       <c r="O54" s="6"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
+      <c r="S54" s="5">
+        <f>SUM(S51:S53)</f>
+        <v>4.0916800000000002</v>
+      </c>
       <c r="T54" s="6"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
+      <c r="X54" s="5">
+        <f>SUM(X51:X53)</f>
+        <v>0.56136000000000008</v>
+      </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
       </c>
       <c r="C55" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1">
         <f>G1*(B55*Y3+C55*Z3+D55*AA3+E55*AB3+F55*AC3)</f>
-        <v>2.7500000000000004E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="H55">
         <f>0.04*(SUM(B55:F55))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I55" s="1">
         <f>H55+G55</f>
-        <v>0.62749999999999995</v>
+        <v>0.41650000000000004</v>
       </c>
       <c r="J55" s="3"/>
       <c r="L55" s="11"/>
+      <c r="N55" s="18"/>
       <c r="O55" s="3" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="P55" s="1">
         <v>0.04</v>
       </c>
-      <c r="Q55" s="14">
-        <v>3.91161</v>
+      <c r="Q55" s="1">
+        <v>1.54E-2</v>
       </c>
       <c r="R55" s="1">
         <v>1</v>
       </c>
       <c r="S55" s="1">
         <f>R55*(Q55+P55)</f>
-        <v>3.9516100000000001</v>
-      </c>
-      <c r="T55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U55" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="V55" s="14">
-        <v>8.0680000000000002E-2</v>
-      </c>
-      <c r="W55" s="1">
-        <v>1</v>
-      </c>
-      <c r="X55" s="1">
-        <f>W55*(V55+U55)</f>
-        <v>0.28068000000000004</v>
-      </c>
+        <v>5.5400000000000005E-2</v>
+      </c>
+      <c r="T55" s="3"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
-        <f>I58+N58+S58+X55</f>
-        <v>4.8597900000000003</v>
-      </c>
+      <c r="A56" s="8"/>
       <c r="J56" s="3"/>
       <c r="O56" s="3"/>
       <c r="S56" s="13"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="A57" s="8"/>
       <c r="J57" s="3"/>
       <c r="O57" s="3"/>
       <c r="T57" s="3"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="A58" s="12"/>
       <c r="B58" s="5"/>
       <c r="C58" s="7"/>
       <c r="D58" s="5"/>
@@ -3229,112 +3476,50 @@
       <c r="H58" s="7"/>
       <c r="I58" s="5">
         <f>SUM(I55:I57)</f>
-        <v>0.62749999999999995</v>
+        <v>0.41650000000000004</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="5">
-        <f>SUM(N55:N57)</f>
-        <v>0</v>
-      </c>
+      <c r="N58" s="5"/>
       <c r="O58" s="6"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5">
         <f>SUM(S55:S57)</f>
-        <v>3.9516100000000001</v>
+        <v>5.5400000000000005E-2</v>
       </c>
       <c r="T58" s="6"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
-      <c r="X58" s="5">
-        <f>SUM(X55:X57)</f>
-        <v>0.28068000000000004</v>
-      </c>
+      <c r="X58" s="5"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="1">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1">
-        <v>10</v>
-      </c>
+      <c r="A59" s="8"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1">
-        <f>G1*(B59*Y3+C59*Z3+D59*AA3+E59*AB3+F59*AC3)</f>
-        <v>2.7500000000000004E-2</v>
-      </c>
-      <c r="H59">
-        <f>0.04*(SUM(B59:F59))</f>
-        <v>0.6</v>
-      </c>
-      <c r="I59" s="1">
-        <f>H59+G59</f>
-        <v>0.62749999999999995</v>
-      </c>
+      <c r="G59" s="1"/>
       <c r="J59" s="3"/>
       <c r="L59" s="11"/>
-      <c r="O59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P59" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Q59" s="14">
-        <v>3.91161</v>
-      </c>
-      <c r="R59" s="1">
-        <v>1</v>
-      </c>
-      <c r="S59" s="1">
-        <f>R59*(Q59+P59)</f>
-        <v>3.9516100000000001</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U59" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="V59" s="14">
-        <v>8.0680000000000002E-2</v>
-      </c>
-      <c r="W59" s="1">
-        <v>1</v>
-      </c>
-      <c r="X59" s="1">
-        <f>W59*(V59+U59)</f>
-        <v>0.28068000000000004</v>
-      </c>
+      <c r="O59" s="3"/>
+      <c r="T59" s="3"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
-        <f>I62+N62+S62+X59</f>
-        <v>4.8597900000000003</v>
-      </c>
+      <c r="A60" s="8"/>
       <c r="J60" s="3"/>
       <c r="O60" s="3"/>
       <c r="S60" s="13"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="A61" s="8"/>
       <c r="J61" s="3"/>
       <c r="O61" s="3"/>
       <c r="T61" s="3"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="A62" s="12"/>
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
       <c r="D62" s="5"/>
@@ -3342,32 +3527,250 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="5">
-        <f>SUM(I59:I61)</f>
-        <v>0.62749999999999995</v>
-      </c>
+      <c r="I62" s="5"/>
       <c r="J62" s="6"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="5">
-        <f>SUM(N59:N61)</f>
-        <v>0</v>
-      </c>
+      <c r="N62" s="5"/>
       <c r="O62" s="6"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="5">
-        <f>SUM(S59:S61)</f>
-        <v>3.9516100000000001</v>
-      </c>
+      <c r="S62" s="5"/>
       <c r="T62" s="6"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="5">
-        <f>SUM(X59:X61)</f>
+      <c r="X62" s="5"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1">
+        <f>G1*(B63*Y3+C63*Z3+D63*AA3+E63*AB3+F63*AC3)</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="H63">
+        <f>0.04*(SUM(B63:F63))</f>
+        <v>0.6</v>
+      </c>
+      <c r="I63" s="1">
+        <f>H63+G63</f>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="L63" s="11"/>
+      <c r="O63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>3.91161</v>
+      </c>
+      <c r="R63" s="1">
+        <v>1</v>
+      </c>
+      <c r="S63" s="1">
+        <f>R63*(Q63+P63)</f>
+        <v>3.9516100000000001</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V63" s="14">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W63" s="1">
+        <v>1</v>
+      </c>
+      <c r="X63" s="1">
+        <f>W63*(V63+U63)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="19">
+        <f>I66+N66+S66+X63</f>
+        <v>4.8597900000000003</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="S64" s="13"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="5">
+        <f>SUM(I63:I65)</f>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5">
+        <f>SUM(N63:N65)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="6"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5">
+        <f>SUM(S63:S65)</f>
+        <v>3.9516100000000001</v>
+      </c>
+      <c r="T66" s="6"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5">
+        <f>SUM(X63:X65)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1">
+        <f>G1*(B67*Y3+C67*Z3+D67*AA3+E67*AB3+F67*AC3)</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="H67">
+        <f>0.04*(SUM(B67:F67))</f>
+        <v>0.6</v>
+      </c>
+      <c r="I67" s="1">
+        <f>H67+G67</f>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="L67" s="11"/>
+      <c r="O67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q67" s="14">
+        <v>3.91161</v>
+      </c>
+      <c r="R67" s="1">
+        <v>1</v>
+      </c>
+      <c r="S67" s="1">
+        <f>R67*(Q67+P67)</f>
+        <v>3.9516100000000001</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V67" s="14">
+        <v>8.0680000000000002E-2</v>
+      </c>
+      <c r="W67" s="1">
+        <v>1</v>
+      </c>
+      <c r="X67" s="1">
+        <f>W67*(V67+U67)</f>
+        <v>0.28068000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="19">
+        <f>I70+N70+S70+X67</f>
+        <v>4.8597900000000003</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="S68" s="13"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="5">
+        <f>SUM(I67:I69)</f>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5">
+        <f>SUM(N67:N69)</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="6"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5">
+        <f>SUM(S67:S69)</f>
+        <v>3.9516100000000001</v>
+      </c>
+      <c r="T70" s="6"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5">
+        <f>SUM(X67:X69)</f>
         <v>0.28068000000000004</v>
       </c>
     </row>
@@ -3381,10 +3784,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X94"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3395,240 +3798,300 @@
     <col min="8" max="16384" width="20.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="34" t="s">
+    <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="R1" s="35"/>
-    </row>
-    <row r="2" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-    </row>
-    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="41" t="s">
+      <c r="J1" s="100"/>
+      <c r="K1" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="100"/>
+      <c r="M1" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="100"/>
+      <c r="O1" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="100"/>
+      <c r="S1" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="100"/>
+      <c r="U1" s="99" t="s">
+        <v>180</v>
+      </c>
+      <c r="V1" s="100"/>
+    </row>
+    <row r="2" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="96"/>
+    </row>
+    <row r="3" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33">
+      <c r="I3" s="22"/>
+      <c r="J3" s="23">
         <f>H4</f>
         <v>12.06671</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33">
+      <c r="K3" s="22"/>
+      <c r="L3" s="23">
         <f>J3</f>
         <v>12.06671</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33">
+      <c r="M3" s="22"/>
+      <c r="N3" s="23">
         <f>L3</f>
         <v>12.06671</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33">
+      <c r="O3" s="22"/>
+      <c r="P3" s="23">
         <f>N3</f>
         <v>12.06671</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23">
         <f>P3</f>
         <v>12.06671</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="22"/>
+      <c r="T3" s="23">
+        <f>R3</f>
+        <v>12.06671</v>
+      </c>
+      <c r="U3" s="22"/>
+      <c r="V3" s="23">
+        <f>T3</f>
+        <v>12.06671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="6">
-        <f>Kostenanalys_Features!A8</f>
+        <f>Kostenanalys_Features!A16</f>
         <v>12.06671</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="31"/>
-    </row>
-    <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="I4" s="3"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="I5" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="I5" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="30">
+      <c r="J5" s="113">
         <v>3.26</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="30">
+      <c r="K5" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="113">
         <v>7.4867999999999997</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="30">
+      <c r="M5" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="113">
         <v>3.44</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="P5" s="30">
+      <c r="O5" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="113">
         <v>1.26</v>
       </c>
-      <c r="Q5" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="R5" s="30">
+      <c r="Q5" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" s="113">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="107"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="107"/>
-    </row>
-    <row r="7" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="S5" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" s="113">
+        <v>1.9</v>
+      </c>
+      <c r="U5" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="113">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="96">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="103" t="s">
+      <c r="B7" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="I7" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E7" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="I7" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P7" s="13"/>
-      <c r="Q7" s="3">
-        <v>48</v>
+      <c r="Q7" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="107"/>
-    </row>
-    <row r="9" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="S7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="96"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96">
         <v>3</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
+      <c r="B9" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
       <c r="I9" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="3">
@@ -3636,113 +4099,139 @@
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="107"/>
-    </row>
-    <row r="11" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="S9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="96"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="V10" s="21"/>
+    </row>
+    <row r="11" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="96">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
+      <c r="B11" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
       <c r="I11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R11" s="13">
         <f>D12</f>
         <v>5.4838400000000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="104">
+      <c r="S11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="96"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="78">
         <v>0</v>
       </c>
-      <c r="D12" s="105">
-        <f>Kostenanalys_Features!A44</f>
+      <c r="D12" s="79">
+        <f>Kostenanalys_Features!A52</f>
         <v>5.4838400000000007</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="107"/>
-    </row>
-    <row r="13" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="81"/>
+    </row>
+    <row r="13" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="96">
         <v>5</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="103">
+      <c r="B13" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="77">
         <v>1</v>
       </c>
-      <c r="D13" s="103">
+      <c r="D13" s="77">
         <v>2</v>
       </c>
-      <c r="E13" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
+      <c r="E13" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
       <c r="I13" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="3">
@@ -3750,7 +4239,7 @@
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="3">
@@ -3758,312 +4247,372 @@
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="107"/>
-    </row>
-    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="96"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="81"/>
+    </row>
+    <row r="15" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="96">
         <v>6</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="103" t="s">
+      <c r="B15" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="C15" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="103"/>
+      <c r="D15" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="77"/>
       <c r="I15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="107"/>
-    </row>
-    <row r="17" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="S15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="96"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="81"/>
+    </row>
+    <row r="17" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="96">
         <v>7</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
+      <c r="B17" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
       <c r="I17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R17" s="13"/>
-    </row>
-    <row r="18" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="107"/>
-    </row>
-    <row r="19" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="S17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" s="13"/>
+      <c r="U17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="96"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="81"/>
+    </row>
+    <row r="19" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="96">
         <v>8</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
+      <c r="B19" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
       <c r="I19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="107"/>
-    </row>
-    <row r="21" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="S19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="96"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="81"/>
+    </row>
+    <row r="21" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="96">
         <v>9</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="103" t="s">
+      <c r="B21" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="77" t="s">
         <v>128</v>
       </c>
+      <c r="D21" s="77" t="s">
+        <v>125</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="103"/>
+      <c r="G21" s="77"/>
       <c r="I21" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J21" s="13">
         <f>C22</f>
         <v>2.4323338666666667</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N21" s="13">
         <f>E22</f>
         <v>2.4323338666666667</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P21" s="13">
         <f>G22</f>
         <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R21" s="13">
         <f>I22</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="104">
-        <f>2*Kostenanalys_Features!A16</f>
+      <c r="S21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T21" s="13"/>
+      <c r="U21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="V21" s="13"/>
+    </row>
+    <row r="22" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="96"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="78">
+        <f>2*Kostenanalys_Features!A24</f>
         <v>2.4323338666666667</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="78">
         <v>0</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="79">
         <f>C22</f>
         <v>2.4323338666666667</v>
       </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="107"/>
-    </row>
-    <row r="23" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="81"/>
+    </row>
+    <row r="23" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="96">
         <v>10</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="103" t="s">
+      <c r="B23" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="103" t="s">
-        <v>100</v>
+      <c r="G23" s="77" t="s">
+        <v>97</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J23" s="13">
         <f>C24</f>
         <v>2.65205</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L23" s="13">
         <f>C24</f>
@@ -4077,69 +4626,87 @@
         <v>2.65205</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P23" s="13">
         <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R23" s="13">
         <f>C24</f>
         <v>2.65205</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="104">
-        <f>Kostenanalys_Features!A12</f>
+      <c r="S23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="T23" s="13">
+        <f>C24</f>
         <v>2.65205</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104">
+      <c r="U23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="V23" s="13">
+        <f>C24</f>
+        <v>2.65205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="96"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="78">
+        <f>Kostenanalys_Features!A20</f>
+        <v>2.65205</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78">
         <v>0</v>
       </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104">
+      <c r="F24" s="78"/>
+      <c r="G24" s="78">
         <v>0</v>
       </c>
-      <c r="I24" s="106"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="107"/>
-    </row>
-    <row r="25" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="I24" s="80"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="81"/>
+    </row>
+    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="96">
         <v>11</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="103" t="s">
+      <c r="B25" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
+      <c r="C25" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
       <c r="I25" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="3" t="s">
@@ -4147,231 +4714,285 @@
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="107"/>
-    </row>
-    <row r="27" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="S25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" s="13"/>
+      <c r="U25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V25" s="13"/>
+    </row>
+    <row r="26" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="96"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="81"/>
+    </row>
+    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="96">
         <v>12</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
+      <c r="B27" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
       <c r="I27" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J27" s="13">
         <f>C28</f>
-        <v>7.89</v>
+        <v>8.48</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L27" s="13">
         <f>C28</f>
-        <v>7.89</v>
+        <v>8.48</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N27" s="13">
         <f>C28</f>
-        <v>7.89</v>
+        <v>8.48</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P27" s="13">
-        <f>E28</f>
-        <v>0</v>
+        <f>D28</f>
+        <v>2.66</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R27" s="13">
         <f>C28</f>
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="104">
+        <v>8.48</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T27" s="13">
+        <f>D28</f>
+        <v>2.66</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V27" s="13">
+        <f>D28</f>
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="96"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="78">
         <f>Kostenanalys_Features!A4</f>
-        <v>7.89</v>
-      </c>
-      <c r="D28" s="104">
-        <v>0</v>
-      </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="107"/>
-    </row>
-    <row r="29" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+        <v>8.48</v>
+      </c>
+      <c r="D28" s="78">
+        <f>Kostenanalys_Features!A12</f>
+        <v>2.66</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="81"/>
+    </row>
+    <row r="29" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="96">
         <v>13</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="103" t="s">
+      <c r="B29" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="C29" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
       <c r="I29" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N29" s="13">
         <f>D30</f>
         <v>1.5866099999999999</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P29" s="13">
         <f>F30</f>
         <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R29" s="13">
         <f>H30</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="105" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="104">
+      <c r="S29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T29" s="13">
         <v>0</v>
       </c>
-      <c r="D30" s="104">
-        <f>Kostenanalys_Features!A20</f>
+      <c r="U29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="96"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="78">
+        <v>0</v>
+      </c>
+      <c r="D30" s="78">
+        <f>Kostenanalys_Features!A28</f>
         <v>1.5866099999999999</v>
       </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="107"/>
-    </row>
-    <row r="31" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="28"/>
-      <c r="H31" s="108"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="81"/>
+    </row>
+    <row r="31" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="82"/>
       <c r="I31" s="3"/>
       <c r="J31" s="13"/>
       <c r="K31" s="3"/>
       <c r="L31" s="13"/>
       <c r="M31" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P31" s="13"/>
       <c r="Q31" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R31" s="13"/>
-    </row>
-    <row r="32" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
       <c r="H32" s="12"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="31"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="31"/>
+      <c r="L32" s="21"/>
       <c r="M32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="N32" s="31"/>
+        <v>146</v>
+      </c>
+      <c r="N32" s="21"/>
       <c r="O32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="P32" s="31"/>
+        <v>146</v>
+      </c>
+      <c r="P32" s="21"/>
       <c r="Q32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="R32" s="31"/>
-    </row>
-    <row r="33" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="H33" s="41" t="s">
-        <v>134</v>
+        <v>146</v>
+      </c>
+      <c r="R32" s="21"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="21"/>
+    </row>
+    <row r="33" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="H33" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="13">
@@ -4398,1700 +5019,2116 @@
         <f>H34</f>
         <v>3</v>
       </c>
-      <c r="W33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13">
+        <f>H34</f>
+        <v>3</v>
+      </c>
+      <c r="U33" s="3"/>
+      <c r="V33" s="13">
+        <f>H34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
       <c r="H34" s="6">
         <v>3</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="31"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="31"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="31"/>
+      <c r="N34" s="21"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="31"/>
+      <c r="P34" s="21"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="31"/>
-      <c r="U34" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="W34" s="1">
-        <v>9</v>
-      </c>
-      <c r="X34" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="H35" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33">
+      <c r="R34" s="21"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="21"/>
+    </row>
+    <row r="35" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="H35" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23">
         <f>H36</f>
         <v>1</v>
       </c>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33">
+      <c r="K35" s="22"/>
+      <c r="L35" s="23">
         <f>H36</f>
         <v>1</v>
       </c>
-      <c r="M35" s="32"/>
-      <c r="N35" s="33">
+      <c r="M35" s="22"/>
+      <c r="N35" s="23">
         <f>H36</f>
         <v>1</v>
       </c>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33">
+      <c r="O35" s="22"/>
+      <c r="P35" s="23">
         <f>H36</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="33">
+      <c r="Q35" s="22"/>
+      <c r="R35" s="23">
         <f>H36</f>
         <v>1</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="W35" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="X35" s="1">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="23">
+        <f>H36</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="22"/>
+      <c r="V35" s="23">
+        <f>H36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
       <c r="H36" s="6">
         <v>1</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="31"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="31"/>
+      <c r="L36" s="21"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="31"/>
+      <c r="N36" s="21"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="31"/>
+      <c r="P36" s="21"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="31"/>
-      <c r="U36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="W36" s="1">
-        <v>7.48</v>
-      </c>
-      <c r="X36" s="1">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="H37" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="43">
+      <c r="R36" s="21"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="21"/>
+    </row>
+    <row r="37" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="H37" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26">
         <f>SUM(J3:J36)</f>
-        <v>32.301093866666662</v>
-      </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="43">
+        <v>32.891093866666665</v>
+      </c>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26">
         <f>SUM(L3:L36)</f>
-        <v>34.095559999999999</v>
-      </c>
-      <c r="M37" s="44"/>
-      <c r="N37" s="43">
+        <v>34.685559999999995</v>
+      </c>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26">
         <f>SUM(N3:N36)</f>
-        <v>34.067703866666662</v>
-      </c>
-      <c r="O37" s="44"/>
-      <c r="P37" s="43">
+        <v>34.657703866666665</v>
+      </c>
+      <c r="O37" s="25"/>
+      <c r="P37" s="26">
         <f>SUM(P3:P36)</f>
-        <v>17.326709999999999</v>
-      </c>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="43">
+        <v>19.986710000000002</v>
+      </c>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="26">
         <f>SUM(R3:R36)</f>
-        <v>35.492599999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="H38" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="33"/>
-    </row>
-    <row r="39" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+        <v>36.082599999999999</v>
+      </c>
+      <c r="S37" s="25"/>
+      <c r="T37" s="26">
+        <f>SUM(T3:T36)</f>
+        <v>23.278760000000002</v>
+      </c>
+      <c r="U37" s="25"/>
+      <c r="V37" s="26">
+        <f>SUM(V3:V36)</f>
+        <v>25.048760000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="H38" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="23"/>
+    </row>
+    <row r="39" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
       <c r="H39" s="12">
         <v>1.2</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="38">
+      <c r="J39" s="24">
         <f>J37*H39</f>
-        <v>38.761312639999993</v>
+        <v>39.469312639999998</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="38">
+      <c r="L39" s="24">
         <f>L37*H39</f>
-        <v>40.914671999999996</v>
+        <v>41.622671999999994</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="38">
+      <c r="N39" s="24">
         <f>N37*H39</f>
-        <v>40.881244639999991</v>
+        <v>41.589244639999997</v>
       </c>
       <c r="O39" s="6"/>
-      <c r="P39" s="109">
+      <c r="P39" s="83">
         <f>P37*H39</f>
-        <v>20.792051999999998</v>
+        <v>23.984052000000002</v>
       </c>
       <c r="Q39" s="6"/>
-      <c r="R39" s="53">
+      <c r="R39" s="37">
         <f>R37*H39</f>
-        <v>42.591119999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
-    </row>
-    <row r="41" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
+        <v>43.299119999999995</v>
+      </c>
+      <c r="S39" s="6"/>
+      <c r="T39" s="83">
+        <f>H39*T37</f>
+        <v>27.934512000000002</v>
+      </c>
+      <c r="U39" s="6"/>
+      <c r="V39" s="83">
+        <f>H39*V37</f>
+        <v>30.058512</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
+      <c r="Y40" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
       <c r="I41" s="3"/>
       <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="19"/>
+      <c r="Y41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="95"/>
       <c r="I42" s="3"/>
       <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="62">
+      <c r="Y42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="45">
         <v>1</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="47"/>
-    </row>
-    <row r="44" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G44" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="64">
+      <c r="I43" s="30"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="31"/>
+    </row>
+    <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="47">
         <v>2</v>
       </c>
-      <c r="I44" s="48"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="49"/>
-    </row>
-    <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="64">
+      <c r="I44" s="32"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="33"/>
+    </row>
+    <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="47">
         <v>3</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="49"/>
-    </row>
-    <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G46" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="64">
+      <c r="I45" s="32"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="33"/>
+    </row>
+    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="47">
         <v>4</v>
       </c>
-      <c r="I46" s="48"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="49"/>
-    </row>
-    <row r="47" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="64">
+      <c r="I46" s="32"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="33"/>
+    </row>
+    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="47">
         <v>5</v>
       </c>
-      <c r="I47" s="48"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="49"/>
-    </row>
-    <row r="48" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="64">
+      <c r="I47" s="32"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="33"/>
+    </row>
+    <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="47">
         <v>6</v>
       </c>
-      <c r="I48" s="48"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="49"/>
-    </row>
-    <row r="49" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="64">
+      <c r="I48" s="32"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="33"/>
+    </row>
+    <row r="49" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" s="47">
         <v>7</v>
       </c>
-      <c r="I49" s="48"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="49"/>
-    </row>
-    <row r="50" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G50" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" s="64">
+      <c r="I49" s="32"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="33"/>
+    </row>
+    <row r="50" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="47">
         <v>8</v>
       </c>
-      <c r="I50" s="48"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="49"/>
-    </row>
-    <row r="51" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G51" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" s="64">
+      <c r="I50" s="32"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="33"/>
+    </row>
+    <row r="51" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="47">
         <v>9</v>
       </c>
-      <c r="I51" s="48"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="49"/>
-    </row>
-    <row r="52" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G52" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="64">
+      <c r="I51" s="32"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="33"/>
+    </row>
+    <row r="52" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="47">
         <v>10</v>
       </c>
-      <c r="I52" s="48"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="49"/>
-    </row>
-    <row r="53" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G53" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" s="64">
+      <c r="I52" s="32"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="33"/>
+    </row>
+    <row r="53" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="47">
         <v>11</v>
       </c>
-      <c r="I53" s="48"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="49"/>
-    </row>
-    <row r="54" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54" s="64">
+      <c r="I53" s="32"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="33"/>
+    </row>
+    <row r="54" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="47">
         <v>12</v>
       </c>
-      <c r="I54" s="115"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="71"/>
-    </row>
-    <row r="55" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G55" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" s="66">
+      <c r="I54" s="88"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="33"/>
+    </row>
+    <row r="55" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="49">
         <v>13</v>
       </c>
-      <c r="I55" s="54"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="55"/>
-    </row>
-    <row r="56" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G56" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="H56" s="69">
+      <c r="I55" s="38"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="33"/>
+    </row>
+    <row r="56" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="52">
         <v>14</v>
       </c>
-      <c r="I56" s="113"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="91"/>
-      <c r="R56" s="89"/>
-    </row>
-    <row r="57" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" s="73">
+      <c r="I56" s="86"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="33"/>
+    </row>
+    <row r="57" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="56">
         <v>15</v>
       </c>
-      <c r="I57" s="54"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="55"/>
-    </row>
-    <row r="58" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G58" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="H58" s="75">
+      <c r="I57" s="38"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="39"/>
+    </row>
+    <row r="58" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="58">
         <v>16</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="47"/>
-    </row>
-    <row r="59" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G59" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="78">
+      <c r="I58" s="34"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="31"/>
+    </row>
+    <row r="59" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="61">
         <v>17</v>
       </c>
-      <c r="I59" s="48"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="91"/>
-      <c r="P59" s="89"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="49"/>
-    </row>
-    <row r="60" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G60" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="H60" s="78">
+      <c r="I59" s="32"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="119"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="33"/>
+    </row>
+    <row r="60" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="61">
         <v>18</v>
       </c>
-      <c r="I60" s="48"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="49"/>
-    </row>
-    <row r="61" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G61" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" s="80">
+      <c r="I60" s="32"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="33"/>
+    </row>
+    <row r="61" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="63">
         <v>19</v>
       </c>
-      <c r="I61" s="52"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="P61" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="55"/>
-    </row>
-    <row r="62" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G62" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="H62" s="84">
+      <c r="I61" s="36"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="72"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="39"/>
+    </row>
+    <row r="62" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="67">
         <v>20</v>
       </c>
-      <c r="I62" s="46"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L62" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="70"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="47"/>
-    </row>
-    <row r="63" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G63" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63" s="86">
+      <c r="I62" s="30"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="31"/>
+    </row>
+    <row r="63" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="69">
         <v>21</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="13"/>
-    </row>
-    <row r="64" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G64" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="H64" s="86">
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="33"/>
+    </row>
+    <row r="64" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" s="69">
         <v>22</v>
       </c>
-      <c r="I64" s="50"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="N64" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="O64" s="50"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="49"/>
-    </row>
-    <row r="65" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="92"/>
-      <c r="K65" s="92"/>
-      <c r="L65" s="92"/>
-      <c r="M65" s="92"/>
-      <c r="N65" s="92"/>
-      <c r="O65" s="92"/>
-      <c r="P65" s="92"/>
-      <c r="Q65" s="92"/>
-      <c r="R65" s="92"/>
-    </row>
-    <row r="66" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="92"/>
-      <c r="M66" s="92"/>
-      <c r="N66" s="92"/>
-      <c r="O66" s="92"/>
-      <c r="P66" s="92"/>
-      <c r="Q66" s="92"/>
-      <c r="R66" s="92"/>
-    </row>
-    <row r="67" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
-      <c r="N67" s="92"/>
-      <c r="O67" s="92"/>
-      <c r="P67" s="92"/>
-      <c r="Q67" s="92"/>
-      <c r="R67" s="92"/>
-    </row>
-    <row r="68" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="92"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="92"/>
-      <c r="M68" s="92"/>
-      <c r="N68" s="92"/>
-      <c r="O68" s="92"/>
-      <c r="P68" s="92"/>
-      <c r="Q68" s="92"/>
-      <c r="R68" s="92"/>
-    </row>
-    <row r="69" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G69" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="H69" s="97"/>
-    </row>
-    <row r="70" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="34"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N64" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O64" s="34"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="119"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="37"/>
+    </row>
+    <row r="65" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="H69" s="104"/>
+    </row>
+    <row r="70" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I70" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H70" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="I70" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="J70" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="K70" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="L70" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="M70" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="N70" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="O70" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="P70" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q70" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="R70" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G71" s="61">
+      <c r="J70" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="K70" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="M70" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="N70" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="O70" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="P70" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q70" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="R70" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="S70" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="T70" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="U70" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="V70" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="44">
         <v>1</v>
       </c>
-      <c r="H71" s="62">
+      <c r="H71" s="45">
         <v>4</v>
       </c>
-      <c r="I71" s="99">
-        <v>100</v>
-      </c>
-      <c r="J71" s="94">
+      <c r="I71" s="75">
+        <v>100</v>
+      </c>
+      <c r="J71" s="23">
         <f>H71*I71</f>
         <v>400</v>
       </c>
-      <c r="K71" s="99">
-        <v>100</v>
-      </c>
-      <c r="L71" s="94">
+      <c r="K71" s="75">
+        <v>100</v>
+      </c>
+      <c r="L71" s="23">
         <f>H72*K71</f>
         <v>400</v>
       </c>
-      <c r="M71" s="99">
-        <v>100</v>
-      </c>
-      <c r="N71" s="94">
+      <c r="M71" s="75">
+        <v>100</v>
+      </c>
+      <c r="N71" s="23">
         <f>H71*M71</f>
         <v>400</v>
       </c>
-      <c r="O71" s="99">
-        <v>100</v>
-      </c>
-      <c r="P71" s="94">
+      <c r="O71" s="75">
+        <v>100</v>
+      </c>
+      <c r="P71" s="23">
         <f>H71*O71</f>
         <v>400</v>
       </c>
-      <c r="Q71" s="99">
-        <v>100</v>
-      </c>
-      <c r="R71" s="94">
+      <c r="Q71" s="75">
+        <v>100</v>
+      </c>
+      <c r="R71" s="23">
         <f>H71*Q71</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="72" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G72" s="63">
+      <c r="S71" s="75">
+        <v>100</v>
+      </c>
+      <c r="T71" s="23">
+        <f>H71*S71</f>
+        <v>400</v>
+      </c>
+      <c r="U71" s="75">
+        <v>100</v>
+      </c>
+      <c r="V71" s="23">
+        <f>H71*U71</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="46">
         <v>2</v>
       </c>
-      <c r="H72" s="64">
+      <c r="H72" s="47">
         <v>4</v>
       </c>
-      <c r="I72" s="100">
-        <v>100</v>
-      </c>
-      <c r="J72" s="93">
-        <f t="shared" ref="J72:L92" si="0">H72*I72</f>
-        <v>400</v>
-      </c>
-      <c r="K72" s="100">
-        <v>100</v>
-      </c>
-      <c r="L72" s="93">
+      <c r="I72" s="8">
+        <v>100</v>
+      </c>
+      <c r="J72" s="13">
+        <f t="shared" ref="J72:J92" si="0">H72*I72</f>
+        <v>400</v>
+      </c>
+      <c r="K72" s="8">
+        <v>100</v>
+      </c>
+      <c r="L72" s="13">
         <f t="shared" ref="L72:L92" si="1">H73*K72</f>
         <v>400</v>
       </c>
-      <c r="M72" s="100">
-        <v>100</v>
-      </c>
-      <c r="N72" s="93">
+      <c r="M72" s="8">
+        <v>100</v>
+      </c>
+      <c r="N72" s="13">
         <f t="shared" ref="N72:N92" si="2">H72*M72</f>
         <v>400</v>
       </c>
-      <c r="O72" s="100">
-        <v>100</v>
-      </c>
-      <c r="P72" s="93">
+      <c r="O72" s="8">
+        <v>100</v>
+      </c>
+      <c r="P72" s="13">
         <f t="shared" ref="P72:P92" si="3">H72*O72</f>
         <v>400</v>
       </c>
-      <c r="Q72" s="100">
-        <v>100</v>
-      </c>
-      <c r="R72" s="93">
+      <c r="Q72" s="8">
+        <v>100</v>
+      </c>
+      <c r="R72" s="13">
         <f t="shared" ref="R72:R92" si="4">H72*Q72</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="73" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G73" s="63">
+      <c r="S72" s="8">
+        <v>100</v>
+      </c>
+      <c r="T72" s="13">
+        <f t="shared" ref="T72:T92" si="5">H72*S72</f>
+        <v>400</v>
+      </c>
+      <c r="U72" s="8">
+        <v>100</v>
+      </c>
+      <c r="V72" s="13">
+        <f t="shared" ref="V72:V92" si="6">H72*U72</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="46">
         <v>3</v>
       </c>
-      <c r="H73" s="64">
+      <c r="H73" s="47">
         <v>4</v>
       </c>
-      <c r="I73" s="100">
-        <v>100</v>
-      </c>
-      <c r="J73" s="93">
+      <c r="I73" s="8">
+        <v>100</v>
+      </c>
+      <c r="J73" s="13">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K73" s="100">
-        <v>100</v>
-      </c>
-      <c r="L73" s="93">
+      <c r="K73" s="8">
+        <v>100</v>
+      </c>
+      <c r="L73" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M73" s="100">
-        <v>100</v>
-      </c>
-      <c r="N73" s="93">
+      <c r="M73" s="8">
+        <v>100</v>
+      </c>
+      <c r="N73" s="13">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="O73" s="100">
-        <v>100</v>
-      </c>
-      <c r="P73" s="93">
+      <c r="O73" s="8">
+        <v>100</v>
+      </c>
+      <c r="P73" s="13">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q73" s="100">
-        <v>100</v>
-      </c>
-      <c r="R73" s="93">
+      <c r="Q73" s="8">
+        <v>100</v>
+      </c>
+      <c r="R73" s="13">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="74" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G74" s="63">
+      <c r="S73" s="8">
+        <v>100</v>
+      </c>
+      <c r="T73" s="13">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U73" s="8">
+        <v>100</v>
+      </c>
+      <c r="V73" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="46">
         <v>4</v>
       </c>
-      <c r="H74" s="64">
+      <c r="H74" s="47">
         <v>4</v>
       </c>
-      <c r="I74" s="100">
-        <v>100</v>
-      </c>
-      <c r="J74" s="93">
+      <c r="I74" s="8">
+        <v>100</v>
+      </c>
+      <c r="J74" s="13">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K74" s="100">
-        <v>100</v>
-      </c>
-      <c r="L74" s="93">
+      <c r="K74" s="8">
+        <v>100</v>
+      </c>
+      <c r="L74" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M74" s="100">
-        <v>100</v>
-      </c>
-      <c r="N74" s="93">
+      <c r="M74" s="8">
+        <v>100</v>
+      </c>
+      <c r="N74" s="13">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="O74" s="100">
-        <v>100</v>
-      </c>
-      <c r="P74" s="93">
+      <c r="O74" s="8">
+        <v>100</v>
+      </c>
+      <c r="P74" s="13">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q74" s="100">
-        <v>100</v>
-      </c>
-      <c r="R74" s="93">
+      <c r="Q74" s="8">
+        <v>100</v>
+      </c>
+      <c r="R74" s="13">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="75" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G75" s="63">
+      <c r="S74" s="8">
+        <v>100</v>
+      </c>
+      <c r="T74" s="13">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U74" s="8">
+        <v>100</v>
+      </c>
+      <c r="V74" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="46">
         <v>5</v>
       </c>
-      <c r="H75" s="64">
+      <c r="H75" s="47">
         <v>4</v>
       </c>
-      <c r="I75" s="100">
-        <v>100</v>
-      </c>
-      <c r="J75" s="93">
+      <c r="I75" s="8">
+        <v>100</v>
+      </c>
+      <c r="J75" s="13">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K75" s="100">
-        <v>100</v>
-      </c>
-      <c r="L75" s="93">
+      <c r="K75" s="8">
+        <v>100</v>
+      </c>
+      <c r="L75" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M75" s="100">
-        <v>100</v>
-      </c>
-      <c r="N75" s="93">
+      <c r="M75" s="8">
+        <v>100</v>
+      </c>
+      <c r="N75" s="13">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="O75" s="100">
-        <v>100</v>
-      </c>
-      <c r="P75" s="93">
+      <c r="O75" s="8">
+        <v>100</v>
+      </c>
+      <c r="P75" s="13">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q75" s="100">
-        <v>100</v>
-      </c>
-      <c r="R75" s="93">
+      <c r="Q75" s="8">
+        <v>100</v>
+      </c>
+      <c r="R75" s="13">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="76" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G76" s="63">
+      <c r="S75" s="8">
+        <v>100</v>
+      </c>
+      <c r="T75" s="13">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U75" s="8">
+        <v>100</v>
+      </c>
+      <c r="V75" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="46">
         <v>6</v>
       </c>
-      <c r="H76" s="64">
+      <c r="H76" s="47">
         <v>4</v>
       </c>
-      <c r="I76" s="100">
-        <v>100</v>
-      </c>
-      <c r="J76" s="93">
+      <c r="I76" s="8">
+        <v>100</v>
+      </c>
+      <c r="J76" s="13">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K76" s="100">
-        <v>100</v>
-      </c>
-      <c r="L76" s="93">
+      <c r="K76" s="8">
+        <v>100</v>
+      </c>
+      <c r="L76" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M76" s="100">
-        <v>100</v>
-      </c>
-      <c r="N76" s="93">
+      <c r="M76" s="8">
+        <v>100</v>
+      </c>
+      <c r="N76" s="13">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="O76" s="100">
-        <v>100</v>
-      </c>
-      <c r="P76" s="93">
+      <c r="O76" s="8">
+        <v>100</v>
+      </c>
+      <c r="P76" s="13">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q76" s="100">
-        <v>100</v>
-      </c>
-      <c r="R76" s="93">
+      <c r="Q76" s="8">
+        <v>100</v>
+      </c>
+      <c r="R76" s="13">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="77" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G77" s="63">
+      <c r="S76" s="8">
+        <v>100</v>
+      </c>
+      <c r="T76" s="13">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U76" s="8">
+        <v>100</v>
+      </c>
+      <c r="V76" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="46">
         <v>7</v>
       </c>
-      <c r="H77" s="64">
+      <c r="H77" s="47">
         <v>4</v>
       </c>
-      <c r="I77" s="100">
-        <v>100</v>
-      </c>
-      <c r="J77" s="93">
+      <c r="I77" s="8">
+        <v>100</v>
+      </c>
+      <c r="J77" s="13">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K77" s="100">
-        <v>100</v>
-      </c>
-      <c r="L77" s="93">
+      <c r="K77" s="8">
+        <v>100</v>
+      </c>
+      <c r="L77" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M77" s="100">
-        <v>100</v>
-      </c>
-      <c r="N77" s="93">
+      <c r="M77" s="8">
+        <v>100</v>
+      </c>
+      <c r="N77" s="13">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="O77" s="100">
-        <v>100</v>
-      </c>
-      <c r="P77" s="93">
+      <c r="O77" s="8">
+        <v>100</v>
+      </c>
+      <c r="P77" s="13">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q77" s="100">
-        <v>100</v>
-      </c>
-      <c r="R77" s="93">
+      <c r="Q77" s="8">
+        <v>100</v>
+      </c>
+      <c r="R77" s="13">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="78" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="63">
+      <c r="S77" s="8">
+        <v>100</v>
+      </c>
+      <c r="T77" s="13">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U77" s="8">
+        <v>100</v>
+      </c>
+      <c r="V77" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="46">
         <v>8</v>
       </c>
-      <c r="H78" s="64">
+      <c r="H78" s="47">
         <v>4</v>
       </c>
-      <c r="I78" s="100">
-        <v>100</v>
-      </c>
-      <c r="J78" s="93">
+      <c r="I78" s="8">
+        <v>100</v>
+      </c>
+      <c r="J78" s="13">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K78" s="100">
-        <v>100</v>
-      </c>
-      <c r="L78" s="93">
+      <c r="K78" s="8">
+        <v>100</v>
+      </c>
+      <c r="L78" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M78" s="112">
+      <c r="M78" s="9">
         <v>50</v>
       </c>
-      <c r="N78" s="93">
+      <c r="N78" s="13">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="O78" s="112">
+      <c r="O78" s="9">
         <v>80</v>
       </c>
-      <c r="P78" s="93">
+      <c r="P78" s="13">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="Q78" s="100">
-        <v>100</v>
-      </c>
-      <c r="R78" s="93">
+      <c r="Q78" s="8">
+        <v>100</v>
+      </c>
+      <c r="R78" s="13">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="79" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G79" s="63">
+      <c r="S78" s="116">
+        <v>100</v>
+      </c>
+      <c r="T78" s="13">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U78" s="116">
+        <v>100</v>
+      </c>
+      <c r="V78" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="46">
         <v>9</v>
       </c>
-      <c r="H79" s="64">
+      <c r="H79" s="47">
         <v>4</v>
       </c>
-      <c r="I79" s="100">
-        <v>100</v>
-      </c>
-      <c r="J79" s="93">
+      <c r="I79" s="8">
+        <v>100</v>
+      </c>
+      <c r="J79" s="13">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K79" s="100">
-        <v>100</v>
-      </c>
-      <c r="L79" s="93">
+      <c r="K79" s="8">
+        <v>100</v>
+      </c>
+      <c r="L79" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M79" s="100">
-        <v>100</v>
-      </c>
-      <c r="N79" s="93">
+      <c r="M79" s="8">
+        <v>100</v>
+      </c>
+      <c r="N79" s="13">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="O79" s="100">
-        <v>100</v>
-      </c>
-      <c r="P79" s="93">
+      <c r="O79" s="8">
+        <v>100</v>
+      </c>
+      <c r="P79" s="13">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q79" s="100">
-        <v>100</v>
-      </c>
-      <c r="R79" s="93">
+      <c r="Q79" s="8">
+        <v>100</v>
+      </c>
+      <c r="R79" s="13">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="80" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G80" s="63">
+      <c r="S79" s="8">
+        <v>100</v>
+      </c>
+      <c r="T79" s="13">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U79" s="8">
+        <v>100</v>
+      </c>
+      <c r="V79" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="46">
         <v>10</v>
       </c>
-      <c r="H80" s="64">
+      <c r="H80" s="47">
         <v>4</v>
       </c>
-      <c r="I80" s="100">
-        <v>100</v>
-      </c>
-      <c r="J80" s="93">
+      <c r="I80" s="8">
+        <v>100</v>
+      </c>
+      <c r="J80" s="13">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K80" s="100">
-        <v>100</v>
-      </c>
-      <c r="L80" s="93">
+      <c r="K80" s="8">
+        <v>100</v>
+      </c>
+      <c r="L80" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M80" s="100">
-        <v>100</v>
-      </c>
-      <c r="N80" s="93">
+      <c r="M80" s="8">
+        <v>100</v>
+      </c>
+      <c r="N80" s="13">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="O80" s="100">
-        <v>100</v>
-      </c>
-      <c r="P80" s="93">
+      <c r="O80" s="8">
+        <v>100</v>
+      </c>
+      <c r="P80" s="13">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q80" s="100">
-        <v>100</v>
-      </c>
-      <c r="R80" s="93">
+      <c r="Q80" s="8">
+        <v>100</v>
+      </c>
+      <c r="R80" s="13">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="81" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G81" s="63">
+      <c r="S80" s="8">
+        <v>100</v>
+      </c>
+      <c r="T80" s="13">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U80" s="8">
+        <v>100</v>
+      </c>
+      <c r="V80" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="46">
         <v>11</v>
       </c>
-      <c r="H81" s="64">
+      <c r="H81" s="47">
         <v>4</v>
       </c>
-      <c r="I81" s="100"/>
-      <c r="J81" s="93">
+      <c r="I81" s="8"/>
+      <c r="J81" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K81" s="100"/>
-      <c r="L81" s="93">
+      <c r="K81" s="8"/>
+      <c r="L81" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M81" s="100"/>
-      <c r="N81" s="93">
+      <c r="M81" s="8"/>
+      <c r="N81" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O81" s="100"/>
-      <c r="P81" s="93">
+      <c r="O81" s="8"/>
+      <c r="P81" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="100"/>
-      <c r="R81" s="93">
+      <c r="Q81" s="8"/>
+      <c r="R81" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G82" s="63">
+      <c r="S81" s="8"/>
+      <c r="T81" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="8"/>
+      <c r="V81" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="46">
         <v>12</v>
       </c>
-      <c r="H82" s="111">
+      <c r="H82" s="85">
         <v>5</v>
       </c>
-      <c r="I82" s="101">
-        <v>100</v>
-      </c>
-      <c r="J82" s="93">
+      <c r="I82" s="76">
+        <v>100</v>
+      </c>
+      <c r="J82" s="13">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="K82" s="101">
+      <c r="K82" s="76">
         <v>80</v>
       </c>
-      <c r="L82" s="93">
+      <c r="L82" s="13">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="M82" s="101">
+      <c r="M82" s="76">
         <v>80</v>
       </c>
-      <c r="N82" s="93">
+      <c r="N82" s="13">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="O82" s="101">
-        <v>100</v>
-      </c>
-      <c r="P82" s="93">
+      <c r="O82" s="76">
+        <v>100</v>
+      </c>
+      <c r="P82" s="13">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="Q82" s="101">
+      <c r="Q82" s="76">
         <v>50</v>
       </c>
-      <c r="R82" s="93">
+      <c r="R82" s="13">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="83" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G83" s="65">
+      <c r="S82" s="76">
+        <v>100</v>
+      </c>
+      <c r="T82" s="13">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="U82" s="76">
+        <v>100</v>
+      </c>
+      <c r="V82" s="13">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="48">
         <v>13</v>
       </c>
-      <c r="H83" s="66">
+      <c r="H83" s="49">
         <v>4</v>
       </c>
-      <c r="I83" s="102">
-        <v>100</v>
-      </c>
-      <c r="J83" s="95">
+      <c r="I83" s="12">
+        <v>100</v>
+      </c>
+      <c r="J83" s="21">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K83" s="102">
-        <v>100</v>
-      </c>
-      <c r="L83" s="95">
+      <c r="K83" s="12">
+        <v>100</v>
+      </c>
+      <c r="L83" s="21">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M83" s="102">
-        <v>100</v>
-      </c>
-      <c r="N83" s="95">
+      <c r="M83" s="12">
+        <v>100</v>
+      </c>
+      <c r="N83" s="21">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="O83" s="102">
-        <v>100</v>
-      </c>
-      <c r="P83" s="95">
+      <c r="O83" s="12">
+        <v>100</v>
+      </c>
+      <c r="P83" s="21">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q83" s="102">
-        <v>100</v>
-      </c>
-      <c r="R83" s="95">
+      <c r="Q83" s="12">
+        <v>100</v>
+      </c>
+      <c r="R83" s="21">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G84" s="68">
+      <c r="S83" s="12">
+        <v>100</v>
+      </c>
+      <c r="T83" s="21">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U83" s="12">
+        <v>100</v>
+      </c>
+      <c r="V83" s="21">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="51">
         <v>14</v>
       </c>
-      <c r="H84" s="110">
+      <c r="H84" s="84">
         <v>4</v>
       </c>
-      <c r="I84" s="100">
+      <c r="I84" s="8">
         <v>20</v>
       </c>
-      <c r="J84" s="93">
+      <c r="J84" s="13">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K84" s="100">
+      <c r="K84" s="8">
         <v>0</v>
       </c>
-      <c r="L84" s="93">
+      <c r="L84" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M84" s="100">
+      <c r="M84" s="8">
         <v>0</v>
       </c>
-      <c r="N84" s="93">
+      <c r="N84" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O84" s="100">
-        <v>100</v>
-      </c>
-      <c r="P84" s="93">
+      <c r="O84" s="8">
+        <v>100</v>
+      </c>
+      <c r="P84" s="13">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="Q84" s="100">
+      <c r="Q84" s="8">
         <v>0</v>
       </c>
-      <c r="R84" s="93">
+      <c r="R84" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G85" s="72">
+      <c r="S84" s="8">
+        <v>100</v>
+      </c>
+      <c r="T84" s="13">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="U84" s="8">
+        <v>100</v>
+      </c>
+      <c r="V84" s="13">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="55">
         <v>15</v>
       </c>
-      <c r="H85" s="73">
+      <c r="H85" s="56">
         <v>3</v>
       </c>
-      <c r="I85" s="100">
-        <v>100</v>
-      </c>
-      <c r="J85" s="93">
+      <c r="I85" s="8">
+        <v>100</v>
+      </c>
+      <c r="J85" s="13">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="K85" s="100">
-        <v>100</v>
-      </c>
-      <c r="L85" s="93">
+      <c r="K85" s="8">
+        <v>100</v>
+      </c>
+      <c r="L85" s="13">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="M85" s="100">
-        <v>100</v>
-      </c>
-      <c r="N85" s="93">
+      <c r="M85" s="8">
+        <v>100</v>
+      </c>
+      <c r="N85" s="13">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="O85" s="100">
+      <c r="O85" s="8">
         <v>0</v>
       </c>
-      <c r="P85" s="93">
+      <c r="P85" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q85" s="100">
-        <v>100</v>
-      </c>
-      <c r="R85" s="93">
+      <c r="Q85" s="8">
+        <v>100</v>
+      </c>
+      <c r="R85" s="13">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="86" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G86" s="74">
+      <c r="S85" s="8">
+        <v>100</v>
+      </c>
+      <c r="T85" s="13">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="U85" s="8">
+        <v>100</v>
+      </c>
+      <c r="V85" s="13">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="57">
         <v>16</v>
       </c>
-      <c r="H86" s="75">
+      <c r="H86" s="58">
         <v>2</v>
       </c>
-      <c r="I86" s="99">
-        <v>100</v>
-      </c>
-      <c r="J86" s="94">
+      <c r="I86" s="75">
+        <v>100</v>
+      </c>
+      <c r="J86" s="23">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="K86" s="99">
-        <v>100</v>
-      </c>
-      <c r="L86" s="94">
+      <c r="K86" s="75">
+        <v>100</v>
+      </c>
+      <c r="L86" s="23">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="M86" s="99">
-        <v>100</v>
-      </c>
-      <c r="N86" s="94">
+      <c r="M86" s="75">
+        <v>100</v>
+      </c>
+      <c r="N86" s="23">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="O86" s="99">
+      <c r="O86" s="75">
         <v>0</v>
       </c>
-      <c r="P86" s="94">
+      <c r="P86" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="99">
-        <v>100</v>
-      </c>
-      <c r="R86" s="94">
+      <c r="Q86" s="75">
+        <v>100</v>
+      </c>
+      <c r="R86" s="23">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="87" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G87" s="77">
+      <c r="S86" s="75">
+        <v>100</v>
+      </c>
+      <c r="T86" s="23">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="U86" s="75">
+        <v>100</v>
+      </c>
+      <c r="V86" s="23">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="60">
         <v>17</v>
       </c>
-      <c r="H87" s="78">
+      <c r="H87" s="61">
         <v>2</v>
       </c>
-      <c r="I87" s="100">
-        <v>100</v>
-      </c>
-      <c r="J87" s="93">
+      <c r="I87" s="8">
+        <v>100</v>
+      </c>
+      <c r="J87" s="13">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="K87" s="100">
-        <v>100</v>
-      </c>
-      <c r="L87" s="93">
+      <c r="K87" s="8">
+        <v>100</v>
+      </c>
+      <c r="L87" s="13">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="M87" s="100">
-        <v>100</v>
-      </c>
-      <c r="N87" s="93">
+      <c r="M87" s="8">
+        <v>100</v>
+      </c>
+      <c r="N87" s="13">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="O87" s="100">
-        <v>80</v>
-      </c>
-      <c r="P87" s="93">
+      <c r="O87" s="8">
+        <v>100</v>
+      </c>
+      <c r="P87" s="13">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="Q87" s="100">
-        <v>100</v>
-      </c>
-      <c r="R87" s="93">
+        <v>200</v>
+      </c>
+      <c r="Q87" s="8">
+        <v>100</v>
+      </c>
+      <c r="R87" s="13">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="88" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G88" s="77">
+      <c r="S87" s="8">
+        <v>100</v>
+      </c>
+      <c r="T87" s="13">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="U87" s="8">
+        <v>100</v>
+      </c>
+      <c r="V87" s="13">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="60">
         <v>18</v>
       </c>
-      <c r="H88" s="78">
+      <c r="H88" s="61">
         <v>2</v>
       </c>
-      <c r="I88" s="100">
-        <v>100</v>
-      </c>
-      <c r="J88" s="93">
+      <c r="I88" s="8">
+        <v>100</v>
+      </c>
+      <c r="J88" s="13">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="K88" s="100">
-        <v>100</v>
-      </c>
-      <c r="L88" s="93">
+      <c r="K88" s="8">
+        <v>100</v>
+      </c>
+      <c r="L88" s="13">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="M88" s="100">
+      <c r="M88" s="8">
         <v>0</v>
       </c>
-      <c r="N88" s="93">
+      <c r="N88" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O88" s="100">
+      <c r="O88" s="8">
         <v>0</v>
       </c>
-      <c r="P88" s="93">
+      <c r="P88" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="100">
-        <v>100</v>
-      </c>
-      <c r="R88" s="93">
+      <c r="Q88" s="8">
+        <v>100</v>
+      </c>
+      <c r="R88" s="13">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="89" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G89" s="79">
+      <c r="S88" s="8">
+        <v>0</v>
+      </c>
+      <c r="T88" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="8">
+        <v>100</v>
+      </c>
+      <c r="V88" s="13">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="62">
         <v>19</v>
       </c>
-      <c r="H89" s="80">
+      <c r="H89" s="63">
         <v>2</v>
       </c>
-      <c r="I89" s="102">
+      <c r="I89" s="12">
         <v>50</v>
       </c>
-      <c r="J89" s="95">
+      <c r="J89" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K89" s="102">
-        <v>100</v>
-      </c>
-      <c r="L89" s="95">
+      <c r="K89" s="12">
+        <v>100</v>
+      </c>
+      <c r="L89" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="M89" s="102">
+      <c r="M89" s="12">
         <v>75</v>
       </c>
-      <c r="N89" s="95">
+      <c r="N89" s="21">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="O89" s="102">
+      <c r="O89" s="12">
         <v>20</v>
       </c>
-      <c r="P89" s="95">
+      <c r="P89" s="21">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Q89" s="102">
-        <v>100</v>
-      </c>
-      <c r="R89" s="95">
+      <c r="Q89" s="12">
+        <v>100</v>
+      </c>
+      <c r="R89" s="21">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G90" s="83">
+      <c r="S89" s="12">
+        <v>50</v>
+      </c>
+      <c r="T89" s="21">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="U89" s="12">
+        <v>100</v>
+      </c>
+      <c r="V89" s="21">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="66">
         <v>20</v>
       </c>
-      <c r="H90" s="84">
+      <c r="H90" s="67">
         <v>1</v>
       </c>
-      <c r="I90" s="100">
-        <v>100</v>
-      </c>
-      <c r="J90" s="93">
+      <c r="I90" s="8">
+        <v>100</v>
+      </c>
+      <c r="J90" s="13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K90" s="100">
-        <v>100</v>
-      </c>
-      <c r="L90" s="93">
+      <c r="K90" s="8">
+        <v>100</v>
+      </c>
+      <c r="L90" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="M90" s="100">
-        <v>100</v>
-      </c>
-      <c r="N90" s="93">
+      <c r="M90" s="8">
+        <v>100</v>
+      </c>
+      <c r="N90" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="O90" s="100">
+      <c r="O90" s="8">
         <v>0</v>
       </c>
-      <c r="P90" s="93">
+      <c r="P90" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="100">
-        <v>100</v>
-      </c>
-      <c r="R90" s="93">
+      <c r="Q90" s="8">
+        <v>100</v>
+      </c>
+      <c r="R90" s="13">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G91" s="85">
+      <c r="S90" s="8">
+        <v>100</v>
+      </c>
+      <c r="T90" s="13">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="U90" s="8">
+        <v>100</v>
+      </c>
+      <c r="V90" s="13">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="68">
         <v>21</v>
       </c>
-      <c r="H91" s="86">
+      <c r="H91" s="69">
         <v>1</v>
       </c>
-      <c r="I91" s="100"/>
-      <c r="J91" s="93">
+      <c r="I91" s="8"/>
+      <c r="J91" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K91" s="100"/>
-      <c r="L91" s="93">
+      <c r="K91" s="8"/>
+      <c r="L91" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M91" s="100"/>
-      <c r="N91" s="93">
+      <c r="M91" s="8"/>
+      <c r="N91" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O91" s="100"/>
-      <c r="P91" s="93">
+      <c r="O91" s="8"/>
+      <c r="P91" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q91" s="100"/>
-      <c r="R91" s="93">
+      <c r="Q91" s="8"/>
+      <c r="R91" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="7:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G92" s="87">
+      <c r="S91" s="8"/>
+      <c r="T91" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="8"/>
+      <c r="V91" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="70">
         <v>22</v>
       </c>
-      <c r="H92" s="88">
+      <c r="H92" s="71">
         <v>1</v>
       </c>
-      <c r="I92" s="102">
+      <c r="I92" s="12">
         <v>0</v>
       </c>
-      <c r="J92" s="95">
+      <c r="J92" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K92" s="102">
-        <v>100</v>
-      </c>
-      <c r="L92" s="95">
+      <c r="K92" s="12">
+        <v>100</v>
+      </c>
+      <c r="L92" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M92" s="102">
+      <c r="M92" s="12">
         <v>0</v>
       </c>
-      <c r="N92" s="95">
+      <c r="N92" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O92" s="102">
-        <v>100</v>
-      </c>
-      <c r="P92" s="95">
+      <c r="O92" s="12">
+        <v>100</v>
+      </c>
+      <c r="P92" s="21">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="Q92" s="102">
-        <v>100</v>
-      </c>
-      <c r="R92" s="95">
+      <c r="Q92" s="12">
+        <v>100</v>
+      </c>
+      <c r="R92" s="21">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="7:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G93" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="H93" s="98"/>
+      <c r="S92" s="12">
+        <v>0</v>
+      </c>
+      <c r="T92" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U92" s="12">
+        <v>0</v>
+      </c>
+      <c r="V92" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="H93" s="105"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="31">
+      <c r="J93" s="21">
         <f>SUM(J71:J92)</f>
         <v>6080</v>
       </c>
-      <c r="K93" s="39"/>
-      <c r="L93" s="31">
+      <c r="K93" s="25"/>
+      <c r="L93" s="21">
         <f>SUM(L71:L92)</f>
         <v>5720</v>
       </c>
-      <c r="M93" s="39"/>
-      <c r="N93" s="31">
+      <c r="M93" s="25"/>
+      <c r="N93" s="21">
         <f>SUM(N71:N92)</f>
         <v>5550</v>
       </c>
-      <c r="O93" s="39"/>
-      <c r="P93" s="31">
+      <c r="O93" s="25"/>
+      <c r="P93" s="21">
         <f>SUM(P71:P92)</f>
-        <v>5520</v>
-      </c>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="31">
+        <v>5560</v>
+      </c>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="21">
         <f>SUM(R71:R92)</f>
         <v>5950</v>
       </c>
-    </row>
-    <row r="94" spans="7:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G94" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="H94" s="98"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="118">
+      <c r="S93" s="25"/>
+      <c r="T93" s="21">
+        <f>SUM(T71:T92)</f>
+        <v>6200</v>
+      </c>
+      <c r="U93" s="25"/>
+      <c r="V93" s="21">
+        <f>SUM(V71:V92)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="94" spans="7:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G94" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="H94" s="105"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="90">
+        <v>3</v>
+      </c>
+      <c r="K94" s="25"/>
+      <c r="L94" s="118">
+        <v>5</v>
+      </c>
+      <c r="M94" s="25"/>
+      <c r="N94" s="91">
+        <v>7</v>
+      </c>
+      <c r="O94" s="25"/>
+      <c r="P94" s="91">
+        <v>6</v>
+      </c>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="118">
+        <v>4</v>
+      </c>
+      <c r="S94" s="25"/>
+      <c r="T94" s="117">
+        <v>2</v>
+      </c>
+      <c r="U94" s="25"/>
+      <c r="V94" s="117">
         <v>1</v>
       </c>
-      <c r="K94" s="39"/>
-      <c r="L94" s="117">
-        <v>3</v>
-      </c>
-      <c r="M94" s="39"/>
-      <c r="N94" s="117">
-        <v>4</v>
-      </c>
-      <c r="O94" s="39"/>
-      <c r="P94" s="119">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="117">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="U1:V2"/>
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="G93:H93"/>
     <mergeCell ref="G94:H94"/>
@@ -6118,15 +7155,15 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6139,38 +7176,38 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6189,7 +7226,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -6302,23 +7339,23 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/05_Kostenanalysen/00_Kosten.xlsx
+++ b/05_Kostenanalysen/00_Kosten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\05_Kostenanalysen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\05_Kostenanalysen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC14A52-E8BC-46F3-93A1-E11F8D3FD49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75945401-A6BF-4574-ABF4-8D44D4D7A761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" activeTab="1" xr2:uid="{6E908FF6-7093-4655-B2FC-F824AB1F546C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{6E908FF6-7093-4655-B2FC-F824AB1F546C}"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenanalys_Features" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="191">
   <si>
     <t>Encoder Stecker</t>
   </si>
@@ -602,6 +602,15 @@
   </si>
   <si>
     <t>24 begrenz durch IOe2</t>
+  </si>
+  <si>
+    <t>Konzept 8</t>
+  </si>
+  <si>
+    <t>zu teuer!</t>
+  </si>
+  <si>
+    <t>Kostentechnisch knapp</t>
   </si>
 </sst>
 </file>
@@ -743,12 +752,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -756,6 +759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1222,36 +1231,57 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,62 +1297,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1608,7 +1616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1789,7 +1799,7 @@
       <c r="L3" s="11">
         <v>0.2</v>
       </c>
-      <c r="M3" s="110">
+      <c r="M3" s="91">
         <v>2</v>
       </c>
       <c r="N3" s="1">
@@ -1846,7 +1856,7 @@
       <c r="L4" s="11">
         <v>0.03</v>
       </c>
-      <c r="M4" s="109">
+      <c r="M4" s="90">
         <v>1</v>
       </c>
       <c r="N4" s="1">
@@ -1919,14 +1929,14 @@
         <f>I6+N3+X3+X4+B6</f>
         <v>6.2922564916666666</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="89">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>169</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="106">
+      <c r="E6" s="89">
         <f>1*(N4+N5+X5)</f>
         <v>4.1899999999999995</v>
       </c>
@@ -2104,12 +2114,9 @@
     </row>
     <row r="10" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="I10" s="5">
         <f>SUM(I7:I9)</f>
         <v>2.0512564916666669</v>
@@ -2219,10 +2226,9 @@
     </row>
     <row r="14" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="I14" s="5">
         <f>SUM(I11:I13)</f>
         <v>1.2187338666666667</v>
@@ -2280,11 +2286,11 @@
         <v>3.25935</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="1">
         <f>M15*(L15+K15)</f>
-        <v>3.29935</v>
+        <v>6.5987</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>44</v>
@@ -2318,7 +2324,7 @@
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <f>I18+N18+S18+X18</f>
-        <v>12.06671</v>
+        <v>15.366060000000001</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>35</v>
@@ -2373,7 +2379,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5">
         <f>SUM(N15:N17)</f>
-        <v>4.0103499999999999</v>
+        <v>7.3097000000000003</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="5"/>
@@ -2767,17 +2773,17 @@
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31" s="1">
         <f>W31*(V31+U31)</f>
-        <v>0.28068000000000004</v>
+        <v>0.56136000000000008</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <f>I34+N34+S34+X31</f>
-        <v>3.7481799999999996</v>
+        <v>4.0288599999999999</v>
       </c>
       <c r="J32" s="3"/>
       <c r="O32" s="3" t="s">
@@ -2830,7 +2836,7 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5">
         <f>SUM(X31:X33)</f>
-        <v>0.28068000000000004</v>
+        <v>0.56136000000000008</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -3784,10 +3790,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3798,96 +3804,107 @@
     <col min="8" max="16384" width="20.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="99" t="s">
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="99" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="100"/>
-      <c r="M1" s="99" t="s">
+      <c r="L1" s="107"/>
+      <c r="M1" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="99" t="s">
+      <c r="N1" s="107"/>
+      <c r="O1" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="99" t="s">
+      <c r="P1" s="107"/>
+      <c r="Q1" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="100"/>
-      <c r="S1" s="99" t="s">
+      <c r="R1" s="107"/>
+      <c r="S1" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="99" t="s">
+      <c r="T1" s="107"/>
+      <c r="U1" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="V1" s="100"/>
-    </row>
-    <row r="2" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="96"/>
-    </row>
-    <row r="3" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="107"/>
+      <c r="W1" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="X1" s="107"/>
+    </row>
+    <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="112"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="103"/>
+    </row>
+    <row r="3" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="27" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="23">
         <f>H4</f>
-        <v>12.06671</v>
+        <v>15.366060000000001</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="23">
         <f>J3</f>
-        <v>12.06671</v>
+        <v>15.366060000000001</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="23">
         <f>L3</f>
-        <v>12.06671</v>
+        <v>15.366060000000001</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="23">
         <f>N3</f>
-        <v>12.06671</v>
+        <v>15.366060000000001</v>
       </c>
       <c r="Q3" s="22"/>
       <c r="R3" s="23">
         <f>P3</f>
-        <v>12.06671</v>
+        <v>15.366060000000001</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="23">
         <f>R3</f>
-        <v>12.06671</v>
+        <v>15.366060000000001</v>
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="23">
         <f>T3</f>
-        <v>12.06671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15.366060000000001</v>
+      </c>
+      <c r="W3" s="22"/>
+      <c r="X3" s="23">
+        <f>V3</f>
+        <v>15.366060000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="6">
         <f>Kostenanalys_Features!A16</f>
-        <v>12.06671</v>
+        <v>15.366060000000001</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="13"/>
@@ -3903,12 +3920,14 @@
       <c r="T4" s="13"/>
       <c r="U4" s="3"/>
       <c r="V4" s="13"/>
-    </row>
-    <row r="5" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96">
+      <c r="W4" s="3"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="5" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="103">
         <v>1</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="104" t="s">
         <v>121</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -3922,52 +3941,60 @@
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="I5" s="112" t="s">
+      <c r="I5" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="113">
+      <c r="J5" s="93">
         <v>3.26</v>
       </c>
-      <c r="K5" s="112" t="s">
+      <c r="K5" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="113">
+      <c r="L5" s="93">
         <v>7.4867999999999997</v>
       </c>
-      <c r="M5" s="112" t="s">
+      <c r="M5" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="113">
+      <c r="N5" s="93">
         <v>3.44</v>
       </c>
-      <c r="O5" s="112" t="s">
+      <c r="O5" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="P5" s="113">
+      <c r="P5" s="93">
         <v>1.26</v>
       </c>
-      <c r="Q5" s="112" t="s">
+      <c r="Q5" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="R5" s="113">
+      <c r="R5" s="93">
         <v>3.4</v>
       </c>
-      <c r="S5" s="112" t="s">
+      <c r="S5" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="T5" s="113">
+      <c r="T5" s="93">
         <v>1.9</v>
       </c>
-      <c r="U5" s="112" t="s">
+      <c r="U5" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="113">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98"/>
+      <c r="V5" s="93">
+        <f>Kostenanalys_Features!A32</f>
+        <v>4.0288599999999999</v>
+      </c>
+      <c r="W5" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="X5" s="93">
+        <f>Kostenanalys_Features!A32</f>
+        <v>4.0288599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="103"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
@@ -3989,16 +4016,18 @@
         <v>185</v>
       </c>
       <c r="T6" s="13"/>
-      <c r="U6" s="115" t="s">
+      <c r="U6" s="95" t="s">
         <v>182</v>
       </c>
       <c r="V6" s="13"/>
-    </row>
-    <row r="7" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96">
+      <c r="W6" s="95"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="103">
         <v>2</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="101" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="77" t="s">
@@ -4036,14 +4065,16 @@
         <v>118</v>
       </c>
       <c r="T7" s="13"/>
-      <c r="U7" s="120" t="s">
+      <c r="U7" s="96" t="s">
         <v>118</v>
       </c>
       <c r="V7" s="13"/>
-    </row>
-    <row r="8" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96"/>
-      <c r="B8" s="94"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="103"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
@@ -4065,12 +4096,14 @@
         <v>187</v>
       </c>
       <c r="V8" s="13"/>
-    </row>
-    <row r="9" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96">
+      <c r="W8" s="3"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103">
         <v>3</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="104" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="77" t="s">
@@ -4110,10 +4143,14 @@
         <v>181</v>
       </c>
       <c r="V9" s="13"/>
-    </row>
-    <row r="10" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96"/>
-      <c r="B10" s="98"/>
+      <c r="W9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="103"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
@@ -4131,16 +4168,20 @@
       <c r="R10" s="21"/>
       <c r="S10" s="6"/>
       <c r="T10" s="21"/>
-      <c r="U10" s="114" t="s">
+      <c r="U10" s="94" t="s">
         <v>183</v>
       </c>
       <c r="V10" s="21"/>
-    </row>
-    <row r="11" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96">
+      <c r="W10" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="X10" s="21"/>
+    </row>
+    <row r="11" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="103">
         <v>4</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="101" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="77" t="s">
@@ -4183,10 +4224,14 @@
         <v>92</v>
       </c>
       <c r="V11" s="13"/>
-    </row>
-    <row r="12" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
-      <c r="B12" s="94"/>
+      <c r="W11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="103"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="78">
         <v>0</v>
       </c>
@@ -4211,12 +4256,14 @@
       <c r="T12" s="81"/>
       <c r="U12" s="80"/>
       <c r="V12" s="81"/>
-    </row>
-    <row r="13" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96">
+      <c r="W12" s="80"/>
+      <c r="X12" s="81"/>
+    </row>
+    <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="103">
         <v>5</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="101" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="77">
@@ -4258,10 +4305,14 @@
         <v>1</v>
       </c>
       <c r="V13" s="13"/>
-    </row>
-    <row r="14" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="96"/>
-      <c r="B14" s="94"/>
+      <c r="W13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="103"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
@@ -4281,12 +4332,14 @@
       <c r="T14" s="81"/>
       <c r="U14" s="80"/>
       <c r="V14" s="81"/>
-    </row>
-    <row r="15" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="96">
+      <c r="W14" s="80"/>
+      <c r="X14" s="81"/>
+    </row>
+    <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="103">
         <v>6</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="101" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="77" t="s">
@@ -4330,10 +4383,14 @@
         <v>148</v>
       </c>
       <c r="V15" s="13"/>
-    </row>
-    <row r="16" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
-      <c r="B16" s="94"/>
+      <c r="W15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" s="13"/>
+    </row>
+    <row r="16" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="103"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
       <c r="E16" s="78"/>
@@ -4353,12 +4410,14 @@
       <c r="T16" s="81"/>
       <c r="U16" s="80"/>
       <c r="V16" s="81"/>
-    </row>
-    <row r="17" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96">
+      <c r="W16" s="80"/>
+      <c r="X16" s="81"/>
+    </row>
+    <row r="17" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="103">
         <v>7</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="101" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="77" t="s">
@@ -4398,10 +4457,14 @@
         <v>99</v>
       </c>
       <c r="V17" s="13"/>
-    </row>
-    <row r="18" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="94"/>
+      <c r="W17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X17" s="13"/>
+    </row>
+    <row r="18" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="103"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
       <c r="E18" s="78"/>
@@ -4421,12 +4484,14 @@
       <c r="T18" s="81"/>
       <c r="U18" s="80"/>
       <c r="V18" s="81"/>
-    </row>
-    <row r="19" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96">
+      <c r="W18" s="80"/>
+      <c r="X18" s="81"/>
+    </row>
+    <row r="19" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="103">
         <v>8</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="101" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="77" t="s">
@@ -4468,10 +4533,14 @@
         <v>97</v>
       </c>
       <c r="V19" s="13"/>
-    </row>
-    <row r="20" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="94"/>
+      <c r="W19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X19" s="13"/>
+    </row>
+    <row r="20" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="103"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
       <c r="E20" s="78"/>
@@ -4491,12 +4560,14 @@
       <c r="T20" s="81"/>
       <c r="U20" s="80"/>
       <c r="V20" s="81"/>
-    </row>
-    <row r="21" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96">
+      <c r="W20" s="80"/>
+      <c r="X20" s="81"/>
+    </row>
+    <row r="21" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="103">
         <v>9</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="101" t="s">
         <v>106</v>
       </c>
       <c r="C21" s="77" t="s">
@@ -4531,17 +4602,11 @@
       <c r="O21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="13">
-        <f>G22</f>
-        <v>0</v>
-      </c>
+      <c r="P21" s="13"/>
       <c r="Q21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R21" s="13">
-        <f>I22</f>
-        <v>0</v>
-      </c>
+      <c r="R21" s="13"/>
       <c r="S21" s="3" t="s">
         <v>125</v>
       </c>
@@ -4550,10 +4615,14 @@
         <v>125</v>
       </c>
       <c r="V21" s="13"/>
-    </row>
-    <row r="22" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
-      <c r="B22" s="94"/>
+      <c r="W21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X21" s="13"/>
+    </row>
+    <row r="22" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="103"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="78">
         <f>2*Kostenanalys_Features!A24</f>
         <v>2.4323338666666667</v>
@@ -4581,12 +4650,14 @@
       <c r="T22" s="81"/>
       <c r="U22" s="80"/>
       <c r="V22" s="81"/>
-    </row>
-    <row r="23" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96">
+      <c r="W22" s="80"/>
+      <c r="X22" s="81"/>
+    </row>
+    <row r="23" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="103">
         <v>10</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="101" t="s">
         <v>105</v>
       </c>
       <c r="C23" s="77" t="s">
@@ -4615,8 +4686,7 @@
         <v>104</v>
       </c>
       <c r="L23" s="13">
-        <f>C24</f>
-        <v>2.65205</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>1</v>
@@ -4642,20 +4712,25 @@
         <v>179</v>
       </c>
       <c r="T23" s="13">
-        <f>C24</f>
-        <v>2.65205</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>179</v>
       </c>
       <c r="V23" s="13">
-        <f>C24</f>
-        <v>2.65205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="96"/>
-      <c r="B24" s="94"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="X23" s="13">
+        <f>E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="103"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="78">
         <f>Kostenanalys_Features!A20</f>
         <v>2.65205</v>
@@ -4682,12 +4757,14 @@
       <c r="T24" s="81"/>
       <c r="U24" s="80"/>
       <c r="V24" s="81"/>
-    </row>
-    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="96">
+      <c r="W24" s="80"/>
+      <c r="X24" s="81"/>
+    </row>
+    <row r="25" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="103">
         <v>11</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="101" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="77" t="s">
@@ -4729,10 +4806,14 @@
         <v>102</v>
       </c>
       <c r="V25" s="13"/>
-    </row>
-    <row r="26" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="96"/>
-      <c r="B26" s="94"/>
+      <c r="W25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X25" s="13"/>
+    </row>
+    <row r="26" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="103"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
       <c r="E26" s="78"/>
@@ -4752,12 +4833,14 @@
       <c r="T26" s="81"/>
       <c r="U26" s="80"/>
       <c r="V26" s="81"/>
-    </row>
-    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96">
+      <c r="W26" s="80"/>
+      <c r="X26" s="81"/>
+    </row>
+    <row r="27" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="103">
         <v>12</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="101" t="s">
         <v>96</v>
       </c>
       <c r="C27" s="77" t="s">
@@ -4818,10 +4901,17 @@
         <f>D28</f>
         <v>2.66</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96"/>
-      <c r="B28" s="94"/>
+      <c r="W27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X27" s="13">
+        <f>D28</f>
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="103"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="78">
         <f>Kostenanalys_Features!A4</f>
         <v>8.48</v>
@@ -4847,12 +4937,14 @@
       <c r="T28" s="81"/>
       <c r="U28" s="80"/>
       <c r="V28" s="81"/>
-    </row>
-    <row r="29" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="96">
+      <c r="W28" s="80"/>
+      <c r="X28" s="81"/>
+    </row>
+    <row r="29" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="103">
         <v>13</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="101" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="77" t="s">
@@ -4911,10 +5003,16 @@
       <c r="V29" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="96"/>
-      <c r="B30" s="94"/>
+      <c r="W29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="103"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="78">
         <v>0</v>
       </c>
@@ -4939,8 +5037,10 @@
       <c r="T30" s="81"/>
       <c r="U30" s="80"/>
       <c r="V30" s="81"/>
-    </row>
-    <row r="31" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="80"/>
+      <c r="X30" s="81"/>
+    </row>
+    <row r="31" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="82"/>
       <c r="I31" s="3"/>
       <c r="J31" s="13"/>
@@ -4962,8 +5062,10 @@
       <c r="T31" s="13"/>
       <c r="U31" s="3"/>
       <c r="V31" s="13"/>
-    </row>
-    <row r="32" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="3"/>
+      <c r="X31" s="13"/>
+    </row>
+    <row r="32" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="H32" s="12"/>
@@ -4987,6 +5089,8 @@
       <c r="T32" s="21"/>
       <c r="U32" s="6"/>
       <c r="V32" s="21"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -5026,6 +5130,11 @@
       </c>
       <c r="U33" s="3"/>
       <c r="V33" s="13">
+        <f>H34</f>
+        <v>3</v>
+      </c>
+      <c r="W33" s="3"/>
+      <c r="X33" s="13">
         <f>H34</f>
         <v>3</v>
       </c>
@@ -5050,6 +5159,8 @@
       <c r="T34" s="21"/>
       <c r="U34" s="6"/>
       <c r="V34" s="21"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
@@ -5089,6 +5200,11 @@
       </c>
       <c r="U35" s="22"/>
       <c r="V35" s="23">
+        <f>H36</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="22"/>
+      <c r="X35" s="23">
         <f>H36</f>
         <v>1</v>
       </c>
@@ -5113,6 +5229,8 @@
       <c r="T36" s="21"/>
       <c r="U36" s="6"/>
       <c r="V36" s="21"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
@@ -5123,37 +5241,42 @@
       <c r="I37" s="25"/>
       <c r="J37" s="26">
         <f>SUM(J3:J36)</f>
-        <v>32.891093866666665</v>
+        <v>36.190443866666669</v>
       </c>
       <c r="K37" s="25"/>
       <c r="L37" s="26">
         <f>SUM(L3:L36)</f>
-        <v>34.685559999999995</v>
+        <v>35.332859999999997</v>
       </c>
       <c r="M37" s="25"/>
       <c r="N37" s="26">
         <f>SUM(N3:N36)</f>
-        <v>34.657703866666665</v>
+        <v>37.957053866666669</v>
       </c>
       <c r="O37" s="25"/>
       <c r="P37" s="26">
         <f>SUM(P3:P36)</f>
-        <v>19.986710000000002</v>
+        <v>23.286060000000003</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="26">
         <f>SUM(R3:R36)</f>
-        <v>36.082599999999999</v>
+        <v>39.381950000000003</v>
       </c>
       <c r="S37" s="25"/>
       <c r="T37" s="26">
         <f>SUM(T3:T36)</f>
-        <v>23.278760000000002</v>
+        <v>23.92606</v>
       </c>
       <c r="U37" s="25"/>
       <c r="V37" s="26">
         <f>SUM(V3:V36)</f>
-        <v>25.048760000000001</v>
+        <v>26.054919999999999</v>
+      </c>
+      <c r="W37" s="25"/>
+      <c r="X37" s="26">
+        <f>SUM(X3:X36)</f>
+        <v>26.054919999999999</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,6 +5299,8 @@
       <c r="T38" s="23"/>
       <c r="U38" s="22"/>
       <c r="V38" s="23"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="23"/>
     </row>
     <row r="39" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
@@ -5186,37 +5311,42 @@
       <c r="I39" s="6"/>
       <c r="J39" s="24">
         <f>J37*H39</f>
-        <v>39.469312639999998</v>
+        <v>43.42853264</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="24">
         <f>L37*H39</f>
-        <v>41.622671999999994</v>
+        <v>42.399431999999997</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="24">
+      <c r="N39" s="37">
         <f>N37*H39</f>
-        <v>41.589244639999997</v>
+        <v>45.548464639999999</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="83">
         <f>P37*H39</f>
-        <v>23.984052000000002</v>
+        <v>27.943272000000004</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="37">
         <f>R37*H39</f>
-        <v>43.299119999999995</v>
+        <v>47.258340000000004</v>
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="83">
         <f>H39*T37</f>
-        <v>27.934512000000002</v>
+        <v>28.711271999999997</v>
       </c>
       <c r="U39" s="6"/>
       <c r="V39" s="83">
         <f>H39*V37</f>
-        <v>30.058512</v>
+        <v>31.265903999999999</v>
+      </c>
+      <c r="W39" s="6"/>
+      <c r="X39" s="83">
+        <f>H39*X37</f>
+        <v>31.265903999999999</v>
       </c>
       <c r="AA39" s="1" t="s">
         <v>117</v>
@@ -5230,7 +5360,7 @@
       <c r="B40"/>
       <c r="I40" s="22"/>
       <c r="J40" s="23"/>
-      <c r="Y40" s="92" t="s">
+      <c r="Y40" s="88" t="s">
         <v>163</v>
       </c>
       <c r="AA40" s="1">
@@ -5256,10 +5386,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="95" t="s">
+      <c r="G42" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="H42" s="95"/>
+      <c r="H42" s="114"/>
       <c r="I42" s="3"/>
       <c r="J42" s="13"/>
       <c r="Y42" s="1" t="s">
@@ -5293,6 +5423,8 @@
       <c r="T43" s="31"/>
       <c r="U43" s="30"/>
       <c r="V43" s="31"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="31"/>
     </row>
     <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44" s="46" t="s">
@@ -5315,6 +5447,8 @@
       <c r="T44" s="33"/>
       <c r="U44" s="32"/>
       <c r="V44" s="33"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="33"/>
     </row>
     <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45" s="46" t="s">
@@ -5337,6 +5471,8 @@
       <c r="T45" s="33"/>
       <c r="U45" s="32"/>
       <c r="V45" s="33"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="33"/>
     </row>
     <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G46" s="46" t="s">
@@ -5359,6 +5495,8 @@
       <c r="T46" s="33"/>
       <c r="U46" s="32"/>
       <c r="V46" s="33"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="33"/>
     </row>
     <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="46" t="s">
@@ -5381,6 +5519,8 @@
       <c r="T47" s="33"/>
       <c r="U47" s="32"/>
       <c r="V47" s="33"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="33"/>
     </row>
     <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G48" s="46" t="s">
@@ -5403,8 +5543,10 @@
       <c r="T48" s="33"/>
       <c r="U48" s="32"/>
       <c r="V48" s="33"/>
-    </row>
-    <row r="49" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W48" s="32"/>
+      <c r="X48" s="33"/>
+    </row>
+    <row r="49" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G49" s="46" t="s">
         <v>79</v>
       </c>
@@ -5425,8 +5567,10 @@
       <c r="T49" s="33"/>
       <c r="U49" s="32"/>
       <c r="V49" s="33"/>
-    </row>
-    <row r="50" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W49" s="32"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G50" s="46" t="s">
         <v>79</v>
       </c>
@@ -5447,8 +5591,10 @@
       <c r="T50" s="33"/>
       <c r="U50" s="32"/>
       <c r="V50" s="33"/>
-    </row>
-    <row r="51" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W50" s="32"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G51" s="46" t="s">
         <v>79</v>
       </c>
@@ -5469,8 +5615,10 @@
       <c r="T51" s="33"/>
       <c r="U51" s="32"/>
       <c r="V51" s="33"/>
-    </row>
-    <row r="52" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W51" s="32"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G52" s="46" t="s">
         <v>79</v>
       </c>
@@ -5491,8 +5639,10 @@
       <c r="T52" s="33"/>
       <c r="U52" s="32"/>
       <c r="V52" s="33"/>
-    </row>
-    <row r="53" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W52" s="32"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G53" s="46" t="s">
         <v>79</v>
       </c>
@@ -5513,16 +5663,18 @@
       <c r="T53" s="33"/>
       <c r="U53" s="32"/>
       <c r="V53" s="33"/>
-    </row>
-    <row r="54" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W53" s="32"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G54" s="46" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="47">
         <v>12</v>
       </c>
-      <c r="I54" s="88"/>
-      <c r="J54" s="89"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="87"/>
       <c r="K54" s="74"/>
       <c r="L54" s="73"/>
       <c r="M54" s="74"/>
@@ -5535,8 +5687,10 @@
       <c r="T54" s="33"/>
       <c r="U54" s="32"/>
       <c r="V54" s="33"/>
-    </row>
-    <row r="55" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W54" s="32"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G55" s="48" t="s">
         <v>79</v>
       </c>
@@ -5557,16 +5711,18 @@
       <c r="T55" s="33"/>
       <c r="U55" s="32"/>
       <c r="V55" s="33"/>
-    </row>
-    <row r="56" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W55" s="32"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G56" s="51" t="s">
         <v>78</v>
       </c>
       <c r="H56" s="52">
         <v>14</v>
       </c>
-      <c r="I56" s="86"/>
-      <c r="J56" s="87"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="42"/>
       <c r="K56" s="42"/>
       <c r="L56" s="42"/>
       <c r="M56" s="42"/>
@@ -5579,8 +5735,10 @@
       <c r="T56" s="33"/>
       <c r="U56" s="32"/>
       <c r="V56" s="33"/>
-    </row>
-    <row r="57" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W56" s="32"/>
+      <c r="X56" s="33"/>
+    </row>
+    <row r="57" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G57" s="55" t="s">
         <v>78</v>
       </c>
@@ -5601,8 +5759,10 @@
       <c r="T57" s="33"/>
       <c r="U57" s="38"/>
       <c r="V57" s="39"/>
-    </row>
-    <row r="58" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W57" s="38"/>
+      <c r="X57" s="39"/>
+    </row>
+    <row r="58" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="57" t="s">
         <v>77</v>
       </c>
@@ -5623,8 +5783,10 @@
       <c r="T58" s="31"/>
       <c r="U58" s="30"/>
       <c r="V58" s="31"/>
-    </row>
-    <row r="59" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W58" s="30"/>
+      <c r="X58" s="31"/>
+    </row>
+    <row r="59" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G59" s="60" t="s">
         <v>77</v>
       </c>
@@ -5640,13 +5802,15 @@
       <c r="O59" s="74"/>
       <c r="P59" s="72"/>
       <c r="Q59" s="32"/>
-      <c r="R59" s="119"/>
+      <c r="R59" s="41"/>
       <c r="S59" s="32"/>
       <c r="T59" s="33"/>
       <c r="U59" s="32"/>
       <c r="V59" s="33"/>
-    </row>
-    <row r="60" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="32"/>
+      <c r="X59" s="33"/>
+    </row>
+    <row r="60" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G60" s="60" t="s">
         <v>77</v>
       </c>
@@ -5662,21 +5826,23 @@
       <c r="O60" s="34"/>
       <c r="P60" s="42"/>
       <c r="Q60" s="32"/>
-      <c r="R60" s="119"/>
+      <c r="R60" s="41"/>
       <c r="S60" s="34"/>
       <c r="T60" s="35"/>
       <c r="U60" s="32"/>
       <c r="V60" s="33"/>
-    </row>
-    <row r="61" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W60" s="32"/>
+      <c r="X60" s="33"/>
+    </row>
+    <row r="61" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="62" t="s">
         <v>77</v>
       </c>
       <c r="H61" s="63">
         <v>19</v>
       </c>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="24"/>
       <c r="K61" s="38"/>
       <c r="L61" s="39"/>
       <c r="M61" s="50"/>
@@ -5693,8 +5859,10 @@
       <c r="T61" s="72"/>
       <c r="U61" s="38"/>
       <c r="V61" s="39"/>
-    </row>
-    <row r="62" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W61" s="38"/>
+      <c r="X61" s="39"/>
+    </row>
+    <row r="62" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G62" s="66" t="s">
         <v>75</v>
       </c>
@@ -5715,30 +5883,34 @@
       <c r="T62" s="31"/>
       <c r="U62" s="30"/>
       <c r="V62" s="31"/>
-    </row>
-    <row r="63" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W62" s="30"/>
+      <c r="X62" s="31"/>
+    </row>
+    <row r="63" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G63" s="68" t="s">
         <v>75</v>
       </c>
       <c r="H63" s="69">
         <v>21</v>
       </c>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="33"/>
-    </row>
-    <row r="64" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="97"/>
+      <c r="N63" s="97"/>
+      <c r="O63" s="97"/>
+      <c r="P63" s="97"/>
+      <c r="Q63" s="97"/>
+      <c r="R63" s="97"/>
+      <c r="S63" s="98"/>
+      <c r="T63" s="99"/>
+      <c r="U63" s="98"/>
+      <c r="V63" s="99"/>
+      <c r="W63" s="98"/>
+      <c r="X63" s="99"/>
+    </row>
+    <row r="64" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="68" t="s">
         <v>75</v>
       </c>
@@ -5758,23 +5930,25 @@
       <c r="O64" s="34"/>
       <c r="P64" s="42"/>
       <c r="Q64" s="32"/>
-      <c r="R64" s="119"/>
+      <c r="R64" s="41"/>
       <c r="S64" s="36"/>
       <c r="T64" s="37"/>
       <c r="U64" s="36"/>
       <c r="V64" s="37"/>
-    </row>
-    <row r="65" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G69" s="103" t="s">
+      <c r="W64" s="36"/>
+      <c r="X64" s="37"/>
+    </row>
+    <row r="65" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="H69" s="104"/>
-    </row>
-    <row r="70" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="110"/>
+    </row>
+    <row r="70" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="6" t="s">
         <v>159</v>
       </c>
@@ -5823,8 +5997,14 @@
       <c r="V70" s="26" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="71" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W70" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="X70" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G71" s="44">
         <v>1</v>
       </c>
@@ -5880,8 +6060,15 @@
         <f>H71*U71</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="72" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W71" s="75">
+        <v>100</v>
+      </c>
+      <c r="X71" s="23">
+        <f>H71*W71</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="46">
         <v>2</v>
       </c>
@@ -5937,8 +6124,15 @@
         <f t="shared" ref="V72:V92" si="6">H72*U72</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="73" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W72" s="8">
+        <v>100</v>
+      </c>
+      <c r="X72" s="13">
+        <f t="shared" ref="X72:X92" si="7">H72*W72</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G73" s="46">
         <v>3</v>
       </c>
@@ -5994,8 +6188,15 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="74" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W73" s="8">
+        <v>100</v>
+      </c>
+      <c r="X73" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G74" s="46">
         <v>4</v>
       </c>
@@ -6051,8 +6252,15 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="75" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W74" s="8">
+        <v>100</v>
+      </c>
+      <c r="X74" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G75" s="46">
         <v>5</v>
       </c>
@@ -6108,8 +6316,15 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="76" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W75" s="8">
+        <v>100</v>
+      </c>
+      <c r="X75" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G76" s="46">
         <v>6</v>
       </c>
@@ -6165,8 +6380,15 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="77" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W76" s="8">
+        <v>100</v>
+      </c>
+      <c r="X76" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G77" s="46">
         <v>7</v>
       </c>
@@ -6222,8 +6444,15 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="78" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W77" s="8">
+        <v>100</v>
+      </c>
+      <c r="X77" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G78" s="46">
         <v>8</v>
       </c>
@@ -6265,22 +6494,29 @@
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="S78" s="116">
+      <c r="S78" s="8">
         <v>100</v>
       </c>
       <c r="T78" s="13">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="U78" s="116">
+      <c r="U78" s="8">
         <v>100</v>
       </c>
       <c r="V78" s="13">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="79" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W78" s="8">
+        <v>100</v>
+      </c>
+      <c r="X78" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G79" s="46">
         <v>9</v>
       </c>
@@ -6336,8 +6572,15 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="80" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W79" s="8">
+        <v>100</v>
+      </c>
+      <c r="X79" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G80" s="46">
         <v>10</v>
       </c>
@@ -6393,51 +6636,63 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="81" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W80" s="8">
+        <v>100</v>
+      </c>
+      <c r="X80" s="13">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G81" s="46">
         <v>11</v>
       </c>
       <c r="H81" s="47">
         <v>4</v>
       </c>
-      <c r="I81" s="8"/>
-      <c r="J81" s="13">
+      <c r="I81" s="100"/>
+      <c r="J81" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="13">
+      <c r="K81" s="100"/>
+      <c r="L81" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="13">
+      <c r="M81" s="100"/>
+      <c r="N81" s="99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O81" s="8"/>
-      <c r="P81" s="13">
+      <c r="O81" s="100"/>
+      <c r="P81" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="13">
+      <c r="Q81" s="100"/>
+      <c r="R81" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S81" s="8"/>
-      <c r="T81" s="13">
+      <c r="S81" s="100"/>
+      <c r="T81" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U81" s="8"/>
-      <c r="V81" s="13">
+      <c r="U81" s="100"/>
+      <c r="V81" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W81" s="100"/>
+      <c r="X81" s="99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G82" s="46">
         <v>12</v>
       </c>
@@ -6445,11 +6700,11 @@
         <v>5</v>
       </c>
       <c r="I82" s="76">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J82" s="13">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K82" s="76">
         <v>80</v>
@@ -6493,8 +6748,15 @@
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="83" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W82" s="76">
+        <v>100</v>
+      </c>
+      <c r="X82" s="13">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G83" s="48">
         <v>13</v>
       </c>
@@ -6550,8 +6812,15 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W83" s="12">
+        <v>100</v>
+      </c>
+      <c r="X83" s="21">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G84" s="51">
         <v>14</v>
       </c>
@@ -6559,11 +6828,11 @@
         <v>4</v>
       </c>
       <c r="I84" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J84" s="13">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K84" s="8">
         <v>0</v>
@@ -6607,8 +6876,15 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="85" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W84" s="8">
+        <v>20</v>
+      </c>
+      <c r="X84" s="13">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G85" s="55">
         <v>15</v>
       </c>
@@ -6664,8 +6940,15 @@
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="86" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W85" s="8">
+        <v>100</v>
+      </c>
+      <c r="X85" s="13">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G86" s="57">
         <v>16</v>
       </c>
@@ -6721,8 +7004,15 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="87" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W86" s="75">
+        <v>100</v>
+      </c>
+      <c r="X86" s="23">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G87" s="60">
         <v>17</v>
       </c>
@@ -6778,8 +7068,15 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="88" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W87" s="8">
+        <v>100</v>
+      </c>
+      <c r="X87" s="13">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G88" s="60">
         <v>18</v>
       </c>
@@ -6835,8 +7132,15 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="89" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W88" s="8">
+        <v>100</v>
+      </c>
+      <c r="X88" s="13">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G89" s="62">
         <v>19</v>
       </c>
@@ -6892,8 +7196,15 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W89" s="12">
+        <v>50</v>
+      </c>
+      <c r="X89" s="21">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G90" s="66">
         <v>20</v>
       </c>
@@ -6949,8 +7260,15 @@
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W90" s="8">
+        <v>100</v>
+      </c>
+      <c r="X90" s="13">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G91" s="68">
         <v>21</v>
       </c>
@@ -6992,8 +7310,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="7:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W91" s="8"/>
+      <c r="X91" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G92" s="70">
         <v>22</v>
       </c>
@@ -7049,16 +7372,23 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="7:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G93" s="105" t="s">
+      <c r="W92" s="12">
+        <v>0</v>
+      </c>
+      <c r="X92" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="H93" s="105"/>
+      <c r="H93" s="111"/>
       <c r="I93" s="6"/>
       <c r="J93" s="21">
         <f>SUM(J71:J92)</f>
-        <v>6080</v>
+        <v>5750</v>
       </c>
       <c r="K93" s="25"/>
       <c r="L93" s="21">
@@ -7090,30 +7420,35 @@
         <f>SUM(V71:V92)</f>
         <v>6500</v>
       </c>
-    </row>
-    <row r="94" spans="7:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G94" s="105" t="s">
+      <c r="W93" s="25"/>
+      <c r="X93" s="21">
+        <f>SUM(X71:X92)</f>
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="94" spans="7:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G94" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="H94" s="105"/>
+      <c r="H94" s="111"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="90">
-        <v>3</v>
+      <c r="J94" s="117">
+        <v>5</v>
       </c>
       <c r="K94" s="25"/>
-      <c r="L94" s="118">
-        <v>5</v>
+      <c r="L94" s="117">
+        <v>6</v>
       </c>
       <c r="M94" s="25"/>
-      <c r="N94" s="91">
+      <c r="N94" s="117">
+        <v>8</v>
+      </c>
+      <c r="O94" s="25"/>
+      <c r="P94" s="117">
         <v>7</v>
       </c>
-      <c r="O94" s="25"/>
-      <c r="P94" s="91">
-        <v>6</v>
-      </c>
       <c r="Q94" s="25"/>
-      <c r="R94" s="118">
+      <c r="R94" s="117">
         <v>4</v>
       </c>
       <c r="S94" s="25"/>
@@ -7124,9 +7459,66 @@
       <c r="V94" s="117">
         <v>1</v>
       </c>
+      <c r="W94" s="25"/>
+      <c r="X94" s="117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="7:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="J95" s="119"/>
+      <c r="K95" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="L95" s="119"/>
+      <c r="M95" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="N95" s="119"/>
+      <c r="O95" s="119"/>
+      <c r="P95" s="119"/>
+      <c r="Q95" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="R95" s="119"/>
+      <c r="S95" s="119"/>
+      <c r="T95" s="119"/>
+      <c r="U95" s="119"/>
+      <c r="V95" s="119"/>
+      <c r="W95" s="119"/>
+      <c r="X95" s="119"/>
+    </row>
+    <row r="96" spans="7:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="118"/>
+      <c r="J96" s="118"/>
+      <c r="K96" s="118"/>
+      <c r="L96" s="118"/>
+      <c r="M96" s="118"/>
+      <c r="N96" s="118"/>
+      <c r="O96" s="118"/>
+      <c r="P96" s="118"/>
+      <c r="Q96" s="118"/>
+      <c r="R96" s="118"/>
+      <c r="S96" s="118"/>
+      <c r="T96" s="118"/>
+      <c r="U96" s="118"/>
+      <c r="V96" s="118"/>
+      <c r="W96" s="118"/>
+      <c r="X96" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="46">
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Q95:R96"/>
+    <mergeCell ref="I95:J96"/>
+    <mergeCell ref="K95:L96"/>
+    <mergeCell ref="M95:N96"/>
+    <mergeCell ref="O95:P96"/>
+    <mergeCell ref="S95:T96"/>
+    <mergeCell ref="U95:V96"/>
+    <mergeCell ref="W95:X96"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="U1:V2"/>
     <mergeCell ref="G69:H69"/>
@@ -7137,6 +7529,7 @@
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="O1:P2"/>
     <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A7:A8"/>
@@ -7158,7 +7551,6 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G42:H42"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
@@ -7182,32 +7574,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/05_Kostenanalysen/00_Kosten.xlsx
+++ b/05_Kostenanalysen/00_Kosten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\05_Kostenanalysen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\05_Kostenanalysen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75945401-A6BF-4574-ABF4-8D44D4D7A761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B66D2C-3D34-4D30-B6E1-28C666F9B0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{6E908FF6-7093-4655-B2FC-F824AB1F546C}"/>
+    <workbookView xWindow="28680" yWindow="135" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{05F95536-64D3-4E57-BDA6-A6127307A265}"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenanalys_Features" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="189">
   <si>
     <t>Encoder Stecker</t>
   </si>
@@ -227,12 +227,6 @@
   </si>
   <si>
     <t>Indexer vollInt.</t>
-  </si>
-  <si>
-    <t>TMC2210</t>
-  </si>
-  <si>
-    <t>DRV8461</t>
   </si>
   <si>
     <t>TMC2260</t>
@@ -984,7 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1276,63 +1270,64 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1616,9 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1791,7 +1784,7 @@
         <v>2.0512564916666669</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K3" s="1">
         <v>0.2</v>
@@ -1817,11 +1810,11 @@
         <v>0.85</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3" s="1">
         <f>W3*(V3+U3)</f>
-        <v>0.89</v>
+        <v>1.78</v>
       </c>
       <c r="Y3">
         <v>1E-3</v>
@@ -1845,10 +1838,10 @@
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <f>ROUND((I6+N6+S6+X6),2)</f>
-        <v>8.48</v>
+        <v>9.92</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K4" s="1">
         <v>2.2799999999999998</v>
@@ -1875,11 +1868,11 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4" s="1">
         <f>W4*(V4+U4)</f>
-        <v>0.55100000000000005</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -1888,10 +1881,10 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="K5" s="1">
         <v>0.57999999999999996</v>
@@ -1908,7 +1901,7 @@
       </c>
       <c r="O5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U5" s="1">
         <v>0.1</v>
@@ -1927,13 +1920,13 @@
     <row r="6" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82">
         <f>I6+N3+X3+X4+B6</f>
-        <v>6.2922564916666666</v>
+        <v>7.7332564916666673</v>
       </c>
       <c r="B6" s="89">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="89">
@@ -1941,7 +1934,7 @@
         <v>4.1899999999999995</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I6" s="5">
         <f>SUM(I3:I5)</f>
@@ -1969,7 +1962,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5">
         <f>SUM(X3:X5)</f>
-        <v>1.9610000000000001</v>
+        <v>3.4020000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -2001,7 +1994,7 @@
         <v>2.0512564916666669</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K7" s="1">
         <v>0.2</v>
@@ -2027,20 +2020,20 @@
         <v>0.85</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1">
         <f>W7*(V7+U7)</f>
-        <v>0.89</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <f>ROUND((I10+N10+S10+X10),2)</f>
-        <v>8.3699999999999992</v>
+        <v>9.81</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K8" s="1">
         <v>0.2</v>
@@ -2067,19 +2060,19 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" s="1">
         <f>W8*(V8+U8)</f>
-        <v>0.55100000000000005</v>
+        <v>1.1020000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K9" s="1">
         <v>0.45</v>
@@ -2096,7 +2089,7 @@
       </c>
       <c r="O9" s="3"/>
       <c r="T9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U9" s="1">
         <v>0.1</v>
@@ -2142,12 +2135,12 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5">
         <f>SUM(X7:X9)</f>
-        <v>1.9610000000000001</v>
+        <v>3.4020000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -2186,17 +2179,17 @@
         <v>0.85</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11" s="1">
         <f>W11*(V11+U11)</f>
-        <v>0.89</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <f>ROUND((I14+N14+S14+X14),2)</f>
-        <v>2.66</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J12" s="3"/>
       <c r="O12" s="3"/>
@@ -2211,11 +2204,11 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12" s="1">
         <f>W12*(V12+U12)</f>
-        <v>0.55100000000000005</v>
+        <v>1.1020000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2253,7 +2246,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5">
         <f>SUM(X11:X13)</f>
-        <v>1.4410000000000001</v>
+        <v>2.8820000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -2754,14 +2747,14 @@
         <v>0.04</v>
       </c>
       <c r="Q31" s="1">
-        <v>2.8</v>
+        <v>3.67</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
       </c>
       <c r="S31" s="1">
         <f>R31*(Q31+P31)</f>
-        <v>2.84</v>
+        <v>3.71</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>50</v>
@@ -2783,11 +2776,27 @@
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <f>I34+N34+S34+X31</f>
-        <v>4.0288599999999999</v>
+        <v>4.8988600000000009</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="O32" s="3" t="s">
-        <v>57</v>
+      <c r="O32" s="3"/>
+      <c r="P32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="S32" s="13"/>
     </row>
@@ -2795,9 +2804,25 @@
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
+      <c r="B33" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.67</v>
+      </c>
       <c r="J33" s="3"/>
-      <c r="O33" s="3" t="s">
-        <v>63</v>
+      <c r="O33" s="3"/>
+      <c r="P33" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3.67</v>
       </c>
       <c r="T33" s="3"/>
     </row>
@@ -2805,8 +2830,18 @@
       <c r="A34" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="119">
+        <f>B33+I34+X34</f>
+        <v>4.7788599999999999</v>
+      </c>
+      <c r="C34" s="120">
+        <f>C33+I34+X34</f>
+        <v>2.4488599999999998</v>
+      </c>
+      <c r="D34" s="119">
+        <f>D33+I34+X34</f>
+        <v>4.85886</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="I34" s="5">
         <f>SUM(I31:I33)</f>
@@ -2820,15 +2855,13 @@
         <f>SUM(N31:N33)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="O34" s="6"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5">
         <f>SUM(S31:S33)</f>
-        <v>2.84</v>
+        <v>3.71</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="5"/>
@@ -2890,17 +2923,17 @@
         <v>8.0680000000000002E-2</v>
       </c>
       <c r="W35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X35" s="1">
         <f>W35*(V35+U35)</f>
-        <v>0.28068000000000004</v>
+        <v>0.56136000000000008</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <f>I38+N38+S38+X35</f>
-        <v>4.4481800000000007</v>
+        <v>4.728860000000001</v>
       </c>
       <c r="J36" s="3"/>
       <c r="O36" s="3" t="s">
@@ -2914,7 +2947,7 @@
       </c>
       <c r="J37" s="3"/>
       <c r="O37" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T37" s="3"/>
     </row>
@@ -2955,7 +2988,7 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5">
         <f>SUM(X35:X37)</f>
-        <v>0.28068000000000004</v>
+        <v>0.56136000000000008</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3196,7 +3229,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1">
         <v>5</v>
@@ -3250,11 +3283,11 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J49" s="3"/>
       <c r="O49" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T49" s="3"/>
     </row>
@@ -3321,7 +3354,7 @@
       <c r="J51" s="3"/>
       <c r="L51" s="11"/>
       <c r="O51" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P51" s="1">
         <v>0.04</v>
@@ -3361,7 +3394,7 @@
       <c r="J52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q52" s="11">
         <v>0.71899999999999997</v>
@@ -3373,7 +3406,7 @@
       <c r="J53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T53" s="3"/>
     </row>
@@ -3417,7 +3450,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
@@ -3442,7 +3475,7 @@
       <c r="L55" s="11"/>
       <c r="N55" s="18"/>
       <c r="O55" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P55" s="1">
         <v>0.04</v>
@@ -3792,8 +3825,8 @@
   </sheetPr>
   <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3805,38 +3838,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="106" t="s">
+      <c r="I1" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="106" t="s">
+      <c r="J1" s="104"/>
+      <c r="K1" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="107"/>
-      <c r="S1" s="106" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="104"/>
+      <c r="O1" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="104"/>
+      <c r="U1" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="107"/>
-      <c r="U1" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="V1" s="107"/>
-      <c r="W1" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="X1" s="107"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="X1" s="104"/>
     </row>
     <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="112"/>
@@ -3849,12 +3882,12 @@
       <c r="P2" s="113"/>
       <c r="Q2" s="112"/>
       <c r="R2" s="113"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="103"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="106"/>
     </row>
     <row r="3" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="27" t="s">
@@ -3924,77 +3957,83 @@
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103">
+      <c r="A5" s="106">
         <v>1</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="I5" s="92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J5" s="93">
-        <v>3.26</v>
+        <f>Kostenanalys_Features!B34</f>
+        <v>4.7788599999999999</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L5" s="93">
-        <v>7.4867999999999997</v>
+        <f>Kostenanalys_Features!A40</f>
+        <v>8.713441412291667</v>
       </c>
       <c r="M5" s="92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N5" s="93">
-        <v>3.44</v>
+        <f>Kostenanalys_Features!A36</f>
+        <v>4.728860000000001</v>
       </c>
       <c r="O5" s="92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P5" s="93">
-        <v>1.26</v>
+        <f>Kostenanalys_Features!C34</f>
+        <v>2.4488599999999998</v>
       </c>
       <c r="Q5" s="92" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R5" s="93">
-        <v>3.4</v>
+        <f>Kostenanalys_Features!B34</f>
+        <v>4.7788599999999999</v>
       </c>
       <c r="S5" s="92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T5" s="93">
-        <v>1.9</v>
+        <f>Kostenanalys_Features!B34</f>
+        <v>4.7788599999999999</v>
       </c>
       <c r="U5" s="92" t="s">
         <v>59</v>
       </c>
       <c r="V5" s="93">
-        <f>Kostenanalys_Features!A32</f>
-        <v>4.0288599999999999</v>
+        <f>Kostenanalys_Features!D34</f>
+        <v>4.85886</v>
       </c>
       <c r="W5" s="92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X5" s="93">
-        <f>Kostenanalys_Features!A32</f>
-        <v>4.0288599999999999</v>
+        <f>Kostenanalys_Features!B34</f>
+        <v>4.7788599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="103"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
@@ -4005,7 +4044,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="13"/>
       <c r="M6" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="3"/>
@@ -4013,68 +4052,68 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="13"/>
       <c r="S6" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V6" s="13"/>
       <c r="W6" s="95"/>
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103">
+      <c r="A7" s="106">
         <v>2</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>81</v>
+      <c r="B7" s="117" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
       <c r="I7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R7" s="13"/>
       <c r="S7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T7" s="13"/>
       <c r="U7" s="96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V7" s="13"/>
-      <c r="W7" s="115"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
@@ -4093,38 +4132,38 @@
       <c r="S8" s="3"/>
       <c r="T8" s="13"/>
       <c r="U8" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V8" s="13"/>
       <c r="W8" s="3"/>
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103">
+      <c r="A9" s="106">
         <v>3</v>
       </c>
-      <c r="B9" s="104" t="s">
-        <v>82</v>
+      <c r="B9" s="115" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="77"/>
       <c r="G9" s="77"/>
       <c r="I9" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="3">
@@ -4132,25 +4171,25 @@
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T9" s="13"/>
       <c r="U9" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V9" s="13"/>
       <c r="W9" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
@@ -4169,69 +4208,69 @@
       <c r="S10" s="6"/>
       <c r="T10" s="21"/>
       <c r="U10" s="94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V10" s="21"/>
       <c r="W10" s="94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103">
+      <c r="A11" s="106">
         <v>4</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>93</v>
+      <c r="B11" s="117" t="s">
+        <v>91</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="77"/>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
       <c r="I11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R11" s="13">
         <f>D12</f>
         <v>5.4838400000000007</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T11" s="13"/>
       <c r="U11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V11" s="13"/>
       <c r="W11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="103"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="78">
         <v>0</v>
       </c>
@@ -4260,11 +4299,11 @@
       <c r="X12" s="81"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103">
+      <c r="A13" s="106">
         <v>5</v>
       </c>
-      <c r="B13" s="101" t="s">
-        <v>113</v>
+      <c r="B13" s="117" t="s">
+        <v>111</v>
       </c>
       <c r="C13" s="77">
         <v>1</v>
@@ -4273,12 +4312,12 @@
         <v>2</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
       <c r="I13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="3">
@@ -4286,7 +4325,7 @@
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="3">
@@ -4294,7 +4333,7 @@
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R13" s="13"/>
       <c r="S13" s="3">
@@ -4306,13 +4345,13 @@
       </c>
       <c r="V13" s="13"/>
       <c r="W13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="103"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
@@ -4336,27 +4375,27 @@
       <c r="X14" s="81"/>
     </row>
     <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103">
+      <c r="A15" s="106">
         <v>6</v>
       </c>
-      <c r="B15" s="101" t="s">
-        <v>111</v>
+      <c r="B15" s="117" t="s">
+        <v>109</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" s="77"/>
       <c r="I15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="3" t="s">
@@ -4364,33 +4403,33 @@
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T15" s="13"/>
       <c r="U15" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V15" s="13"/>
       <c r="W15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X15" s="13"/>
     </row>
     <row r="16" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
       <c r="E16" s="78"/>
@@ -4414,57 +4453,57 @@
       <c r="X16" s="81"/>
     </row>
     <row r="17" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="103">
+      <c r="A17" s="106">
         <v>7</v>
       </c>
-      <c r="B17" s="101" t="s">
-        <v>119</v>
+      <c r="B17" s="117" t="s">
+        <v>117</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
       <c r="I17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R17" s="13"/>
       <c r="S17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T17" s="13"/>
       <c r="U17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V17" s="13"/>
       <c r="W17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
       <c r="E18" s="78"/>
@@ -4488,59 +4527,59 @@
       <c r="X18" s="81"/>
     </row>
     <row r="19" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="103">
+      <c r="A19" s="106">
         <v>8</v>
       </c>
-      <c r="B19" s="101" t="s">
-        <v>140</v>
+      <c r="B19" s="117" t="s">
+        <v>138</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
       <c r="I19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R19" s="13"/>
       <c r="S19" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T19" s="13"/>
       <c r="U19" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V19" s="13"/>
       <c r="W19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X19" s="13"/>
     </row>
     <row r="20" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
       <c r="E20" s="78"/>
@@ -4564,65 +4603,65 @@
       <c r="X20" s="81"/>
     </row>
     <row r="21" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103">
+      <c r="A21" s="106">
         <v>9</v>
       </c>
-      <c r="B21" s="101" t="s">
-        <v>106</v>
+      <c r="B21" s="117" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="77"/>
       <c r="I21" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J21" s="13">
         <f>C22</f>
         <v>2.4323338666666667</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N21" s="13">
         <f>E22</f>
         <v>2.4323338666666667</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T21" s="13"/>
       <c r="U21" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V21" s="13"/>
       <c r="W21" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X21" s="13"/>
     </row>
     <row r="22" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="103"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="78">
         <f>2*Kostenanalys_Features!A24</f>
         <v>2.4323338666666667</v>
@@ -4654,36 +4693,36 @@
       <c r="X22" s="81"/>
     </row>
     <row r="23" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103">
+      <c r="A23" s="106">
         <v>10</v>
       </c>
-      <c r="B23" s="101" t="s">
-        <v>105</v>
+      <c r="B23" s="117" t="s">
+        <v>103</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J23" s="13">
         <f>C24</f>
         <v>2.65205</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L23" s="13">
         <v>0</v>
@@ -4696,32 +4735,32 @@
         <v>2.65205</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P23" s="13">
         <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R23" s="13">
         <f>C24</f>
         <v>2.65205</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T23" s="13">
         <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V23" s="13">
         <v>0</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="X23" s="13">
         <f>E24</f>
@@ -4729,8 +4768,8 @@
       </c>
     </row>
     <row r="24" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="103"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="78">
         <f>Kostenanalys_Features!A20</f>
         <v>2.65205</v>
@@ -4761,29 +4800,29 @@
       <c r="X24" s="81"/>
     </row>
     <row r="25" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103">
+      <c r="A25" s="106">
         <v>11</v>
       </c>
-      <c r="B25" s="101" t="s">
-        <v>103</v>
+      <c r="B25" s="117" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="I25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="3" t="s">
@@ -4791,29 +4830,29 @@
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T25" s="13"/>
       <c r="U25" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V25" s="13"/>
       <c r="W25" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X25" s="13"/>
     </row>
     <row r="26" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="103"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
       <c r="E26" s="78"/>
@@ -4837,88 +4876,88 @@
       <c r="X26" s="81"/>
     </row>
     <row r="27" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103">
+      <c r="A27" s="106">
         <v>12</v>
       </c>
-      <c r="B27" s="101" t="s">
-        <v>96</v>
+      <c r="B27" s="117" t="s">
+        <v>94</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="77"/>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="I27" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J27" s="13">
         <f>C28</f>
-        <v>8.48</v>
+        <v>9.92</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L27" s="13">
         <f>C28</f>
-        <v>8.48</v>
+        <v>9.92</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N27" s="13">
         <f>C28</f>
-        <v>8.48</v>
+        <v>9.92</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P27" s="13">
         <f>D28</f>
-        <v>2.66</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R27" s="13">
         <f>C28</f>
-        <v>8.48</v>
+        <v>9.92</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T27" s="13">
         <f>D28</f>
-        <v>2.66</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V27" s="13">
         <f>D28</f>
-        <v>2.66</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X27" s="13">
         <f>D28</f>
-        <v>2.66</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="103"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="118"/>
       <c r="C28" s="78">
         <f>Kostenanalys_Features!A4</f>
-        <v>8.48</v>
+        <v>9.92</v>
       </c>
       <c r="D28" s="78">
         <f>Kostenanalys_Features!A12</f>
-        <v>2.66</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E28" s="78"/>
       <c r="F28" s="78"/>
@@ -4941,78 +4980,78 @@
       <c r="X28" s="81"/>
     </row>
     <row r="29" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103">
+      <c r="A29" s="106">
         <v>13</v>
       </c>
-      <c r="B29" s="101" t="s">
-        <v>90</v>
+      <c r="B29" s="117" t="s">
+        <v>88</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29" s="77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
       <c r="I29" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N29" s="13">
         <f>D30</f>
         <v>1.5866099999999999</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P29" s="13">
         <f>F30</f>
         <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R29" s="13">
         <f>H30</f>
         <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T29" s="13">
         <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V29" s="13">
         <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X29" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24" s="79" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="103"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="78">
         <v>0</v>
       </c>
@@ -5047,15 +5086,15 @@
       <c r="K31" s="3"/>
       <c r="L31" s="13"/>
       <c r="M31" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P31" s="13"/>
       <c r="Q31" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R31" s="13"/>
       <c r="S31" s="3"/>
@@ -5074,15 +5113,15 @@
       <c r="K32" s="6"/>
       <c r="L32" s="21"/>
       <c r="M32" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="6"/>
@@ -5096,7 +5135,7 @@
       <c r="A33"/>
       <c r="B33"/>
       <c r="H33" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="13">
@@ -5166,7 +5205,7 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="H35" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="23">
@@ -5236,54 +5275,54 @@
       <c r="A37"/>
       <c r="B37"/>
       <c r="H37" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="26">
         <f>SUM(J3:J36)</f>
-        <v>36.190443866666669</v>
+        <v>39.149303866666664</v>
       </c>
       <c r="K37" s="25"/>
       <c r="L37" s="26">
         <f>SUM(L3:L36)</f>
-        <v>35.332859999999997</v>
+        <v>37.999501412291671</v>
       </c>
       <c r="M37" s="25"/>
       <c r="N37" s="26">
         <f>SUM(N3:N36)</f>
-        <v>37.957053866666669</v>
+        <v>40.685913866666667</v>
       </c>
       <c r="O37" s="25"/>
       <c r="P37" s="26">
         <f>SUM(P3:P36)</f>
-        <v>23.286060000000003</v>
+        <v>25.914920000000002</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="26">
         <f>SUM(R3:R36)</f>
-        <v>39.381950000000003</v>
+        <v>42.200809999999997</v>
       </c>
       <c r="S37" s="25"/>
       <c r="T37" s="26">
         <f>SUM(T3:T36)</f>
-        <v>23.92606</v>
+        <v>28.24492</v>
       </c>
       <c r="U37" s="25"/>
       <c r="V37" s="26">
         <f>SUM(V3:V36)</f>
-        <v>26.054919999999999</v>
+        <v>28.324919999999999</v>
       </c>
       <c r="W37" s="25"/>
       <c r="X37" s="26">
         <f>SUM(X3:X36)</f>
-        <v>26.054919999999999</v>
+        <v>28.24492</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="H38" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="23"/>
@@ -5311,48 +5350,48 @@
       <c r="I39" s="6"/>
       <c r="J39" s="24">
         <f>J37*H39</f>
-        <v>43.42853264</v>
+        <v>46.979164639999993</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="24">
         <f>L37*H39</f>
-        <v>42.399431999999997</v>
+        <v>45.599401694750007</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="37">
         <f>N37*H39</f>
-        <v>45.548464639999999</v>
+        <v>48.823096639999996</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="83">
         <f>P37*H39</f>
-        <v>27.943272000000004</v>
+        <v>31.097904</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="37">
         <f>R37*H39</f>
-        <v>47.258340000000004</v>
+        <v>50.640971999999998</v>
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="83">
         <f>H39*T37</f>
-        <v>28.711271999999997</v>
+        <v>33.893903999999999</v>
       </c>
       <c r="U39" s="6"/>
       <c r="V39" s="83">
         <f>H39*V37</f>
-        <v>31.265903999999999</v>
+        <v>33.989903999999996</v>
       </c>
       <c r="W39" s="6"/>
       <c r="X39" s="83">
         <f>H39*X37</f>
-        <v>31.265903999999999</v>
+        <v>33.893903999999999</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -5361,7 +5400,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="23"/>
       <c r="Y40" s="88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA40" s="1">
         <v>9</v>
@@ -5376,7 +5415,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="13"/>
       <c r="Y41" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AA41" s="1">
         <v>3.67</v>
@@ -5387,13 +5426,13 @@
     </row>
     <row r="42" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="114" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H42" s="114"/>
       <c r="I42" s="3"/>
       <c r="J42" s="13"/>
       <c r="Y42" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AA42" s="1">
         <v>7.48</v>
@@ -5404,7 +5443,7 @@
     </row>
     <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H43" s="45">
         <v>1</v>
@@ -5428,7 +5467,7 @@
     </row>
     <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H44" s="47">
         <v>2</v>
@@ -5452,7 +5491,7 @@
     </row>
     <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H45" s="47">
         <v>3</v>
@@ -5476,7 +5515,7 @@
     </row>
     <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G46" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H46" s="47">
         <v>4</v>
@@ -5500,7 +5539,7 @@
     </row>
     <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H47" s="47">
         <v>5</v>
@@ -5524,7 +5563,7 @@
     </row>
     <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G48" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H48" s="47">
         <v>6</v>
@@ -5548,7 +5587,7 @@
     </row>
     <row r="49" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G49" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H49" s="47">
         <v>7</v>
@@ -5572,7 +5611,7 @@
     </row>
     <row r="50" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G50" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H50" s="47">
         <v>8</v>
@@ -5596,7 +5635,7 @@
     </row>
     <row r="51" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G51" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H51" s="47">
         <v>9</v>
@@ -5620,7 +5659,7 @@
     </row>
     <row r="52" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G52" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H52" s="47">
         <v>10</v>
@@ -5644,7 +5683,7 @@
     </row>
     <row r="53" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G53" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H53" s="47">
         <v>11</v>
@@ -5668,7 +5707,7 @@
     </row>
     <row r="54" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G54" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H54" s="47">
         <v>12</v>
@@ -5692,7 +5731,7 @@
     </row>
     <row r="55" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G55" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H55" s="49">
         <v>13</v>
@@ -5716,7 +5755,7 @@
     </row>
     <row r="56" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G56" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H56" s="52">
         <v>14</v>
@@ -5740,7 +5779,7 @@
     </row>
     <row r="57" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G57" s="55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H57" s="56">
         <v>15</v>
@@ -5764,7 +5803,7 @@
     </row>
     <row r="58" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H58" s="58">
         <v>16</v>
@@ -5788,7 +5827,7 @@
     </row>
     <row r="59" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G59" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H59" s="61">
         <v>17</v>
@@ -5812,7 +5851,7 @@
     </row>
     <row r="60" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G60" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H60" s="61">
         <v>18</v>
@@ -5836,22 +5875,22 @@
     </row>
     <row r="61" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H61" s="63">
         <v>19</v>
       </c>
-      <c r="I61" s="116"/>
+      <c r="I61" s="101"/>
       <c r="J61" s="24"/>
       <c r="K61" s="38"/>
       <c r="L61" s="39"/>
       <c r="M61" s="50"/>
       <c r="N61" s="50"/>
       <c r="O61" s="64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P61" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q61" s="38"/>
       <c r="R61" s="50"/>
@@ -5864,7 +5903,7 @@
     </row>
     <row r="62" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G62" s="66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H62" s="67">
         <v>20</v>
@@ -5888,7 +5927,7 @@
     </row>
     <row r="63" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G63" s="68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H63" s="69">
         <v>21</v>
@@ -5912,7 +5951,7 @@
     </row>
     <row r="64" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H64" s="69">
         <v>22</v>
@@ -5922,10 +5961,10 @@
       <c r="K64" s="32"/>
       <c r="L64" s="33"/>
       <c r="M64" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N64" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O64" s="34"/>
       <c r="P64" s="42"/>
@@ -5944,64 +5983,64 @@
     <row r="68" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H69" s="110"/>
     </row>
     <row r="70" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L70" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O70" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P70" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q70" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R70" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S70" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T70" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U70" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V70" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W70" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="X70" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="7:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7382,7 +7421,7 @@
     </row>
     <row r="93" spans="7:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G93" s="111" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H93" s="111"/>
       <c r="I93" s="6"/>
@@ -7428,108 +7467,98 @@
     </row>
     <row r="94" spans="7:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G94" s="111" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H94" s="111"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="117">
+      <c r="J94" s="102">
         <v>5</v>
       </c>
       <c r="K94" s="25"/>
-      <c r="L94" s="117">
+      <c r="L94" s="102">
         <v>6</v>
       </c>
       <c r="M94" s="25"/>
-      <c r="N94" s="117">
+      <c r="N94" s="102">
         <v>8</v>
       </c>
       <c r="O94" s="25"/>
-      <c r="P94" s="117">
+      <c r="P94" s="102">
         <v>7</v>
       </c>
       <c r="Q94" s="25"/>
-      <c r="R94" s="117">
+      <c r="R94" s="102">
         <v>4</v>
       </c>
       <c r="S94" s="25"/>
-      <c r="T94" s="117">
+      <c r="T94" s="102">
         <v>2</v>
       </c>
       <c r="U94" s="25"/>
-      <c r="V94" s="117">
+      <c r="V94" s="102">
         <v>1</v>
       </c>
       <c r="W94" s="25"/>
-      <c r="X94" s="117">
+      <c r="X94" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="7:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I95" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="J95" s="119"/>
-      <c r="K95" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="L95" s="119"/>
-      <c r="M95" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="N95" s="119"/>
-      <c r="O95" s="119"/>
-      <c r="P95" s="119"/>
-      <c r="Q95" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="R95" s="119"/>
-      <c r="S95" s="119"/>
-      <c r="T95" s="119"/>
-      <c r="U95" s="119"/>
-      <c r="V95" s="119"/>
-      <c r="W95" s="119"/>
-      <c r="X95" s="119"/>
+      <c r="I95" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="J95" s="107"/>
+      <c r="K95" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="L95" s="107"/>
+      <c r="M95" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="N95" s="107"/>
+      <c r="O95" s="107"/>
+      <c r="P95" s="107"/>
+      <c r="Q95" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="R95" s="107"/>
+      <c r="S95" s="107"/>
+      <c r="T95" s="107"/>
+      <c r="U95" s="107"/>
+      <c r="V95" s="107"/>
+      <c r="W95" s="107"/>
+      <c r="X95" s="107"/>
     </row>
     <row r="96" spans="7:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I96" s="118"/>
-      <c r="J96" s="118"/>
-      <c r="K96" s="118"/>
-      <c r="L96" s="118"/>
-      <c r="M96" s="118"/>
-      <c r="N96" s="118"/>
-      <c r="O96" s="118"/>
-      <c r="P96" s="118"/>
-      <c r="Q96" s="118"/>
-      <c r="R96" s="118"/>
-      <c r="S96" s="118"/>
-      <c r="T96" s="118"/>
-      <c r="U96" s="118"/>
-      <c r="V96" s="118"/>
-      <c r="W96" s="118"/>
-      <c r="X96" s="118"/>
+      <c r="I96" s="108"/>
+      <c r="J96" s="108"/>
+      <c r="K96" s="108"/>
+      <c r="L96" s="108"/>
+      <c r="M96" s="108"/>
+      <c r="N96" s="108"/>
+      <c r="O96" s="108"/>
+      <c r="P96" s="108"/>
+      <c r="Q96" s="108"/>
+      <c r="R96" s="108"/>
+      <c r="S96" s="108"/>
+      <c r="T96" s="108"/>
+      <c r="U96" s="108"/>
+      <c r="V96" s="108"/>
+      <c r="W96" s="108"/>
+      <c r="X96" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="Q95:R96"/>
-    <mergeCell ref="I95:J96"/>
-    <mergeCell ref="K95:L96"/>
-    <mergeCell ref="M95:N96"/>
-    <mergeCell ref="O95:P96"/>
-    <mergeCell ref="S95:T96"/>
-    <mergeCell ref="U95:V96"/>
-    <mergeCell ref="W95:X96"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="U1:V2"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A7:A8"/>
@@ -7546,16 +7575,26 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="Q95:R96"/>
+    <mergeCell ref="I95:J96"/>
+    <mergeCell ref="K95:L96"/>
+    <mergeCell ref="M95:N96"/>
+    <mergeCell ref="O95:P96"/>
+    <mergeCell ref="S95:T96"/>
+    <mergeCell ref="U95:V96"/>
+    <mergeCell ref="W95:X96"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="U1:V2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="Q1:R2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7731,23 +7770,23 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
